--- a/07/GraficosI.xlsx
+++ b/07/GraficosI.xlsx
@@ -108,6 +108,1013 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HistoricoMundial!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Población mundial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoricoMundial!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoricoMundial!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>1262</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>2751</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>3018</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>3335</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>3697</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>4077</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>4446</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>4854</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>5259</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>5759</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>6228</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>6574</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>6894</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>7349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-952E-4D6C-B97F-65190D1DF59F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="678529976"/>
+        <c:axId val="678528664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="678529976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678528664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="678528664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678529976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -551,5 +1558,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/07/GraficosI.xlsx
+++ b/07/GraficosI.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="8955" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HistoricoMundial" sheetId="1" r:id="rId1"/>
+    <sheet name="Minigráficos" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Poblacion">Minigráficos!$A$2:$I$225</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,19 +28,739 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="242">
   <si>
     <t>Año</t>
   </si>
   <si>
     <t>Población mundial</t>
+  </si>
+  <si>
+    <t>Datos sobre población de 1.999, en miles de personas</t>
+  </si>
+  <si>
+    <t>Continente</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Urbana</t>
+  </si>
+  <si>
+    <t>Total país</t>
+  </si>
+  <si>
+    <t>% P. rural</t>
+  </si>
+  <si>
+    <t>África</t>
+  </si>
+  <si>
+    <t>  Nigeria</t>
+  </si>
+  <si>
+    <t>  Egipto</t>
+  </si>
+  <si>
+    <t>  Etiopía</t>
+  </si>
+  <si>
+    <t>  Congo, Republica Dem del</t>
+  </si>
+  <si>
+    <t>  Sudáfrica</t>
+  </si>
+  <si>
+    <t>  Tanzania, Rep Unida de</t>
+  </si>
+  <si>
+    <t>  Argelia</t>
+  </si>
+  <si>
+    <t>  Kenya</t>
+  </si>
+  <si>
+    <t>  Sudán</t>
+  </si>
+  <si>
+    <t>  Marruecos</t>
+  </si>
+  <si>
+    <t>  Uganda</t>
+  </si>
+  <si>
+    <t>  Ghana</t>
+  </si>
+  <si>
+    <t>  Mozambique</t>
+  </si>
+  <si>
+    <t>  Madagascar</t>
+  </si>
+  <si>
+    <t>  Camerún</t>
+  </si>
+  <si>
+    <t>  Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>  Angola</t>
+  </si>
+  <si>
+    <t>  Burkina Faso</t>
+  </si>
+  <si>
+    <t>  Zimbabwe</t>
+  </si>
+  <si>
+    <t>  Malí</t>
+  </si>
+  <si>
+    <t>  Malawi</t>
+  </si>
+  <si>
+    <t>  Níger</t>
+  </si>
+  <si>
+    <t>  Somalia</t>
+  </si>
+  <si>
+    <t>  Túnez</t>
+  </si>
+  <si>
+    <t>  Senegal</t>
+  </si>
+  <si>
+    <t>  Zambia</t>
+  </si>
+  <si>
+    <t>  Chad</t>
+  </si>
+  <si>
+    <t>  Guinea</t>
+  </si>
+  <si>
+    <t>  Rwanda</t>
+  </si>
+  <si>
+    <t>  Burundi</t>
+  </si>
+  <si>
+    <t>  Benin</t>
+  </si>
+  <si>
+    <t>  Libia, Jamahiriya Arabe</t>
+  </si>
+  <si>
+    <t>  Sierra Leona</t>
+  </si>
+  <si>
+    <t>  Togo</t>
+  </si>
+  <si>
+    <t>  Eritrea</t>
+  </si>
+  <si>
+    <t>  Centroafricana,República</t>
+  </si>
+  <si>
+    <t>  Liberia</t>
+  </si>
+  <si>
+    <t>  Congo, República del</t>
+  </si>
+  <si>
+    <t>  Mauritania</t>
+  </si>
+  <si>
+    <t>  Lesotho</t>
+  </si>
+  <si>
+    <t>  Namibia</t>
+  </si>
+  <si>
+    <t>  Botswana</t>
+  </si>
+  <si>
+    <t>  Gambia</t>
+  </si>
+  <si>
+    <t>  Gabón</t>
+  </si>
+  <si>
+    <t>  Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>  Mauricio</t>
+  </si>
+  <si>
+    <t>  Swazilandia</t>
+  </si>
+  <si>
+    <t>  Reunión</t>
+  </si>
+  <si>
+    <t>  Comoras</t>
+  </si>
+  <si>
+    <t>  Djibouti</t>
+  </si>
+  <si>
+    <t>  Guinea Ecuatorial</t>
+  </si>
+  <si>
+    <t>  Cabo Verde</t>
+  </si>
+  <si>
+    <t>  Sahara Occidental</t>
+  </si>
+  <si>
+    <t>  Santo Tomé y Principe</t>
+  </si>
+  <si>
+    <t>  Seychelles</t>
+  </si>
+  <si>
+    <t>  Santa Elena</t>
+  </si>
+  <si>
+    <t>América</t>
+  </si>
+  <si>
+    <t>  EstadosUnidos de América</t>
+  </si>
+  <si>
+    <t>  Brasil</t>
+  </si>
+  <si>
+    <t>  México</t>
+  </si>
+  <si>
+    <t>  Colombia</t>
+  </si>
+  <si>
+    <t>  Argentina</t>
+  </si>
+  <si>
+    <t>  Canadá</t>
+  </si>
+  <si>
+    <t>  Perú</t>
+  </si>
+  <si>
+    <t>  Venezuela, Rep Boliv de</t>
+  </si>
+  <si>
+    <t>  Chile</t>
+  </si>
+  <si>
+    <t>  Ecuador</t>
+  </si>
+  <si>
+    <t>  Cuba</t>
+  </si>
+  <si>
+    <t>  Guatemala</t>
+  </si>
+  <si>
+    <t>  Dominicana, República</t>
+  </si>
+  <si>
+    <t>  Bolivia</t>
+  </si>
+  <si>
+    <t>  Haití</t>
+  </si>
+  <si>
+    <t>  Honduras</t>
+  </si>
+  <si>
+    <t>  El Salvador</t>
+  </si>
+  <si>
+    <t>  Paraguay</t>
+  </si>
+  <si>
+    <t>  Nicaragua</t>
+  </si>
+  <si>
+    <t>  Costa Rica</t>
+  </si>
+  <si>
+    <t>  Puerto Rico</t>
+  </si>
+  <si>
+    <t>  Uruguay</t>
+  </si>
+  <si>
+    <t>  Panamá</t>
+  </si>
+  <si>
+    <t>  Jamaica</t>
+  </si>
+  <si>
+    <t>  Trinidad y Tabago</t>
+  </si>
+  <si>
+    <t>  Guyana</t>
+  </si>
+  <si>
+    <t>  Guadalupe</t>
+  </si>
+  <si>
+    <t>  Suriname</t>
+  </si>
+  <si>
+    <t>  Martinica</t>
+  </si>
+  <si>
+    <t>  Bahamas</t>
+  </si>
+  <si>
+    <t>  Barbados</t>
+  </si>
+  <si>
+    <t>  Belice</t>
+  </si>
+  <si>
+    <t>  Antillas Neerlandesas</t>
+  </si>
+  <si>
+    <t>  Guayana Francesa</t>
+  </si>
+  <si>
+    <t>  Santa Lucía</t>
+  </si>
+  <si>
+    <t>  San Vicente/Granadinas</t>
+  </si>
+  <si>
+    <t>  Vírgenes E.U, Islas</t>
+  </si>
+  <si>
+    <t>  Granada</t>
+  </si>
+  <si>
+    <t>  Dominica</t>
+  </si>
+  <si>
+    <t>  Antigua y Barbuda</t>
+  </si>
+  <si>
+    <t>  Bermudas</t>
+  </si>
+  <si>
+    <t>  Groenlandia</t>
+  </si>
+  <si>
+    <t>  Saint Kitts y Nevis</t>
+  </si>
+  <si>
+    <t>  Caimán, Islas</t>
+  </si>
+  <si>
+    <t>  Vírgenes Británicas, Is</t>
+  </si>
+  <si>
+    <t>  Turcas y Caicos, Islas</t>
+  </si>
+  <si>
+    <t>  Montserrat</t>
+  </si>
+  <si>
+    <t>  Anguilla</t>
+  </si>
+  <si>
+    <t>  San Pedro y Miquelón</t>
+  </si>
+  <si>
+    <t>  Malvinas (Falkland), Is</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  China</t>
+  </si>
+  <si>
+    <t>  India</t>
+  </si>
+  <si>
+    <t>  Indonesia</t>
+  </si>
+  <si>
+    <t>  Pakistán</t>
+  </si>
+  <si>
+    <t>  Bangladesh</t>
+  </si>
+  <si>
+    <t>  Japón</t>
+  </si>
+  <si>
+    <t>  Viet Nam</t>
+  </si>
+  <si>
+    <t>  Filipinas</t>
+  </si>
+  <si>
+    <t>  Irán, Rep Islámica de</t>
+  </si>
+  <si>
+    <t>  Turquía</t>
+  </si>
+  <si>
+    <t>  Tailandia</t>
+  </si>
+  <si>
+    <t>  Corea, República de</t>
+  </si>
+  <si>
+    <t>  Myanmar</t>
+  </si>
+  <si>
+    <t>  Uzbekistán</t>
+  </si>
+  <si>
+    <t>  Corea, Rep Pop Dem</t>
+  </si>
+  <si>
+    <t>  Nepal</t>
+  </si>
+  <si>
+    <t>  Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Afganistán</t>
+  </si>
+  <si>
+    <t>  Malasia</t>
+  </si>
+  <si>
+    <t>  Arabia Saudita</t>
+  </si>
+  <si>
+    <t>  Sri Lanka</t>
+  </si>
+  <si>
+    <t>  Yemen</t>
+  </si>
+  <si>
+    <t>  Kazajstán</t>
+  </si>
+  <si>
+    <t>  Siria, República Arabe</t>
+  </si>
+  <si>
+    <t>  Camboya</t>
+  </si>
+  <si>
+    <t>  Azerbaiyán</t>
+  </si>
+  <si>
+    <t>  Tayikistán</t>
+  </si>
+  <si>
+    <t>  Israel</t>
+  </si>
+  <si>
+    <t>  Laos</t>
+  </si>
+  <si>
+    <t>  Georgia</t>
+  </si>
+  <si>
+    <t>  Jordania</t>
+  </si>
+  <si>
+    <t>  Kirguistán</t>
+  </si>
+  <si>
+    <t>  Turkmenistán</t>
+  </si>
+  <si>
+    <t>  Armenia</t>
+  </si>
+  <si>
+    <t>  Singapur</t>
+  </si>
+  <si>
+    <t>  Líbano</t>
+  </si>
+  <si>
+    <t>  Mongolia</t>
+  </si>
+  <si>
+    <t>  Omán</t>
+  </si>
+  <si>
+    <t>  Emiratos Arabes Unidos</t>
+  </si>
+  <si>
+    <t>  Bhután</t>
+  </si>
+  <si>
+    <t>  Kuwait</t>
+  </si>
+  <si>
+    <t>  Cisjordania</t>
+  </si>
+  <si>
+    <t>  Zona de Gaza</t>
+  </si>
+  <si>
+    <t>  Timor Oriental</t>
+  </si>
+  <si>
+    <t>  Chipre</t>
+  </si>
+  <si>
+    <t>  Bahrein</t>
+  </si>
+  <si>
+    <t>  Qatar</t>
+  </si>
+  <si>
+    <t>  Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>  Maldivas</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>  Federación de Rusia</t>
+  </si>
+  <si>
+    <t>  Alemania</t>
+  </si>
+  <si>
+    <t>  Reino Unido</t>
+  </si>
+  <si>
+    <t>  Francia</t>
+  </si>
+  <si>
+    <t>  Italia</t>
+  </si>
+  <si>
+    <t>  Ucrania</t>
+  </si>
+  <si>
+    <t>  España</t>
+  </si>
+  <si>
+    <t>  Polonia</t>
+  </si>
+  <si>
+    <t>  Rumania</t>
+  </si>
+  <si>
+    <t>  Países Bajos</t>
+  </si>
+  <si>
+    <t>  Yugoslavia, Rep Fed</t>
+  </si>
+  <si>
+    <t>  Grecia</t>
+  </si>
+  <si>
+    <t>  Bélgica-Luxemburgo</t>
+  </si>
+  <si>
+    <t>  Belarús</t>
+  </si>
+  <si>
+    <t>  Checa, República</t>
+  </si>
+  <si>
+    <t>  Bélgica</t>
+  </si>
+  <si>
+    <t>  Hungría</t>
+  </si>
+  <si>
+    <t>  Portugal</t>
+  </si>
+  <si>
+    <t>  Suecia</t>
+  </si>
+  <si>
+    <t>  Bulgaria</t>
+  </si>
+  <si>
+    <t>  Austria</t>
+  </si>
+  <si>
+    <t>  Suiza</t>
+  </si>
+  <si>
+    <t>  Eslovaquia</t>
+  </si>
+  <si>
+    <t>  Dinamarca</t>
+  </si>
+  <si>
+    <t>  Finlandia</t>
+  </si>
+  <si>
+    <t>  Croacia</t>
+  </si>
+  <si>
+    <t>  Noruega</t>
+  </si>
+  <si>
+    <t>  Moldova, República de</t>
+  </si>
+  <si>
+    <t>  Bosnia y Herzegovina</t>
+  </si>
+  <si>
+    <t>  Irlanda</t>
+  </si>
+  <si>
+    <t>  Lituania</t>
+  </si>
+  <si>
+    <t>  Albania</t>
+  </si>
+  <si>
+    <t>  Letonia</t>
+  </si>
+  <si>
+    <t>  Macedonia, La ex Rep Yug</t>
+  </si>
+  <si>
+    <t>  Eslovenia</t>
+  </si>
+  <si>
+    <t>  Estonia</t>
+  </si>
+  <si>
+    <t>  Luxemburgo</t>
+  </si>
+  <si>
+    <t>  Malta</t>
+  </si>
+  <si>
+    <t>  Islandia</t>
+  </si>
+  <si>
+    <t>  Andorra</t>
+  </si>
+  <si>
+    <t>  Feroe, Islas</t>
+  </si>
+  <si>
+    <t>  Liechtenstein</t>
+  </si>
+  <si>
+    <t>  Mónaco</t>
+  </si>
+  <si>
+    <t>  San Marino</t>
+  </si>
+  <si>
+    <t>  Gibraltar</t>
+  </si>
+  <si>
+    <t>Oceanía</t>
+  </si>
+  <si>
+    <t>  Australia</t>
+  </si>
+  <si>
+    <t>  Papua Nueva Guinea</t>
+  </si>
+  <si>
+    <t>  Nueva Zelandia</t>
+  </si>
+  <si>
+    <t>  Fiji, Islas</t>
+  </si>
+  <si>
+    <t>  Salomón, Islas</t>
+  </si>
+  <si>
+    <t>  Polinesia Francesa</t>
+  </si>
+  <si>
+    <t>  Nueva Caledonia</t>
+  </si>
+  <si>
+    <t>  Vanuatu</t>
+  </si>
+  <si>
+    <t>  Samoa</t>
+  </si>
+  <si>
+    <t>  Guam</t>
+  </si>
+  <si>
+    <t>  Micronesia, Estados Fed</t>
+  </si>
+  <si>
+    <t>  Tonga</t>
+  </si>
+  <si>
+    <t>  Kiribati</t>
+  </si>
+  <si>
+    <t>  Marianas Septent, Islas</t>
+  </si>
+  <si>
+    <t>  Samoa Americana</t>
+  </si>
+  <si>
+    <t>  Marshall, Islas</t>
+  </si>
+  <si>
+    <t>  Cook, Islas</t>
+  </si>
+  <si>
+    <t>  Palau</t>
+  </si>
+  <si>
+    <t>  Wallis y Futuna, Islas</t>
+  </si>
+  <si>
+    <t>  Nauru</t>
+  </si>
+  <si>
+    <t>  Tuvalu</t>
+  </si>
+  <si>
+    <t>  Niue</t>
+  </si>
+  <si>
+    <t>  Tokelau</t>
+  </si>
+  <si>
+    <t>&gt;50%</t>
+  </si>
+  <si>
+    <t>Países con más de un 50% de población rural</t>
+  </si>
+  <si>
+    <t>Población media de estos países</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +775,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -73,10 +803,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -93,8 +825,46 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="NivelCol_1" xfId="2" builtinId="2" iLevel="0"/>
+    <cellStyle name="NivelCol_2" xfId="1" builtinId="2" iLevel="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -138,7 +908,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -350,6 +1120,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -415,6 +1240,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Población (millones)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1382,7 +2262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
@@ -1560,4 +2440,7513 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I232"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="14">
+        <v>54033</v>
+      </c>
+      <c r="D3" s="14">
+        <v>54912</v>
+      </c>
+      <c r="E3" s="14">
+        <v>62031</v>
+      </c>
+      <c r="F3" s="14">
+        <v>46914</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15">
+        <f t="shared" ref="H3:H66" si="0">E3+F3</f>
+        <v>108945</v>
+      </c>
+      <c r="I3" s="16">
+        <f>+E3/(E3+F3)</f>
+        <v>0.56937904447198129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="14">
+        <v>34096</v>
+      </c>
+      <c r="D4" s="14">
+        <v>33130</v>
+      </c>
+      <c r="E4" s="14">
+        <v>36519</v>
+      </c>
+      <c r="F4" s="14">
+        <v>30708</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15">
+        <f t="shared" si="0"/>
+        <v>67227</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" ref="I4:I67" si="1">+E4/(E4+F4)</f>
+        <v>0.54321924226873131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14">
+        <v>30659</v>
+      </c>
+      <c r="D5" s="14">
+        <v>30436</v>
+      </c>
+      <c r="E5" s="14">
+        <v>50600</v>
+      </c>
+      <c r="F5" s="14">
+        <v>10495</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15">
+        <f t="shared" si="0"/>
+        <v>61095</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" si="1"/>
+        <v>0.82821834847368847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14">
+        <v>24904</v>
+      </c>
+      <c r="D6" s="14">
+        <v>25432</v>
+      </c>
+      <c r="E6" s="14">
+        <v>35254</v>
+      </c>
+      <c r="F6" s="14">
+        <v>15081</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <f t="shared" si="0"/>
+        <v>50335</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="1"/>
+        <v>0.70038740439058311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="14">
+        <v>19597</v>
+      </c>
+      <c r="D7" s="14">
+        <v>20303</v>
+      </c>
+      <c r="E7" s="14">
+        <v>19892</v>
+      </c>
+      <c r="F7" s="14">
+        <v>20008</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <f t="shared" si="0"/>
+        <v>39900</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.49854636591478696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14">
+        <v>16251</v>
+      </c>
+      <c r="D8" s="14">
+        <v>16541</v>
+      </c>
+      <c r="E8" s="14">
+        <v>23914</v>
+      </c>
+      <c r="F8" s="14">
+        <v>8878</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15">
+        <f t="shared" si="0"/>
+        <v>32792</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" si="1"/>
+        <v>0.72926323493535006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="14">
+        <v>15575</v>
+      </c>
+      <c r="D9" s="14">
+        <v>15199</v>
+      </c>
+      <c r="E9" s="14">
+        <v>12763</v>
+      </c>
+      <c r="F9" s="14">
+        <v>18011</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15">
+        <f t="shared" si="0"/>
+        <v>30774</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" si="1"/>
+        <v>0.41473321635146554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14">
+        <v>14805</v>
+      </c>
+      <c r="D10" s="14">
+        <v>14744</v>
+      </c>
+      <c r="E10" s="14">
+        <v>20050</v>
+      </c>
+      <c r="F10" s="14">
+        <v>9499</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>29549</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="1"/>
+        <v>0.67853396054011983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="14">
+        <v>14480</v>
+      </c>
+      <c r="D11" s="14">
+        <v>14402</v>
+      </c>
+      <c r="E11" s="14">
+        <v>18742</v>
+      </c>
+      <c r="F11" s="14">
+        <v>10141</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>28883</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="1"/>
+        <v>0.64889381296956683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="14">
+        <v>13946</v>
+      </c>
+      <c r="D12" s="14">
+        <v>13920</v>
+      </c>
+      <c r="E12" s="14">
+        <v>12649</v>
+      </c>
+      <c r="F12" s="14">
+        <v>15218</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
+        <f t="shared" si="0"/>
+        <v>27867</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="1"/>
+        <v>0.45390605375533788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="14">
+        <v>10523</v>
+      </c>
+      <c r="D13" s="14">
+        <v>10620</v>
+      </c>
+      <c r="E13" s="14">
+        <v>18221</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2922</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15">
+        <f t="shared" si="0"/>
+        <v>21143</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="1"/>
+        <v>0.86179823109303311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="14">
+        <v>9793</v>
+      </c>
+      <c r="D14" s="14">
+        <v>9885</v>
+      </c>
+      <c r="E14" s="14">
+        <v>12230</v>
+      </c>
+      <c r="F14" s="14">
+        <v>7448</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15">
+        <f t="shared" si="0"/>
+        <v>19678</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="1"/>
+        <v>0.62150625063522713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14">
+        <v>9525</v>
+      </c>
+      <c r="D15" s="14">
+        <v>9761</v>
+      </c>
+      <c r="E15" s="14">
+        <v>11792</v>
+      </c>
+      <c r="F15" s="14">
+        <v>7494</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <f t="shared" si="0"/>
+        <v>19286</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="1"/>
+        <v>0.61142797884475786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="14">
+        <v>7692</v>
+      </c>
+      <c r="D16" s="14">
+        <v>7804</v>
+      </c>
+      <c r="E16" s="14">
+        <v>11024</v>
+      </c>
+      <c r="F16" s="14">
+        <v>4472</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15">
+        <f t="shared" si="0"/>
+        <v>15496</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="1"/>
+        <v>0.71140939597315433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="14">
+        <v>7302</v>
+      </c>
+      <c r="D17" s="14">
+        <v>7390</v>
+      </c>
+      <c r="E17" s="14">
+        <v>7633</v>
+      </c>
+      <c r="F17" s="14">
+        <v>7060</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <f t="shared" si="0"/>
+        <v>14693</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="1"/>
+        <v>0.51949908119512689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="14">
+        <v>7394</v>
+      </c>
+      <c r="D18" s="14">
+        <v>7133</v>
+      </c>
+      <c r="E18" s="14">
+        <v>7860</v>
+      </c>
+      <c r="F18" s="14">
+        <v>6666</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15">
+        <f t="shared" si="0"/>
+        <v>14526</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" si="1"/>
+        <v>0.5410987195373812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="14">
+        <v>6168</v>
+      </c>
+      <c r="D19" s="14">
+        <v>6310</v>
+      </c>
+      <c r="E19" s="14">
+        <v>8295</v>
+      </c>
+      <c r="F19" s="14">
+        <v>4183</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15">
+        <f t="shared" si="0"/>
+        <v>12478</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="1"/>
+        <v>0.66476999519153712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="14">
+        <v>5797</v>
+      </c>
+      <c r="D20" s="14">
+        <v>5819</v>
+      </c>
+      <c r="E20" s="14">
+        <v>9535</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2081</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15">
+        <f t="shared" si="0"/>
+        <v>11616</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="1"/>
+        <v>0.82085055096418735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="14">
+        <v>5723</v>
+      </c>
+      <c r="D21" s="14">
+        <v>5806</v>
+      </c>
+      <c r="E21" s="14">
+        <v>7543</v>
+      </c>
+      <c r="F21" s="14">
+        <v>3986</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15">
+        <f t="shared" si="0"/>
+        <v>11529</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" si="1"/>
+        <v>0.65426316245988381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="14">
+        <v>5409</v>
+      </c>
+      <c r="D22" s="14">
+        <v>5551</v>
+      </c>
+      <c r="E22" s="14">
+        <v>7741</v>
+      </c>
+      <c r="F22" s="14">
+        <v>3219</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15">
+        <f t="shared" si="0"/>
+        <v>10960</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" si="1"/>
+        <v>0.70629562043795624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="14">
+        <v>5274</v>
+      </c>
+      <c r="D23" s="14">
+        <v>5366</v>
+      </c>
+      <c r="E23" s="14">
+        <v>9050</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1591</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15">
+        <f t="shared" si="0"/>
+        <v>10641</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" si="1"/>
+        <v>0.85048397706982426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="14">
+        <v>5145</v>
+      </c>
+      <c r="D24" s="14">
+        <v>5256</v>
+      </c>
+      <c r="E24" s="14">
+        <v>8313</v>
+      </c>
+      <c r="F24" s="14">
+        <v>2087</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15">
+        <f t="shared" si="0"/>
+        <v>10400</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="1"/>
+        <v>0.7993269230769231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4801</v>
+      </c>
+      <c r="D25" s="14">
+        <v>4871</v>
+      </c>
+      <c r="E25" s="14">
+        <v>7050</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2622</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15">
+        <f t="shared" si="0"/>
+        <v>9672</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="1"/>
+        <v>0.72890818858560791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="14">
+        <v>4778</v>
+      </c>
+      <c r="D26" s="14">
+        <v>4682</v>
+      </c>
+      <c r="E26" s="14">
+        <v>3331</v>
+      </c>
+      <c r="F26" s="14">
+        <v>6129</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15">
+        <f t="shared" si="0"/>
+        <v>9460</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" si="1"/>
+        <v>0.35211416490486258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="14">
+        <v>4608</v>
+      </c>
+      <c r="D27" s="14">
+        <v>4632</v>
+      </c>
+      <c r="E27" s="14">
+        <v>4960</v>
+      </c>
+      <c r="F27" s="14">
+        <v>4279</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15">
+        <f t="shared" si="0"/>
+        <v>9239</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="1"/>
+        <v>0.53685463794782984</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="14">
+        <v>4439</v>
+      </c>
+      <c r="D28" s="14">
+        <v>4537</v>
+      </c>
+      <c r="E28" s="14">
+        <v>5006</v>
+      </c>
+      <c r="F28" s="14">
+        <v>3970</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15">
+        <f t="shared" si="0"/>
+        <v>8976</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" si="1"/>
+        <v>0.5577094474153298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="14">
+        <v>3687</v>
+      </c>
+      <c r="D29" s="14">
+        <v>3771</v>
+      </c>
+      <c r="E29" s="14">
+        <v>5708</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1750</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15">
+        <f t="shared" si="0"/>
+        <v>7458</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" si="1"/>
+        <v>0.76535264145883619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="14">
+        <v>3701</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3658</v>
+      </c>
+      <c r="E30" s="14">
+        <v>5002</v>
+      </c>
+      <c r="F30" s="14">
+        <v>2357</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15">
+        <f t="shared" si="0"/>
+        <v>7359</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" si="1"/>
+        <v>0.67971191738007886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="14">
+        <v>3572</v>
+      </c>
+      <c r="D31" s="14">
+        <v>3663</v>
+      </c>
+      <c r="E31" s="14">
+        <v>6797</v>
+      </c>
+      <c r="F31" s="17">
+        <v>438</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="15">
+        <f t="shared" si="0"/>
+        <v>7235</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" si="1"/>
+        <v>0.93946095369730476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="14">
+        <v>3212</v>
+      </c>
+      <c r="D32" s="14">
+        <v>3353</v>
+      </c>
+      <c r="E32" s="14">
+        <v>5997</v>
+      </c>
+      <c r="F32" s="17">
+        <v>568</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="15">
+        <f t="shared" si="0"/>
+        <v>6565</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" si="1"/>
+        <v>0.91348057882711353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="14">
+        <v>2926</v>
+      </c>
+      <c r="D33" s="14">
+        <v>3011</v>
+      </c>
+      <c r="E33" s="14">
+        <v>3475</v>
+      </c>
+      <c r="F33" s="14">
+        <v>2462</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15">
+        <f t="shared" si="0"/>
+        <v>5937</v>
+      </c>
+      <c r="I33" s="16">
+        <f t="shared" si="1"/>
+        <v>0.58531244736398857</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="14">
+        <v>2835</v>
+      </c>
+      <c r="D34" s="14">
+        <v>2635</v>
+      </c>
+      <c r="E34" s="17">
+        <v>702</v>
+      </c>
+      <c r="F34" s="14">
+        <v>4769</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15">
+        <f t="shared" si="0"/>
+        <v>5471</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" si="1"/>
+        <v>0.12831292268323891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="14">
+        <v>2315</v>
+      </c>
+      <c r="D35" s="14">
+        <v>2402</v>
+      </c>
+      <c r="E35" s="14">
+        <v>3022</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1695</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15">
+        <f t="shared" si="0"/>
+        <v>4717</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" si="1"/>
+        <v>0.64066143735425063</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="14">
+        <v>2237</v>
+      </c>
+      <c r="D36" s="14">
+        <v>2275</v>
+      </c>
+      <c r="E36" s="14">
+        <v>3035</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1478</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15">
+        <f t="shared" si="0"/>
+        <v>4513</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" si="1"/>
+        <v>0.67250166186572125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="14">
+        <v>1846</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1874</v>
+      </c>
+      <c r="E37" s="14">
+        <v>3035</v>
+      </c>
+      <c r="F37" s="17">
+        <v>684</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="15">
+        <f t="shared" si="0"/>
+        <v>3719</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="shared" si="1"/>
+        <v>0.81607959128798069</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1725</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1824</v>
+      </c>
+      <c r="E38" s="14">
+        <v>2103</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1447</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15">
+        <f t="shared" si="0"/>
+        <v>3550</v>
+      </c>
+      <c r="I38" s="16">
+        <f t="shared" si="1"/>
+        <v>0.59239436619718311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1471</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1459</v>
+      </c>
+      <c r="E39" s="14">
+        <v>1544</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1386</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15">
+        <f t="shared" si="0"/>
+        <v>2930</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="1"/>
+        <v>0.52696245733788394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1400</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1464</v>
+      </c>
+      <c r="E40" s="14">
+        <v>1097</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1767</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15">
+        <f t="shared" si="0"/>
+        <v>2864</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="1"/>
+        <v>0.38303072625698326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1288</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1310</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1134</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1464</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15">
+        <f t="shared" si="0"/>
+        <v>2598</v>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" si="1"/>
+        <v>0.43648960739030024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1038</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1070</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1536</v>
+      </c>
+      <c r="F42" s="17">
+        <v>571</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="15">
+        <f t="shared" si="0"/>
+        <v>2107</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" si="1"/>
+        <v>0.72899857617465591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="17">
+        <v>845</v>
+      </c>
+      <c r="D43" s="17">
+        <v>850</v>
+      </c>
+      <c r="E43" s="14">
+        <v>1020</v>
+      </c>
+      <c r="F43" s="17">
+        <v>675</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="15">
+        <f t="shared" si="0"/>
+        <v>1695</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="1"/>
+        <v>0.60176991150442483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="17">
+        <v>784</v>
+      </c>
+      <c r="D44" s="17">
+        <v>813</v>
+      </c>
+      <c r="E44" s="17">
+        <v>469</v>
+      </c>
+      <c r="F44" s="14">
+        <v>1128</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15">
+        <f t="shared" si="0"/>
+        <v>1597</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="1"/>
+        <v>0.29367564182842831</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="17">
+        <v>627</v>
+      </c>
+      <c r="D45" s="17">
+        <v>641</v>
+      </c>
+      <c r="E45" s="17">
+        <v>865</v>
+      </c>
+      <c r="F45" s="17">
+        <v>403</v>
+      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="15">
+        <f t="shared" si="0"/>
+        <v>1268</v>
+      </c>
+      <c r="I45" s="16">
+        <f t="shared" si="1"/>
+        <v>0.68217665615141954</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="17">
+        <v>592</v>
+      </c>
+      <c r="D46" s="17">
+        <v>605</v>
+      </c>
+      <c r="E46" s="17">
+        <v>549</v>
+      </c>
+      <c r="F46" s="17">
+        <v>648</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="15">
+        <f t="shared" si="0"/>
+        <v>1197</v>
+      </c>
+      <c r="I46" s="16">
+        <f t="shared" si="1"/>
+        <v>0.45864661654135336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="17">
+        <v>584</v>
+      </c>
+      <c r="D47" s="17">
+        <v>603</v>
+      </c>
+      <c r="E47" s="17">
+        <v>910</v>
+      </c>
+      <c r="F47" s="17">
+        <v>277</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="15">
+        <f t="shared" si="0"/>
+        <v>1187</v>
+      </c>
+      <c r="I47" s="16">
+        <f t="shared" si="1"/>
+        <v>0.76663858466722834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="17">
+        <v>573</v>
+      </c>
+      <c r="D48" s="17">
+        <v>576</v>
+      </c>
+      <c r="E48" s="17">
+        <v>677</v>
+      </c>
+      <c r="F48" s="17">
+        <v>473</v>
+      </c>
+      <c r="G48" s="17"/>
+      <c r="H48" s="15">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="I48" s="16">
+        <f t="shared" si="1"/>
+        <v>0.58869565217391306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="17">
+        <v>472</v>
+      </c>
+      <c r="D49" s="17">
+        <v>508</v>
+      </c>
+      <c r="E49" s="17">
+        <v>640</v>
+      </c>
+      <c r="F49" s="17">
+        <v>340</v>
+      </c>
+      <c r="G49" s="17"/>
+      <c r="H49" s="15">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="I49" s="16">
+        <f t="shared" si="1"/>
+        <v>0.65306122448979587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="17">
+        <v>338</v>
+      </c>
+      <c r="D50" s="17">
+        <v>353</v>
+      </c>
+      <c r="E50" s="17">
+        <v>206</v>
+      </c>
+      <c r="F50" s="17">
+        <v>485</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="15">
+        <f t="shared" si="0"/>
+        <v>691</v>
+      </c>
+      <c r="I50" s="16">
+        <f t="shared" si="1"/>
+        <v>0.29811866859623731</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="17">
+        <v>338</v>
+      </c>
+      <c r="D51" s="17">
+        <v>338</v>
+      </c>
+      <c r="E51" s="17">
+        <v>455</v>
+      </c>
+      <c r="F51" s="17">
+        <v>220</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="15">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="I51" s="16">
+        <f t="shared" si="1"/>
+        <v>0.67407407407407405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="17">
+        <v>308</v>
+      </c>
+      <c r="D52" s="17">
+        <v>321</v>
+      </c>
+      <c r="E52" s="17">
+        <v>107</v>
+      </c>
+      <c r="F52" s="17">
+        <v>522</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="15">
+        <f t="shared" si="0"/>
+        <v>629</v>
+      </c>
+      <c r="I52" s="16">
+        <f t="shared" si="1"/>
+        <v>0.17011128775834658</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="17">
+        <v>218</v>
+      </c>
+      <c r="D53" s="17">
+        <v>224</v>
+      </c>
+      <c r="E53" s="17">
+        <v>234</v>
+      </c>
+      <c r="F53" s="17">
+        <v>207</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="15">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="I53" s="16">
+        <f t="shared" si="1"/>
+        <v>0.53061224489795922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="17">
+        <v>195</v>
+      </c>
+      <c r="D54" s="17">
+        <v>223</v>
+      </c>
+      <c r="E54" s="17">
+        <v>165</v>
+      </c>
+      <c r="F54" s="17">
+        <v>253</v>
+      </c>
+      <c r="G54" s="17"/>
+      <c r="H54" s="15">
+        <f t="shared" si="0"/>
+        <v>418</v>
+      </c>
+      <c r="I54" s="16">
+        <f t="shared" si="1"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="17">
+        <v>141</v>
+      </c>
+      <c r="D55" s="17">
+        <v>143</v>
+      </c>
+      <c r="E55" s="17">
+        <v>14</v>
+      </c>
+      <c r="F55" s="17">
+        <v>270</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="15">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+      <c r="I55" s="16">
+        <f t="shared" si="1"/>
+        <v>4.9295774647887321E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0</v>
+      </c>
+      <c r="D56" s="17">
+        <v>1</v>
+      </c>
+      <c r="E56" s="17">
+        <v>78</v>
+      </c>
+      <c r="F56" s="17">
+        <v>66</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="15">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I56" s="16">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0</v>
+      </c>
+      <c r="D57" s="17">
+        <v>1</v>
+      </c>
+      <c r="E57" s="17">
+        <v>32</v>
+      </c>
+      <c r="F57" s="17">
+        <v>44</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="15">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="I57" s="16">
+        <f t="shared" si="1"/>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="17">
+        <v>0</v>
+      </c>
+      <c r="D58" s="17">
+        <v>1</v>
+      </c>
+      <c r="E58" s="17">
+        <v>2</v>
+      </c>
+      <c r="F58" s="17">
+        <v>4</v>
+      </c>
+      <c r="G58" s="17"/>
+      <c r="H58" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I58" s="16">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="14">
+        <v>136128</v>
+      </c>
+      <c r="D59" s="14">
+        <v>140091</v>
+      </c>
+      <c r="E59" s="14">
+        <v>63543</v>
+      </c>
+      <c r="F59" s="14">
+        <v>212675</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15">
+        <f t="shared" si="0"/>
+        <v>276218</v>
+      </c>
+      <c r="I59" s="16">
+        <f t="shared" si="1"/>
+        <v>0.23004655742927688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="14">
+        <v>82997</v>
+      </c>
+      <c r="D60" s="14">
+        <v>84991</v>
+      </c>
+      <c r="E60" s="14">
+        <v>32439</v>
+      </c>
+      <c r="F60" s="14">
+        <v>135549</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="15">
+        <f t="shared" si="0"/>
+        <v>167988</v>
+      </c>
+      <c r="I60" s="16">
+        <f t="shared" si="1"/>
+        <v>0.19310307879134223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="14">
+        <v>48198</v>
+      </c>
+      <c r="D61" s="14">
+        <v>49168</v>
+      </c>
+      <c r="E61" s="14">
+        <v>25126</v>
+      </c>
+      <c r="F61" s="14">
+        <v>72239</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="15">
+        <f t="shared" si="0"/>
+        <v>97365</v>
+      </c>
+      <c r="I61" s="16">
+        <f t="shared" si="1"/>
+        <v>0.25805987777948958</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="14">
+        <v>20538</v>
+      </c>
+      <c r="D62" s="14">
+        <v>21026</v>
+      </c>
+      <c r="E62" s="14">
+        <v>10612</v>
+      </c>
+      <c r="F62" s="14">
+        <v>30952</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15">
+        <f t="shared" si="0"/>
+        <v>41564</v>
+      </c>
+      <c r="I62" s="16">
+        <f t="shared" si="1"/>
+        <v>0.25531710133769608</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="14">
+        <v>17940</v>
+      </c>
+      <c r="D63" s="14">
+        <v>18637</v>
+      </c>
+      <c r="E63" s="14">
+        <v>3988</v>
+      </c>
+      <c r="F63" s="14">
+        <v>32589</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="15">
+        <f t="shared" si="0"/>
+        <v>36577</v>
+      </c>
+      <c r="I63" s="16">
+        <f t="shared" si="1"/>
+        <v>0.1090302649205785</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="14">
+        <v>15274</v>
+      </c>
+      <c r="D64" s="14">
+        <v>15583</v>
+      </c>
+      <c r="E64" s="14">
+        <v>7099</v>
+      </c>
+      <c r="F64" s="14">
+        <v>23758</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="15">
+        <f t="shared" si="0"/>
+        <v>30857</v>
+      </c>
+      <c r="I64" s="16">
+        <f t="shared" si="1"/>
+        <v>0.23006125028356614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="14">
+        <v>12514</v>
+      </c>
+      <c r="D65" s="14">
+        <v>12716</v>
+      </c>
+      <c r="E65" s="14">
+        <v>6967</v>
+      </c>
+      <c r="F65" s="14">
+        <v>18262</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="15">
+        <f t="shared" si="0"/>
+        <v>25229</v>
+      </c>
+      <c r="I65" s="16">
+        <f t="shared" si="1"/>
+        <v>0.2761504617701851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="14">
+        <v>11930</v>
+      </c>
+      <c r="D66" s="14">
+        <v>11776</v>
+      </c>
+      <c r="E66" s="14">
+        <v>3071</v>
+      </c>
+      <c r="F66" s="14">
+        <v>20636</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="15">
+        <f t="shared" si="0"/>
+        <v>23707</v>
+      </c>
+      <c r="I66" s="16">
+        <f t="shared" si="1"/>
+        <v>0.12953979837178892</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="14">
+        <v>7435</v>
+      </c>
+      <c r="D67" s="14">
+        <v>7584</v>
+      </c>
+      <c r="E67" s="14">
+        <v>2334</v>
+      </c>
+      <c r="F67" s="14">
+        <v>12684</v>
+      </c>
+      <c r="G67" s="14"/>
+      <c r="H67" s="15">
+        <f t="shared" ref="H67:H130" si="2">E67+F67</f>
+        <v>15018</v>
+      </c>
+      <c r="I67" s="16">
+        <f t="shared" si="1"/>
+        <v>0.15541350379544547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="14">
+        <v>6233</v>
+      </c>
+      <c r="D68" s="14">
+        <v>6178</v>
+      </c>
+      <c r="E68" s="14">
+        <v>4754</v>
+      </c>
+      <c r="F68" s="14">
+        <v>7656</v>
+      </c>
+      <c r="G68" s="14"/>
+      <c r="H68" s="15">
+        <f t="shared" si="2"/>
+        <v>12410</v>
+      </c>
+      <c r="I68" s="16">
+        <f t="shared" ref="I68:I131" si="3">+E68/(E68+F68)</f>
+        <v>0.38307816277195811</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="14">
+        <v>5593</v>
+      </c>
+      <c r="D69" s="14">
+        <v>5567</v>
+      </c>
+      <c r="E69" s="14">
+        <v>2512</v>
+      </c>
+      <c r="F69" s="14">
+        <v>8648</v>
+      </c>
+      <c r="G69" s="14"/>
+      <c r="H69" s="15">
+        <f t="shared" si="2"/>
+        <v>11160</v>
+      </c>
+      <c r="I69" s="16">
+        <f t="shared" si="3"/>
+        <v>0.22508960573476702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="14">
+        <v>5593</v>
+      </c>
+      <c r="D70" s="14">
+        <v>5497</v>
+      </c>
+      <c r="E70" s="14">
+        <v>6648</v>
+      </c>
+      <c r="F70" s="14">
+        <v>4442</v>
+      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="15">
+        <f t="shared" si="2"/>
+        <v>11090</v>
+      </c>
+      <c r="I70" s="16">
+        <f t="shared" si="3"/>
+        <v>0.59945897204688914</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="14">
+        <v>4253</v>
+      </c>
+      <c r="D71" s="14">
+        <v>4112</v>
+      </c>
+      <c r="E71" s="14">
+        <v>2968</v>
+      </c>
+      <c r="F71" s="14">
+        <v>5396</v>
+      </c>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15">
+        <f t="shared" si="2"/>
+        <v>8364</v>
+      </c>
+      <c r="I71" s="16">
+        <f t="shared" si="3"/>
+        <v>0.35485413677666189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="14">
+        <v>4049</v>
+      </c>
+      <c r="D72" s="14">
+        <v>4093</v>
+      </c>
+      <c r="E72" s="14">
+        <v>2935</v>
+      </c>
+      <c r="F72" s="14">
+        <v>5207</v>
+      </c>
+      <c r="G72" s="14"/>
+      <c r="H72" s="15">
+        <f t="shared" si="2"/>
+        <v>8142</v>
+      </c>
+      <c r="I72" s="16">
+        <f t="shared" si="3"/>
+        <v>0.36047654139032181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="14">
+        <v>3973</v>
+      </c>
+      <c r="D73" s="14">
+        <v>4114</v>
+      </c>
+      <c r="E73" s="14">
+        <v>5318</v>
+      </c>
+      <c r="F73" s="14">
+        <v>2769</v>
+      </c>
+      <c r="G73" s="14"/>
+      <c r="H73" s="15">
+        <f t="shared" si="2"/>
+        <v>8087</v>
+      </c>
+      <c r="I73" s="16">
+        <f t="shared" si="3"/>
+        <v>0.65759861506120931</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="14">
+        <v>3183</v>
+      </c>
+      <c r="D74" s="14">
+        <v>3132</v>
+      </c>
+      <c r="E74" s="14">
+        <v>3394</v>
+      </c>
+      <c r="F74" s="14">
+        <v>2922</v>
+      </c>
+      <c r="G74" s="14"/>
+      <c r="H74" s="15">
+        <f t="shared" si="2"/>
+        <v>6316</v>
+      </c>
+      <c r="I74" s="16">
+        <f t="shared" si="3"/>
+        <v>0.5373654211526282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="14">
+        <v>3019</v>
+      </c>
+      <c r="D75" s="14">
+        <v>3135</v>
+      </c>
+      <c r="E75" s="14">
+        <v>3304</v>
+      </c>
+      <c r="F75" s="14">
+        <v>2850</v>
+      </c>
+      <c r="G75" s="14"/>
+      <c r="H75" s="15">
+        <f t="shared" si="2"/>
+        <v>6154</v>
+      </c>
+      <c r="I75" s="16">
+        <f t="shared" si="3"/>
+        <v>0.53688657783555416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="14">
+        <v>2702</v>
+      </c>
+      <c r="D76" s="14">
+        <v>2657</v>
+      </c>
+      <c r="E76" s="14">
+        <v>2398</v>
+      </c>
+      <c r="F76" s="14">
+        <v>2961</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="15">
+        <f t="shared" si="2"/>
+        <v>5359</v>
+      </c>
+      <c r="I76" s="16">
+        <f t="shared" si="3"/>
+        <v>0.44747154319835791</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="14">
+        <v>2455</v>
+      </c>
+      <c r="D77" s="14">
+        <v>2483</v>
+      </c>
+      <c r="E77" s="14">
+        <v>1768</v>
+      </c>
+      <c r="F77" s="14">
+        <v>3170</v>
+      </c>
+      <c r="G77" s="14"/>
+      <c r="H77" s="15">
+        <f t="shared" si="2"/>
+        <v>4938</v>
+      </c>
+      <c r="I77" s="16">
+        <f t="shared" si="3"/>
+        <v>0.35803969218307008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="14">
+        <v>1994</v>
+      </c>
+      <c r="D78" s="14">
+        <v>1939</v>
+      </c>
+      <c r="E78" s="14">
+        <v>1914</v>
+      </c>
+      <c r="F78" s="14">
+        <v>2019</v>
+      </c>
+      <c r="G78" s="14"/>
+      <c r="H78" s="15">
+        <f t="shared" si="2"/>
+        <v>3933</v>
+      </c>
+      <c r="I78" s="16">
+        <f t="shared" si="3"/>
+        <v>0.48665141113653698</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="14">
+        <v>1851</v>
+      </c>
+      <c r="D79" s="14">
+        <v>1988</v>
+      </c>
+      <c r="E79" s="17">
+        <v>965</v>
+      </c>
+      <c r="F79" s="14">
+        <v>2874</v>
+      </c>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15">
+        <f t="shared" si="2"/>
+        <v>3839</v>
+      </c>
+      <c r="I79" s="16">
+        <f t="shared" si="3"/>
+        <v>0.25136754363115393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="14">
+        <v>1607</v>
+      </c>
+      <c r="D80" s="14">
+        <v>1706</v>
+      </c>
+      <c r="E80" s="17">
+        <v>294</v>
+      </c>
+      <c r="F80" s="14">
+        <v>3019</v>
+      </c>
+      <c r="G80" s="14"/>
+      <c r="H80" s="15">
+        <f t="shared" si="2"/>
+        <v>3313</v>
+      </c>
+      <c r="I80" s="16">
+        <f t="shared" si="3"/>
+        <v>8.8741322064594022E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="14">
+        <v>1419</v>
+      </c>
+      <c r="D81" s="14">
+        <v>1393</v>
+      </c>
+      <c r="E81" s="14">
+        <v>1200</v>
+      </c>
+      <c r="F81" s="14">
+        <v>1611</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="15">
+        <f t="shared" si="2"/>
+        <v>2811</v>
+      </c>
+      <c r="I81" s="16">
+        <f t="shared" si="3"/>
+        <v>0.42689434364994666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="14">
+        <v>1270</v>
+      </c>
+      <c r="D82" s="14">
+        <v>1291</v>
+      </c>
+      <c r="E82" s="14">
+        <v>1137</v>
+      </c>
+      <c r="F82" s="14">
+        <v>1424</v>
+      </c>
+      <c r="G82" s="14"/>
+      <c r="H82" s="15">
+        <f t="shared" si="2"/>
+        <v>2561</v>
+      </c>
+      <c r="I82" s="16">
+        <f t="shared" si="3"/>
+        <v>0.44396720031237796</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="17">
+        <v>641</v>
+      </c>
+      <c r="D83" s="17">
+        <v>647</v>
+      </c>
+      <c r="E83" s="17">
+        <v>341</v>
+      </c>
+      <c r="F83" s="17">
+        <v>948</v>
+      </c>
+      <c r="G83" s="17"/>
+      <c r="H83" s="15">
+        <f t="shared" si="2"/>
+        <v>1289</v>
+      </c>
+      <c r="I83" s="16">
+        <f t="shared" si="3"/>
+        <v>0.26454615981380913</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" s="17">
+        <v>422</v>
+      </c>
+      <c r="D84" s="17">
+        <v>433</v>
+      </c>
+      <c r="E84" s="17">
+        <v>533</v>
+      </c>
+      <c r="F84" s="17">
+        <v>322</v>
+      </c>
+      <c r="G84" s="17"/>
+      <c r="H84" s="15">
+        <f t="shared" si="2"/>
+        <v>855</v>
+      </c>
+      <c r="I84" s="16">
+        <f t="shared" si="3"/>
+        <v>0.62339181286549705</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="17">
+        <v>220</v>
+      </c>
+      <c r="D85" s="17">
+        <v>230</v>
+      </c>
+      <c r="E85" s="17">
+        <v>1</v>
+      </c>
+      <c r="F85" s="17">
+        <v>448</v>
+      </c>
+      <c r="G85" s="17"/>
+      <c r="H85" s="15">
+        <f t="shared" si="2"/>
+        <v>449</v>
+      </c>
+      <c r="I85" s="16">
+        <f t="shared" si="3"/>
+        <v>2.2271714922048997E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="17">
+        <v>206</v>
+      </c>
+      <c r="D86" s="17">
+        <v>210</v>
+      </c>
+      <c r="E86" s="17">
+        <v>201</v>
+      </c>
+      <c r="F86" s="17">
+        <v>214</v>
+      </c>
+      <c r="G86" s="17"/>
+      <c r="H86" s="15">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="I86" s="16">
+        <f t="shared" si="3"/>
+        <v>0.48433734939759038</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="17">
+        <v>190</v>
+      </c>
+      <c r="D87" s="17">
+        <v>202</v>
+      </c>
+      <c r="E87" s="17">
+        <v>21</v>
+      </c>
+      <c r="F87" s="17">
+        <v>371</v>
+      </c>
+      <c r="G87" s="17"/>
+      <c r="H87" s="15">
+        <f t="shared" si="2"/>
+        <v>392</v>
+      </c>
+      <c r="I87" s="16">
+        <f t="shared" si="3"/>
+        <v>5.3571428571428568E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="17">
+        <v>148</v>
+      </c>
+      <c r="D88" s="17">
+        <v>153</v>
+      </c>
+      <c r="E88" s="17">
+        <v>36</v>
+      </c>
+      <c r="F88" s="17">
+        <v>265</v>
+      </c>
+      <c r="G88" s="17"/>
+      <c r="H88" s="15">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="I88" s="16">
+        <f t="shared" si="3"/>
+        <v>0.11960132890365449</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>68</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="17">
+        <v>130</v>
+      </c>
+      <c r="D89" s="17">
+        <v>139</v>
+      </c>
+      <c r="E89" s="17">
+        <v>136</v>
+      </c>
+      <c r="F89" s="17">
+        <v>133</v>
+      </c>
+      <c r="G89" s="17"/>
+      <c r="H89" s="15">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="I89" s="16">
+        <f t="shared" si="3"/>
+        <v>0.50557620817843862</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="17">
+        <v>119</v>
+      </c>
+      <c r="D90" s="17">
+        <v>116</v>
+      </c>
+      <c r="E90" s="17">
+        <v>126</v>
+      </c>
+      <c r="F90" s="17">
+        <v>109</v>
+      </c>
+      <c r="G90" s="17"/>
+      <c r="H90" s="15">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+      <c r="I90" s="16">
+        <f t="shared" si="3"/>
+        <v>0.53617021276595744</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="17">
+        <v>104</v>
+      </c>
+      <c r="D91" s="17">
+        <v>111</v>
+      </c>
+      <c r="E91" s="17">
+        <v>65</v>
+      </c>
+      <c r="F91" s="17">
+        <v>150</v>
+      </c>
+      <c r="G91" s="17"/>
+      <c r="H91" s="15">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="I91" s="16">
+        <f t="shared" si="3"/>
+        <v>0.30232558139534882</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="17">
+        <v>0</v>
+      </c>
+      <c r="D92" s="17">
+        <v>1</v>
+      </c>
+      <c r="E92" s="17">
+        <v>39</v>
+      </c>
+      <c r="F92" s="17">
+        <v>135</v>
+      </c>
+      <c r="G92" s="17"/>
+      <c r="H92" s="15">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="I92" s="16">
+        <f t="shared" si="3"/>
+        <v>0.22413793103448276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="17">
+        <v>0</v>
+      </c>
+      <c r="D93" s="17">
+        <v>1</v>
+      </c>
+      <c r="E93" s="17">
+        <v>95</v>
+      </c>
+      <c r="F93" s="17">
+        <v>57</v>
+      </c>
+      <c r="G93" s="17"/>
+      <c r="H93" s="15">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="I93" s="16">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="17">
+        <v>0</v>
+      </c>
+      <c r="D94" s="17">
+        <v>1</v>
+      </c>
+      <c r="E94" s="17">
+        <v>53</v>
+      </c>
+      <c r="F94" s="17">
+        <v>60</v>
+      </c>
+      <c r="G94" s="17"/>
+      <c r="H94" s="15">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="I94" s="16">
+        <f t="shared" si="3"/>
+        <v>0.46902654867256638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="17">
+        <v>0</v>
+      </c>
+      <c r="D95" s="17">
+        <v>1</v>
+      </c>
+      <c r="E95" s="17">
+        <v>51</v>
+      </c>
+      <c r="F95" s="17">
+        <v>43</v>
+      </c>
+      <c r="G95" s="17"/>
+      <c r="H95" s="15">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="I95" s="16">
+        <f t="shared" si="3"/>
+        <v>0.54255319148936165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>68</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="17">
+        <v>0</v>
+      </c>
+      <c r="D96" s="17">
+        <v>1</v>
+      </c>
+      <c r="E96" s="17">
+        <v>58</v>
+      </c>
+      <c r="F96" s="17">
+        <v>35</v>
+      </c>
+      <c r="G96" s="17"/>
+      <c r="H96" s="15">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="I96" s="16">
+        <f t="shared" si="3"/>
+        <v>0.62365591397849462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="17">
+        <v>0</v>
+      </c>
+      <c r="D97" s="17">
+        <v>1</v>
+      </c>
+      <c r="E97" s="17">
+        <v>21</v>
+      </c>
+      <c r="F97" s="17">
+        <v>50</v>
+      </c>
+      <c r="G97" s="17"/>
+      <c r="H97" s="15">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="I97" s="16">
+        <f t="shared" si="3"/>
+        <v>0.29577464788732394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" s="17">
+        <v>0</v>
+      </c>
+      <c r="D98" s="17">
+        <v>1</v>
+      </c>
+      <c r="E98" s="17">
+        <v>43</v>
+      </c>
+      <c r="F98" s="17">
+        <v>25</v>
+      </c>
+      <c r="G98" s="17"/>
+      <c r="H98" s="15">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="I98" s="16">
+        <f t="shared" si="3"/>
+        <v>0.63235294117647056</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="17">
+        <v>0</v>
+      </c>
+      <c r="D99" s="17">
+        <v>1</v>
+      </c>
+      <c r="E99" s="17">
+        <v>0</v>
+      </c>
+      <c r="F99" s="17">
+        <v>64</v>
+      </c>
+      <c r="G99" s="17"/>
+      <c r="H99" s="15">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="I99" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>68</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="17">
+        <v>0</v>
+      </c>
+      <c r="D100" s="17">
+        <v>1</v>
+      </c>
+      <c r="E100" s="17">
+        <v>10</v>
+      </c>
+      <c r="F100" s="17">
+        <v>46</v>
+      </c>
+      <c r="G100" s="17"/>
+      <c r="H100" s="15">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="I100" s="16">
+        <f t="shared" si="3"/>
+        <v>0.17857142857142858</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="17">
+        <v>0</v>
+      </c>
+      <c r="D101" s="17">
+        <v>1</v>
+      </c>
+      <c r="E101" s="17">
+        <v>26</v>
+      </c>
+      <c r="F101" s="17">
+        <v>13</v>
+      </c>
+      <c r="G101" s="17"/>
+      <c r="H101" s="15">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="I101" s="16">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" s="17">
+        <v>0</v>
+      </c>
+      <c r="D102" s="17">
+        <v>1</v>
+      </c>
+      <c r="E102" s="17">
+        <v>0</v>
+      </c>
+      <c r="F102" s="17">
+        <v>37</v>
+      </c>
+      <c r="G102" s="17"/>
+      <c r="H102" s="15">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I102" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>68</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="17">
+        <v>0</v>
+      </c>
+      <c r="D103" s="17">
+        <v>1</v>
+      </c>
+      <c r="E103" s="17">
+        <v>8</v>
+      </c>
+      <c r="F103" s="17">
+        <v>12</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="15">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I103" s="16">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" s="17">
+        <v>0</v>
+      </c>
+      <c r="D104" s="17">
+        <v>1</v>
+      </c>
+      <c r="E104" s="17">
+        <v>9</v>
+      </c>
+      <c r="F104" s="17">
+        <v>7</v>
+      </c>
+      <c r="G104" s="17"/>
+      <c r="H104" s="15">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I104" s="16">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="17">
+        <v>0</v>
+      </c>
+      <c r="D105" s="17">
+        <v>1</v>
+      </c>
+      <c r="E105" s="17">
+        <v>9</v>
+      </c>
+      <c r="F105" s="17">
+        <v>2</v>
+      </c>
+      <c r="G105" s="17"/>
+      <c r="H105" s="15">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="I105" s="16">
+        <f t="shared" si="3"/>
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="17">
+        <v>0</v>
+      </c>
+      <c r="D106" s="17">
+        <v>1</v>
+      </c>
+      <c r="E106" s="17">
+        <v>7</v>
+      </c>
+      <c r="F106" s="17">
+        <v>1</v>
+      </c>
+      <c r="G106" s="17"/>
+      <c r="H106" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="I106" s="16">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="17">
+        <v>0</v>
+      </c>
+      <c r="D107" s="17">
+        <v>1</v>
+      </c>
+      <c r="E107" s="17">
+        <v>1</v>
+      </c>
+      <c r="F107" s="17">
+        <v>6</v>
+      </c>
+      <c r="G107" s="17"/>
+      <c r="H107" s="15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I107" s="16">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>68</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="17">
+        <v>0</v>
+      </c>
+      <c r="D108" s="17">
+        <v>1</v>
+      </c>
+      <c r="E108" s="17">
+        <v>0</v>
+      </c>
+      <c r="F108" s="17">
+        <v>2</v>
+      </c>
+      <c r="G108" s="17"/>
+      <c r="H108" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I108" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" s="14">
+        <v>655632</v>
+      </c>
+      <c r="D109" s="14">
+        <v>618475</v>
+      </c>
+      <c r="E109" s="14">
+        <v>843136</v>
+      </c>
+      <c r="F109" s="14">
+        <v>430971</v>
+      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="15">
+        <f t="shared" si="2"/>
+        <v>1274107</v>
+      </c>
+      <c r="I109" s="16">
+        <f t="shared" si="3"/>
+        <v>0.661746619396958</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="14">
+        <v>515255</v>
+      </c>
+      <c r="D110" s="14">
+        <v>482801</v>
+      </c>
+      <c r="E110" s="14">
+        <v>717585</v>
+      </c>
+      <c r="F110" s="14">
+        <v>280471</v>
+      </c>
+      <c r="G110" s="14"/>
+      <c r="H110" s="15">
+        <f t="shared" si="2"/>
+        <v>998056</v>
+      </c>
+      <c r="I110" s="16">
+        <f t="shared" si="3"/>
+        <v>0.71898270237341388</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="14">
+        <v>104403</v>
+      </c>
+      <c r="D111" s="14">
+        <v>104852</v>
+      </c>
+      <c r="E111" s="14">
+        <v>127231</v>
+      </c>
+      <c r="F111" s="14">
+        <v>82024</v>
+      </c>
+      <c r="G111" s="14"/>
+      <c r="H111" s="15">
+        <f t="shared" si="2"/>
+        <v>209255</v>
+      </c>
+      <c r="I111" s="16">
+        <f t="shared" si="3"/>
+        <v>0.60801892427898974</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="14">
+        <v>78632</v>
+      </c>
+      <c r="D112" s="14">
+        <v>73698</v>
+      </c>
+      <c r="E112" s="14">
+        <v>96764</v>
+      </c>
+      <c r="F112" s="14">
+        <v>55567</v>
+      </c>
+      <c r="G112" s="14"/>
+      <c r="H112" s="15">
+        <f t="shared" si="2"/>
+        <v>152331</v>
+      </c>
+      <c r="I112" s="16">
+        <f t="shared" si="3"/>
+        <v>0.63522198370653382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="14">
+        <v>65001</v>
+      </c>
+      <c r="D113" s="14">
+        <v>61947</v>
+      </c>
+      <c r="E113" s="14">
+        <v>100839</v>
+      </c>
+      <c r="F113" s="14">
+        <v>26109</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="H113" s="15">
+        <f t="shared" si="2"/>
+        <v>126948</v>
+      </c>
+      <c r="I113" s="16">
+        <f t="shared" si="3"/>
+        <v>0.79433311277058327</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="14">
+        <v>61997</v>
+      </c>
+      <c r="D114" s="14">
+        <v>64508</v>
+      </c>
+      <c r="E114" s="14">
+        <v>26930</v>
+      </c>
+      <c r="F114" s="14">
+        <v>99575</v>
+      </c>
+      <c r="G114" s="14"/>
+      <c r="H114" s="15">
+        <f t="shared" si="2"/>
+        <v>126505</v>
+      </c>
+      <c r="I114" s="16">
+        <f t="shared" si="3"/>
+        <v>0.21287696138492548</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="14">
+        <v>38847</v>
+      </c>
+      <c r="D115" s="14">
+        <v>39858</v>
+      </c>
+      <c r="E115" s="14">
+        <v>63223</v>
+      </c>
+      <c r="F115" s="14">
+        <v>15482</v>
+      </c>
+      <c r="G115" s="14"/>
+      <c r="H115" s="15">
+        <f t="shared" si="2"/>
+        <v>78705</v>
+      </c>
+      <c r="I115" s="16">
+        <f t="shared" si="3"/>
+        <v>0.80329076932850518</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="14">
+        <v>37558</v>
+      </c>
+      <c r="D116" s="14">
+        <v>36896</v>
+      </c>
+      <c r="E116" s="14">
+        <v>31514</v>
+      </c>
+      <c r="F116" s="14">
+        <v>42940</v>
+      </c>
+      <c r="G116" s="14"/>
+      <c r="H116" s="15">
+        <f t="shared" si="2"/>
+        <v>74454</v>
+      </c>
+      <c r="I116" s="16">
+        <f t="shared" si="3"/>
+        <v>0.42326805812985197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="14">
+        <v>33886</v>
+      </c>
+      <c r="D117" s="14">
+        <v>32910</v>
+      </c>
+      <c r="E117" s="14">
+        <v>26001</v>
+      </c>
+      <c r="F117" s="14">
+        <v>40795</v>
+      </c>
+      <c r="G117" s="14"/>
+      <c r="H117" s="15">
+        <f t="shared" si="2"/>
+        <v>66796</v>
+      </c>
+      <c r="I117" s="16">
+        <f t="shared" si="3"/>
+        <v>0.38925983591831848</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" s="14">
+        <v>33110</v>
+      </c>
+      <c r="D118" s="14">
+        <v>32436</v>
+      </c>
+      <c r="E118" s="14">
+        <v>16994</v>
+      </c>
+      <c r="F118" s="14">
+        <v>48552</v>
+      </c>
+      <c r="G118" s="14"/>
+      <c r="H118" s="15">
+        <f t="shared" si="2"/>
+        <v>65546</v>
+      </c>
+      <c r="I118" s="16">
+        <f t="shared" si="3"/>
+        <v>0.25926830012510299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C119" s="14">
+        <v>30374</v>
+      </c>
+      <c r="D119" s="14">
+        <v>30482</v>
+      </c>
+      <c r="E119" s="14">
+        <v>47926</v>
+      </c>
+      <c r="F119" s="14">
+        <v>12930</v>
+      </c>
+      <c r="G119" s="14"/>
+      <c r="H119" s="15">
+        <f t="shared" si="2"/>
+        <v>60856</v>
+      </c>
+      <c r="I119" s="16">
+        <f t="shared" si="3"/>
+        <v>0.78753122124359143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C120" s="14">
+        <v>23437</v>
+      </c>
+      <c r="D120" s="14">
+        <v>23042</v>
+      </c>
+      <c r="E120" s="14">
+        <v>6897</v>
+      </c>
+      <c r="F120" s="14">
+        <v>39583</v>
+      </c>
+      <c r="G120" s="14"/>
+      <c r="H120" s="15">
+        <f t="shared" si="2"/>
+        <v>46480</v>
+      </c>
+      <c r="I120" s="16">
+        <f t="shared" si="3"/>
+        <v>0.14838640275387263</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" s="14">
+        <v>22426</v>
+      </c>
+      <c r="D121" s="14">
+        <v>22633</v>
+      </c>
+      <c r="E121" s="14">
+        <v>32754</v>
+      </c>
+      <c r="F121" s="14">
+        <v>12305</v>
+      </c>
+      <c r="G121" s="14"/>
+      <c r="H121" s="15">
+        <f t="shared" si="2"/>
+        <v>45059</v>
+      </c>
+      <c r="I121" s="16">
+        <f t="shared" si="3"/>
+        <v>0.72691360216604894</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C122" s="14">
+        <v>11887</v>
+      </c>
+      <c r="D122" s="14">
+        <v>12054</v>
+      </c>
+      <c r="E122" s="14">
+        <v>13853</v>
+      </c>
+      <c r="F122" s="14">
+        <v>10089</v>
+      </c>
+      <c r="G122" s="14"/>
+      <c r="H122" s="15">
+        <f t="shared" si="2"/>
+        <v>23942</v>
+      </c>
+      <c r="I122" s="16">
+        <f t="shared" si="3"/>
+        <v>0.57860663269568124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="14">
+        <v>11882</v>
+      </c>
+      <c r="D123" s="14">
+        <v>11820</v>
+      </c>
+      <c r="E123" s="14">
+        <v>8890</v>
+      </c>
+      <c r="F123" s="14">
+        <v>14812</v>
+      </c>
+      <c r="G123" s="14"/>
+      <c r="H123" s="15">
+        <f t="shared" si="2"/>
+        <v>23702</v>
+      </c>
+      <c r="I123" s="16">
+        <f t="shared" si="3"/>
+        <v>0.37507383343177791</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="14">
+        <v>11848</v>
+      </c>
+      <c r="D124" s="14">
+        <v>11538</v>
+      </c>
+      <c r="E124" s="14">
+        <v>20684</v>
+      </c>
+      <c r="F124" s="14">
+        <v>2701</v>
+      </c>
+      <c r="G124" s="14"/>
+      <c r="H124" s="15">
+        <f t="shared" si="2"/>
+        <v>23385</v>
+      </c>
+      <c r="I124" s="16">
+        <f t="shared" si="3"/>
+        <v>0.88449861022022669</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C125" s="14">
+        <v>11419</v>
+      </c>
+      <c r="D125" s="14">
+        <v>11031</v>
+      </c>
+      <c r="E125" s="14">
+        <v>5309</v>
+      </c>
+      <c r="F125" s="14">
+        <v>17141</v>
+      </c>
+      <c r="G125" s="14"/>
+      <c r="H125" s="15">
+        <f t="shared" si="2"/>
+        <v>22450</v>
+      </c>
+      <c r="I125" s="16">
+        <f t="shared" si="3"/>
+        <v>0.23648106904231625</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C126" s="14">
+        <v>11251</v>
+      </c>
+      <c r="D126" s="14">
+        <v>10672</v>
+      </c>
+      <c r="E126" s="14">
+        <v>17217</v>
+      </c>
+      <c r="F126" s="14">
+        <v>4707</v>
+      </c>
+      <c r="G126" s="14"/>
+      <c r="H126" s="15">
+        <f t="shared" si="2"/>
+        <v>21924</v>
+      </c>
+      <c r="I126" s="16">
+        <f t="shared" si="3"/>
+        <v>0.78530377668308704</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C127" s="14">
+        <v>11065</v>
+      </c>
+      <c r="D127" s="14">
+        <v>10765</v>
+      </c>
+      <c r="E127" s="14">
+        <v>9495</v>
+      </c>
+      <c r="F127" s="14">
+        <v>12335</v>
+      </c>
+      <c r="G127" s="14"/>
+      <c r="H127" s="15">
+        <f t="shared" si="2"/>
+        <v>21830</v>
+      </c>
+      <c r="I127" s="16">
+        <f t="shared" si="3"/>
+        <v>0.43495190105359599</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128" s="14">
+        <v>11566</v>
+      </c>
+      <c r="D128" s="14">
+        <v>9333</v>
+      </c>
+      <c r="E128" s="14">
+        <v>3106</v>
+      </c>
+      <c r="F128" s="14">
+        <v>17793</v>
+      </c>
+      <c r="G128" s="14"/>
+      <c r="H128" s="15">
+        <f t="shared" si="2"/>
+        <v>20899</v>
+      </c>
+      <c r="I128" s="16">
+        <f t="shared" si="3"/>
+        <v>0.14861955117469736</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>119</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" s="14">
+        <v>9227</v>
+      </c>
+      <c r="D129" s="14">
+        <v>9412</v>
+      </c>
+      <c r="E129" s="14">
+        <v>14305</v>
+      </c>
+      <c r="F129" s="14">
+        <v>4334</v>
+      </c>
+      <c r="G129" s="14"/>
+      <c r="H129" s="15">
+        <f t="shared" si="2"/>
+        <v>18639</v>
+      </c>
+      <c r="I129" s="16">
+        <f t="shared" si="3"/>
+        <v>0.76747679596544882</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>119</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="14">
+        <v>8809</v>
+      </c>
+      <c r="D130" s="14">
+        <v>8679</v>
+      </c>
+      <c r="E130" s="14">
+        <v>11007</v>
+      </c>
+      <c r="F130" s="14">
+        <v>6481</v>
+      </c>
+      <c r="G130" s="14"/>
+      <c r="H130" s="15">
+        <f t="shared" si="2"/>
+        <v>17488</v>
+      </c>
+      <c r="I130" s="16">
+        <f t="shared" si="3"/>
+        <v>0.62940301921317476</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>119</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C131" s="14">
+        <v>7917</v>
+      </c>
+      <c r="D131" s="14">
+        <v>8352</v>
+      </c>
+      <c r="E131" s="14">
+        <v>6303</v>
+      </c>
+      <c r="F131" s="14">
+        <v>9966</v>
+      </c>
+      <c r="G131" s="14"/>
+      <c r="H131" s="15">
+        <f t="shared" ref="H131:H194" si="4">E131+F131</f>
+        <v>16269</v>
+      </c>
+      <c r="I131" s="16">
+        <f t="shared" si="3"/>
+        <v>0.38742393509127787</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" s="14">
+        <v>7943</v>
+      </c>
+      <c r="D132" s="14">
+        <v>7782</v>
+      </c>
+      <c r="E132" s="14">
+        <v>7231</v>
+      </c>
+      <c r="F132" s="14">
+        <v>8494</v>
+      </c>
+      <c r="G132" s="14"/>
+      <c r="H132" s="15">
+        <f t="shared" si="4"/>
+        <v>15725</v>
+      </c>
+      <c r="I132" s="16">
+        <f t="shared" ref="I132:I195" si="5">+E132/(E132+F132)</f>
+        <v>0.45984101748807632</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>119</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" s="14">
+        <v>5305</v>
+      </c>
+      <c r="D133" s="14">
+        <v>5641</v>
+      </c>
+      <c r="E133" s="14">
+        <v>8447</v>
+      </c>
+      <c r="F133" s="14">
+        <v>2498</v>
+      </c>
+      <c r="G133" s="14"/>
+      <c r="H133" s="15">
+        <f t="shared" si="4"/>
+        <v>10945</v>
+      </c>
+      <c r="I133" s="16">
+        <f t="shared" si="5"/>
+        <v>0.77176793056190041</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>119</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" s="14">
+        <v>3770</v>
+      </c>
+      <c r="D134" s="14">
+        <v>3927</v>
+      </c>
+      <c r="E134" s="14">
+        <v>3314</v>
+      </c>
+      <c r="F134" s="14">
+        <v>4383</v>
+      </c>
+      <c r="G134" s="14"/>
+      <c r="H134" s="15">
+        <f t="shared" si="4"/>
+        <v>7697</v>
+      </c>
+      <c r="I134" s="16">
+        <f t="shared" si="5"/>
+        <v>0.43055736001039369</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>119</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C135" s="14">
+        <v>3040</v>
+      </c>
+      <c r="D135" s="14">
+        <v>3064</v>
+      </c>
+      <c r="E135" s="14">
+        <v>4107</v>
+      </c>
+      <c r="F135" s="14">
+        <v>1997</v>
+      </c>
+      <c r="G135" s="14"/>
+      <c r="H135" s="15">
+        <f t="shared" si="4"/>
+        <v>6104</v>
+      </c>
+      <c r="I135" s="16">
+        <f t="shared" si="5"/>
+        <v>0.67283748361730011</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" s="14">
+        <v>3026</v>
+      </c>
+      <c r="D136" s="14">
+        <v>3075</v>
+      </c>
+      <c r="E136" s="17">
+        <v>544</v>
+      </c>
+      <c r="F136" s="14">
+        <v>5557</v>
+      </c>
+      <c r="G136" s="14"/>
+      <c r="H136" s="15">
+        <f t="shared" si="4"/>
+        <v>6101</v>
+      </c>
+      <c r="I136" s="16">
+        <f t="shared" si="5"/>
+        <v>8.9165710539255857E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>119</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="14">
+        <v>2668</v>
+      </c>
+      <c r="D137" s="14">
+        <v>2629</v>
+      </c>
+      <c r="E137" s="14">
+        <v>4085</v>
+      </c>
+      <c r="F137" s="14">
+        <v>1212</v>
+      </c>
+      <c r="G137" s="14"/>
+      <c r="H137" s="15">
+        <f t="shared" si="4"/>
+        <v>5297</v>
+      </c>
+      <c r="I137" s="16">
+        <f t="shared" si="5"/>
+        <v>0.77119124032471209</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" s="14">
+        <v>2392</v>
+      </c>
+      <c r="D138" s="14">
+        <v>2613</v>
+      </c>
+      <c r="E138" s="14">
+        <v>1991</v>
+      </c>
+      <c r="F138" s="14">
+        <v>3015</v>
+      </c>
+      <c r="G138" s="14"/>
+      <c r="H138" s="15">
+        <f t="shared" si="4"/>
+        <v>5006</v>
+      </c>
+      <c r="I138" s="16">
+        <f t="shared" si="5"/>
+        <v>0.39772273272073511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>119</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" s="14">
+        <v>2519</v>
+      </c>
+      <c r="D139" s="14">
+        <v>2303</v>
+      </c>
+      <c r="E139" s="14">
+        <v>1272</v>
+      </c>
+      <c r="F139" s="14">
+        <v>3551</v>
+      </c>
+      <c r="G139" s="14"/>
+      <c r="H139" s="15">
+        <f t="shared" si="4"/>
+        <v>4823</v>
+      </c>
+      <c r="I139" s="16">
+        <f t="shared" si="5"/>
+        <v>0.26373626373626374</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>119</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="14">
+        <v>2289</v>
+      </c>
+      <c r="D140" s="14">
+        <v>2380</v>
+      </c>
+      <c r="E140" s="14">
+        <v>2810</v>
+      </c>
+      <c r="F140" s="14">
+        <v>1859</v>
+      </c>
+      <c r="G140" s="14"/>
+      <c r="H140" s="15">
+        <f t="shared" si="4"/>
+        <v>4669</v>
+      </c>
+      <c r="I140" s="16">
+        <f t="shared" si="5"/>
+        <v>0.60184193617476978</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>119</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" s="14">
+        <v>2169</v>
+      </c>
+      <c r="D141" s="14">
+        <v>2215</v>
+      </c>
+      <c r="E141" s="14">
+        <v>2395</v>
+      </c>
+      <c r="F141" s="14">
+        <v>1989</v>
+      </c>
+      <c r="G141" s="14"/>
+      <c r="H141" s="15">
+        <f t="shared" si="4"/>
+        <v>4384</v>
+      </c>
+      <c r="I141" s="16">
+        <f t="shared" si="5"/>
+        <v>0.54630474452554745</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>119</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="14">
+        <v>1714</v>
+      </c>
+      <c r="D142" s="14">
+        <v>1811</v>
+      </c>
+      <c r="E142" s="14">
+        <v>1069</v>
+      </c>
+      <c r="F142" s="14">
+        <v>2456</v>
+      </c>
+      <c r="G142" s="14"/>
+      <c r="H142" s="15">
+        <f t="shared" si="4"/>
+        <v>3525</v>
+      </c>
+      <c r="I142" s="16">
+        <f t="shared" si="5"/>
+        <v>0.30326241134751775</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>119</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C143" s="14">
+        <v>1774</v>
+      </c>
+      <c r="D143" s="14">
+        <v>1748</v>
+      </c>
+      <c r="E143" s="17">
+        <v>0</v>
+      </c>
+      <c r="F143" s="14">
+        <v>3522</v>
+      </c>
+      <c r="G143" s="14"/>
+      <c r="H143" s="15">
+        <f t="shared" si="4"/>
+        <v>3522</v>
+      </c>
+      <c r="I143" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>119</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C144" s="14">
+        <v>1582</v>
+      </c>
+      <c r="D144" s="14">
+        <v>1654</v>
+      </c>
+      <c r="E144" s="17">
+        <v>347</v>
+      </c>
+      <c r="F144" s="14">
+        <v>2889</v>
+      </c>
+      <c r="G144" s="14"/>
+      <c r="H144" s="15">
+        <f t="shared" si="4"/>
+        <v>3236</v>
+      </c>
+      <c r="I144" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10723114956736712</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>119</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C145" s="14">
+        <v>1314</v>
+      </c>
+      <c r="D145" s="14">
+        <v>1307</v>
+      </c>
+      <c r="E145" s="17">
+        <v>970</v>
+      </c>
+      <c r="F145" s="14">
+        <v>1650</v>
+      </c>
+      <c r="G145" s="14"/>
+      <c r="H145" s="15">
+        <f t="shared" si="4"/>
+        <v>2620</v>
+      </c>
+      <c r="I145" s="16">
+        <f t="shared" si="5"/>
+        <v>0.37022900763358779</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>119</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="14">
+        <v>1305</v>
+      </c>
+      <c r="D146" s="14">
+        <v>1155</v>
+      </c>
+      <c r="E146" s="17">
+        <v>437</v>
+      </c>
+      <c r="F146" s="14">
+        <v>2023</v>
+      </c>
+      <c r="G146" s="14"/>
+      <c r="H146" s="15">
+        <f t="shared" si="4"/>
+        <v>2460</v>
+      </c>
+      <c r="I146" s="16">
+        <f t="shared" si="5"/>
+        <v>0.17764227642276423</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>119</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147" s="14">
+        <v>1521</v>
+      </c>
+      <c r="D147" s="17">
+        <v>876</v>
+      </c>
+      <c r="E147" s="17">
+        <v>348</v>
+      </c>
+      <c r="F147" s="14">
+        <v>2049</v>
+      </c>
+      <c r="G147" s="14"/>
+      <c r="H147" s="15">
+        <f t="shared" si="4"/>
+        <v>2397</v>
+      </c>
+      <c r="I147" s="16">
+        <f t="shared" si="5"/>
+        <v>0.14518147684605756</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>119</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C148" s="14">
+        <v>1042</v>
+      </c>
+      <c r="D148" s="14">
+        <v>1022</v>
+      </c>
+      <c r="E148" s="14">
+        <v>1921</v>
+      </c>
+      <c r="F148" s="17">
+        <v>142</v>
+      </c>
+      <c r="G148" s="17"/>
+      <c r="H148" s="15">
+        <f t="shared" si="4"/>
+        <v>2063</v>
+      </c>
+      <c r="I148" s="16">
+        <f t="shared" si="5"/>
+        <v>0.93116820164808534</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>119</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" s="17">
+        <v>991</v>
+      </c>
+      <c r="D149" s="17">
+        <v>906</v>
+      </c>
+      <c r="E149" s="17">
+        <v>48</v>
+      </c>
+      <c r="F149" s="14">
+        <v>1849</v>
+      </c>
+      <c r="G149" s="14"/>
+      <c r="H149" s="15">
+        <f t="shared" si="4"/>
+        <v>1897</v>
+      </c>
+      <c r="I149" s="16">
+        <f t="shared" si="5"/>
+        <v>2.5303110173958882E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>119</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="17">
+        <v>830</v>
+      </c>
+      <c r="D150" s="17">
+        <v>829</v>
+      </c>
+      <c r="E150" s="17">
+        <v>438</v>
+      </c>
+      <c r="F150" s="14">
+        <v>1222</v>
+      </c>
+      <c r="G150" s="14"/>
+      <c r="H150" s="15">
+        <f t="shared" si="4"/>
+        <v>1660</v>
+      </c>
+      <c r="I150" s="16">
+        <f t="shared" si="5"/>
+        <v>0.26385542168674697</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>119</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="17">
+        <v>544</v>
+      </c>
+      <c r="D151" s="17">
+        <v>533</v>
+      </c>
+      <c r="E151" s="17">
+        <v>59</v>
+      </c>
+      <c r="F151" s="14">
+        <v>1018</v>
+      </c>
+      <c r="G151" s="14"/>
+      <c r="H151" s="15">
+        <f t="shared" si="4"/>
+        <v>1077</v>
+      </c>
+      <c r="I151" s="16">
+        <f t="shared" si="5"/>
+        <v>5.4781801299907153E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>119</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="17">
+        <v>448</v>
+      </c>
+      <c r="D152" s="17">
+        <v>423</v>
+      </c>
+      <c r="E152" s="17">
+        <v>806</v>
+      </c>
+      <c r="F152" s="17">
+        <v>65</v>
+      </c>
+      <c r="G152" s="17"/>
+      <c r="H152" s="15">
+        <f t="shared" si="4"/>
+        <v>871</v>
+      </c>
+      <c r="I152" s="16">
+        <f t="shared" si="5"/>
+        <v>0.92537313432835822</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>119</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" s="17">
+        <v>389</v>
+      </c>
+      <c r="D153" s="17">
+        <v>390</v>
+      </c>
+      <c r="E153" s="17">
+        <v>341</v>
+      </c>
+      <c r="F153" s="17">
+        <v>438</v>
+      </c>
+      <c r="G153" s="17"/>
+      <c r="H153" s="15">
+        <f t="shared" si="4"/>
+        <v>779</v>
+      </c>
+      <c r="I153" s="16">
+        <f t="shared" si="5"/>
+        <v>0.43774069319640563</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>119</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="17">
+        <v>346</v>
+      </c>
+      <c r="D154" s="17">
+        <v>261</v>
+      </c>
+      <c r="E154" s="17">
+        <v>49</v>
+      </c>
+      <c r="F154" s="17">
+        <v>557</v>
+      </c>
+      <c r="G154" s="17"/>
+      <c r="H154" s="15">
+        <f t="shared" si="4"/>
+        <v>606</v>
+      </c>
+      <c r="I154" s="16">
+        <f t="shared" si="5"/>
+        <v>8.0858085808580851E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>119</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C155" s="17">
+        <v>385</v>
+      </c>
+      <c r="D155" s="17">
+        <v>204</v>
+      </c>
+      <c r="E155" s="17">
+        <v>46</v>
+      </c>
+      <c r="F155" s="17">
+        <v>544</v>
+      </c>
+      <c r="G155" s="17"/>
+      <c r="H155" s="15">
+        <f t="shared" si="4"/>
+        <v>590</v>
+      </c>
+      <c r="I155" s="16">
+        <f t="shared" si="5"/>
+        <v>7.796610169491526E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" s="17">
+        <v>168</v>
+      </c>
+      <c r="D156" s="17">
+        <v>153</v>
+      </c>
+      <c r="E156" s="17">
+        <v>92</v>
+      </c>
+      <c r="F156" s="17">
+        <v>230</v>
+      </c>
+      <c r="G156" s="17"/>
+      <c r="H156" s="15">
+        <f t="shared" si="4"/>
+        <v>322</v>
+      </c>
+      <c r="I156" s="16">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>119</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C157" s="17">
+        <v>143</v>
+      </c>
+      <c r="D157" s="17">
+        <v>135</v>
+      </c>
+      <c r="E157" s="17">
+        <v>200</v>
+      </c>
+      <c r="F157" s="17">
+        <v>78</v>
+      </c>
+      <c r="G157" s="17"/>
+      <c r="H157" s="15">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="I157" s="16">
+        <f t="shared" si="5"/>
+        <v>0.71942446043165464</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C158" s="18">
+        <v>68827</v>
+      </c>
+      <c r="D158" s="18">
+        <v>78368</v>
+      </c>
+      <c r="E158" s="18">
+        <v>33375</v>
+      </c>
+      <c r="F158" s="18">
+        <v>113821</v>
+      </c>
+      <c r="G158" s="18"/>
+      <c r="H158" s="15">
+        <f t="shared" si="4"/>
+        <v>147196</v>
+      </c>
+      <c r="I158" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22673849832875895</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" s="18">
+        <v>40197</v>
+      </c>
+      <c r="D159" s="18">
+        <v>41980</v>
+      </c>
+      <c r="E159" s="18">
+        <v>10411</v>
+      </c>
+      <c r="F159" s="18">
+        <v>71767</v>
+      </c>
+      <c r="G159" s="18"/>
+      <c r="H159" s="15">
+        <f t="shared" si="4"/>
+        <v>82178</v>
+      </c>
+      <c r="I159" s="16">
+        <f t="shared" si="5"/>
+        <v>0.12668840808975637</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" s="18">
+        <v>28947</v>
+      </c>
+      <c r="D160" s="18">
+        <v>30027</v>
+      </c>
+      <c r="E160" s="18">
+        <v>6335</v>
+      </c>
+      <c r="F160" s="18">
+        <v>52639</v>
+      </c>
+      <c r="G160" s="18"/>
+      <c r="H160" s="15">
+        <f t="shared" si="4"/>
+        <v>58974</v>
+      </c>
+      <c r="I160" s="16">
+        <f t="shared" si="5"/>
+        <v>0.1074202190795944</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" s="18">
+        <v>28705</v>
+      </c>
+      <c r="D161" s="18">
+        <v>30181</v>
+      </c>
+      <c r="E161" s="18">
+        <v>14495</v>
+      </c>
+      <c r="F161" s="18">
+        <v>44391</v>
+      </c>
+      <c r="G161" s="18"/>
+      <c r="H161" s="15">
+        <f t="shared" si="4"/>
+        <v>58886</v>
+      </c>
+      <c r="I161" s="16">
+        <f t="shared" si="5"/>
+        <v>0.24615358489284381</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C162" s="18">
+        <v>27830</v>
+      </c>
+      <c r="D162" s="18">
+        <v>29513</v>
+      </c>
+      <c r="E162" s="18">
+        <v>18969</v>
+      </c>
+      <c r="F162" s="18">
+        <v>38374</v>
+      </c>
+      <c r="G162" s="18"/>
+      <c r="H162" s="15">
+        <f t="shared" si="4"/>
+        <v>57343</v>
+      </c>
+      <c r="I162" s="16">
+        <f t="shared" si="5"/>
+        <v>0.33079887693354026</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C163" s="18">
+        <v>23583</v>
+      </c>
+      <c r="D163" s="18">
+        <v>27075</v>
+      </c>
+      <c r="E163" s="18">
+        <v>14166</v>
+      </c>
+      <c r="F163" s="18">
+        <v>36492</v>
+      </c>
+      <c r="G163" s="18"/>
+      <c r="H163" s="15">
+        <f t="shared" si="4"/>
+        <v>50658</v>
+      </c>
+      <c r="I163" s="16">
+        <f t="shared" si="5"/>
+        <v>0.2796399384105176</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="18">
+        <v>19383</v>
+      </c>
+      <c r="D164" s="18">
+        <v>20250</v>
+      </c>
+      <c r="E164" s="18">
+        <v>8962</v>
+      </c>
+      <c r="F164" s="18">
+        <v>30672</v>
+      </c>
+      <c r="G164" s="18"/>
+      <c r="H164" s="15">
+        <f t="shared" si="4"/>
+        <v>39634</v>
+      </c>
+      <c r="I164" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22611898874703537</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C165" s="18">
+        <v>18832</v>
+      </c>
+      <c r="D165" s="18">
+        <v>19909</v>
+      </c>
+      <c r="E165" s="18">
+        <v>13492</v>
+      </c>
+      <c r="F165" s="18">
+        <v>25248</v>
+      </c>
+      <c r="G165" s="18"/>
+      <c r="H165" s="15">
+        <f t="shared" si="4"/>
+        <v>38740</v>
+      </c>
+      <c r="I165" s="16">
+        <f t="shared" si="5"/>
+        <v>0.34827052142488385</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C166" s="18">
+        <v>11002</v>
+      </c>
+      <c r="D166" s="18">
+        <v>11400</v>
+      </c>
+      <c r="E166" s="18">
+        <v>9469</v>
+      </c>
+      <c r="F166" s="18">
+        <v>12933</v>
+      </c>
+      <c r="G166" s="18"/>
+      <c r="H166" s="15">
+        <f t="shared" si="4"/>
+        <v>22402</v>
+      </c>
+      <c r="I166" s="16">
+        <f t="shared" si="5"/>
+        <v>0.42268547451120436</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C167" s="18">
+        <v>7790</v>
+      </c>
+      <c r="D167" s="18">
+        <v>7945</v>
+      </c>
+      <c r="E167" s="18">
+        <v>1687</v>
+      </c>
+      <c r="F167" s="18">
+        <v>14048</v>
+      </c>
+      <c r="G167" s="18"/>
+      <c r="H167" s="15">
+        <f t="shared" si="4"/>
+        <v>15735</v>
+      </c>
+      <c r="I167" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10721321893867175</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C168" s="18">
+        <v>5286</v>
+      </c>
+      <c r="D168" s="18">
+        <v>5351</v>
+      </c>
+      <c r="E168" s="18">
+        <v>4341</v>
+      </c>
+      <c r="F168" s="18">
+        <v>6296</v>
+      </c>
+      <c r="G168" s="18"/>
+      <c r="H168" s="15">
+        <f t="shared" si="4"/>
+        <v>10637</v>
+      </c>
+      <c r="I168" s="16">
+        <f t="shared" si="5"/>
+        <v>0.4081037886622168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C169" s="18">
+        <v>5230</v>
+      </c>
+      <c r="D169" s="18">
+        <v>5396</v>
+      </c>
+      <c r="E169" s="18">
+        <v>4259</v>
+      </c>
+      <c r="F169" s="18">
+        <v>6367</v>
+      </c>
+      <c r="G169" s="18"/>
+      <c r="H169" s="15">
+        <f t="shared" si="4"/>
+        <v>10626</v>
+      </c>
+      <c r="I169" s="16">
+        <f t="shared" si="5"/>
+        <v>0.40080933559194426</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C170" s="18">
+        <v>5181</v>
+      </c>
+      <c r="D170" s="18">
+        <v>5398</v>
+      </c>
+      <c r="E170" s="19">
+        <v>317</v>
+      </c>
+      <c r="F170" s="18">
+        <v>10262</v>
+      </c>
+      <c r="G170" s="18"/>
+      <c r="H170" s="15">
+        <f t="shared" si="4"/>
+        <v>10579</v>
+      </c>
+      <c r="I170" s="16">
+        <f t="shared" si="5"/>
+        <v>2.9965025049626618E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C171" s="18">
+        <v>4826</v>
+      </c>
+      <c r="D171" s="18">
+        <v>5449</v>
+      </c>
+      <c r="E171" s="18">
+        <v>2698</v>
+      </c>
+      <c r="F171" s="18">
+        <v>7576</v>
+      </c>
+      <c r="G171" s="18"/>
+      <c r="H171" s="15">
+        <f t="shared" si="4"/>
+        <v>10274</v>
+      </c>
+      <c r="I171" s="16">
+        <f t="shared" si="5"/>
+        <v>0.26260463305431186</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C172" s="18">
+        <v>4997</v>
+      </c>
+      <c r="D172" s="18">
+        <v>5266</v>
+      </c>
+      <c r="E172" s="18">
+        <v>3480</v>
+      </c>
+      <c r="F172" s="18">
+        <v>6782</v>
+      </c>
+      <c r="G172" s="18"/>
+      <c r="H172" s="15">
+        <f t="shared" si="4"/>
+        <v>10262</v>
+      </c>
+      <c r="I172" s="16">
+        <f t="shared" si="5"/>
+        <v>0.33911518222568698</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>169</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C173" s="18">
+        <v>4972</v>
+      </c>
+      <c r="D173" s="18">
+        <v>5180</v>
+      </c>
+      <c r="E173" s="19">
+        <v>276</v>
+      </c>
+      <c r="F173" s="18">
+        <v>9876</v>
+      </c>
+      <c r="G173" s="18"/>
+      <c r="H173" s="15">
+        <f t="shared" si="4"/>
+        <v>10152</v>
+      </c>
+      <c r="I173" s="16">
+        <f t="shared" si="5"/>
+        <v>2.7186761229314422E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C174" s="18">
+        <v>4816</v>
+      </c>
+      <c r="D174" s="18">
+        <v>5259</v>
+      </c>
+      <c r="E174" s="18">
+        <v>3379</v>
+      </c>
+      <c r="F174" s="18">
+        <v>6696</v>
+      </c>
+      <c r="G174" s="18"/>
+      <c r="H174" s="15">
+        <f t="shared" si="4"/>
+        <v>10075</v>
+      </c>
+      <c r="I174" s="16">
+        <f t="shared" si="5"/>
+        <v>0.33538461538461539</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C175" s="18">
+        <v>4750</v>
+      </c>
+      <c r="D175" s="18">
+        <v>5123</v>
+      </c>
+      <c r="E175" s="18">
+        <v>6171</v>
+      </c>
+      <c r="F175" s="18">
+        <v>3703</v>
+      </c>
+      <c r="G175" s="18"/>
+      <c r="H175" s="15">
+        <f t="shared" si="4"/>
+        <v>9874</v>
+      </c>
+      <c r="I175" s="16">
+        <f t="shared" si="5"/>
+        <v>0.62497468098035247</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>169</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C176" s="18">
+        <v>4408</v>
+      </c>
+      <c r="D176" s="18">
+        <v>4484</v>
+      </c>
+      <c r="E176" s="18">
+        <v>1487</v>
+      </c>
+      <c r="F176" s="18">
+        <v>7405</v>
+      </c>
+      <c r="G176" s="18"/>
+      <c r="H176" s="15">
+        <f t="shared" si="4"/>
+        <v>8892</v>
+      </c>
+      <c r="I176" s="16">
+        <f t="shared" si="5"/>
+        <v>0.1672289698605488</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>169</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C177" s="18">
+        <v>4031</v>
+      </c>
+      <c r="D177" s="18">
+        <v>4249</v>
+      </c>
+      <c r="E177" s="18">
+        <v>2508</v>
+      </c>
+      <c r="F177" s="18">
+        <v>5771</v>
+      </c>
+      <c r="G177" s="18"/>
+      <c r="H177" s="15">
+        <f t="shared" si="4"/>
+        <v>8279</v>
+      </c>
+      <c r="I177" s="16">
+        <f t="shared" si="5"/>
+        <v>0.30293513709385189</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>169</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C178" s="18">
+        <v>4029</v>
+      </c>
+      <c r="D178" s="18">
+        <v>4148</v>
+      </c>
+      <c r="E178" s="18">
+        <v>2895</v>
+      </c>
+      <c r="F178" s="18">
+        <v>5281</v>
+      </c>
+      <c r="G178" s="18"/>
+      <c r="H178" s="15">
+        <f t="shared" si="4"/>
+        <v>8176</v>
+      </c>
+      <c r="I178" s="16">
+        <f t="shared" si="5"/>
+        <v>0.35408512720156554</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>169</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C179" s="18">
+        <v>3631</v>
+      </c>
+      <c r="D179" s="18">
+        <v>3714</v>
+      </c>
+      <c r="E179" s="18">
+        <v>2772</v>
+      </c>
+      <c r="F179" s="18">
+        <v>4573</v>
+      </c>
+      <c r="G179" s="18"/>
+      <c r="H179" s="15">
+        <f t="shared" si="4"/>
+        <v>7345</v>
+      </c>
+      <c r="I179" s="16">
+        <f t="shared" si="5"/>
+        <v>0.37739959155888358</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>169</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C180" s="18">
+        <v>2622</v>
+      </c>
+      <c r="D180" s="18">
+        <v>2759</v>
+      </c>
+      <c r="E180" s="18">
+        <v>2118</v>
+      </c>
+      <c r="F180" s="18">
+        <v>3263</v>
+      </c>
+      <c r="G180" s="18"/>
+      <c r="H180" s="15">
+        <f t="shared" si="4"/>
+        <v>5381</v>
+      </c>
+      <c r="I180" s="16">
+        <f t="shared" si="5"/>
+        <v>0.39360713622003346</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>169</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C181" s="18">
+        <v>2612</v>
+      </c>
+      <c r="D181" s="18">
+        <v>2671</v>
+      </c>
+      <c r="E181" s="19">
+        <v>759</v>
+      </c>
+      <c r="F181" s="18">
+        <v>4523</v>
+      </c>
+      <c r="G181" s="18"/>
+      <c r="H181" s="15">
+        <f t="shared" si="4"/>
+        <v>5282</v>
+      </c>
+      <c r="I181" s="16">
+        <f t="shared" si="5"/>
+        <v>0.14369556985990156</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>169</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C182" s="18">
+        <v>2518</v>
+      </c>
+      <c r="D182" s="18">
+        <v>2647</v>
+      </c>
+      <c r="E182" s="18">
+        <v>1827</v>
+      </c>
+      <c r="F182" s="18">
+        <v>3338</v>
+      </c>
+      <c r="G182" s="18"/>
+      <c r="H182" s="15">
+        <f t="shared" si="4"/>
+        <v>5165</v>
+      </c>
+      <c r="I182" s="16">
+        <f t="shared" si="5"/>
+        <v>0.35372700871248791</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>169</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C183" s="18">
+        <v>2164</v>
+      </c>
+      <c r="D183" s="18">
+        <v>2313</v>
+      </c>
+      <c r="E183" s="18">
+        <v>1910</v>
+      </c>
+      <c r="F183" s="18">
+        <v>2567</v>
+      </c>
+      <c r="G183" s="18"/>
+      <c r="H183" s="15">
+        <f t="shared" si="4"/>
+        <v>4477</v>
+      </c>
+      <c r="I183" s="16">
+        <f t="shared" si="5"/>
+        <v>0.42662497207951755</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C184" s="18">
+        <v>2201</v>
+      </c>
+      <c r="D184" s="18">
+        <v>2241</v>
+      </c>
+      <c r="E184" s="18">
+        <v>1156</v>
+      </c>
+      <c r="F184" s="18">
+        <v>3286</v>
+      </c>
+      <c r="G184" s="18"/>
+      <c r="H184" s="15">
+        <f t="shared" si="4"/>
+        <v>4442</v>
+      </c>
+      <c r="I184" s="16">
+        <f t="shared" si="5"/>
+        <v>0.26024313372354796</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>169</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C185" s="18">
+        <v>2096</v>
+      </c>
+      <c r="D185" s="18">
+        <v>2283</v>
+      </c>
+      <c r="E185" s="18">
+        <v>1995</v>
+      </c>
+      <c r="F185" s="18">
+        <v>2384</v>
+      </c>
+      <c r="G185" s="18"/>
+      <c r="H185" s="15">
+        <f t="shared" si="4"/>
+        <v>4379</v>
+      </c>
+      <c r="I185" s="16">
+        <f t="shared" si="5"/>
+        <v>0.45558346654487325</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C186" s="18">
+        <v>1899</v>
+      </c>
+      <c r="D186" s="18">
+        <v>1939</v>
+      </c>
+      <c r="E186" s="18">
+        <v>2198</v>
+      </c>
+      <c r="F186" s="18">
+        <v>1640</v>
+      </c>
+      <c r="G186" s="18"/>
+      <c r="H186" s="15">
+        <f t="shared" si="4"/>
+        <v>3838</v>
+      </c>
+      <c r="I186" s="16">
+        <f t="shared" si="5"/>
+        <v>0.57269411151641481</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>169</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C187" s="18">
+        <v>1839</v>
+      </c>
+      <c r="D187" s="18">
+        <v>1866</v>
+      </c>
+      <c r="E187" s="18">
+        <v>1544</v>
+      </c>
+      <c r="F187" s="18">
+        <v>2161</v>
+      </c>
+      <c r="G187" s="18"/>
+      <c r="H187" s="15">
+        <f t="shared" si="4"/>
+        <v>3705</v>
+      </c>
+      <c r="I187" s="16">
+        <f t="shared" si="5"/>
+        <v>0.4167341430499325</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>169</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C188" s="18">
+        <v>1738</v>
+      </c>
+      <c r="D188" s="18">
+        <v>1944</v>
+      </c>
+      <c r="E188" s="19">
+        <v>953</v>
+      </c>
+      <c r="F188" s="18">
+        <v>2729</v>
+      </c>
+      <c r="G188" s="18"/>
+      <c r="H188" s="15">
+        <f t="shared" si="4"/>
+        <v>3682</v>
+      </c>
+      <c r="I188" s="16">
+        <f t="shared" si="5"/>
+        <v>0.25882672460619227</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>169</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C189" s="18">
+        <v>1592</v>
+      </c>
+      <c r="D189" s="18">
+        <v>1521</v>
+      </c>
+      <c r="E189" s="18">
+        <v>1907</v>
+      </c>
+      <c r="F189" s="18">
+        <v>1206</v>
+      </c>
+      <c r="G189" s="18"/>
+      <c r="H189" s="15">
+        <f t="shared" si="4"/>
+        <v>3113</v>
+      </c>
+      <c r="I189" s="16">
+        <f t="shared" si="5"/>
+        <v>0.6125923546418246</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>169</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C190" s="18">
+        <v>1086</v>
+      </c>
+      <c r="D190" s="18">
+        <v>1303</v>
+      </c>
+      <c r="E190" s="19">
+        <v>622</v>
+      </c>
+      <c r="F190" s="18">
+        <v>1768</v>
+      </c>
+      <c r="G190" s="18"/>
+      <c r="H190" s="15">
+        <f t="shared" si="4"/>
+        <v>2390</v>
+      </c>
+      <c r="I190" s="16">
+        <f t="shared" si="5"/>
+        <v>0.26025104602510463</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>169</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C191" s="18">
+        <v>1005</v>
+      </c>
+      <c r="D191" s="18">
+        <v>1006</v>
+      </c>
+      <c r="E191" s="19">
+        <v>773</v>
+      </c>
+      <c r="F191" s="18">
+        <v>1238</v>
+      </c>
+      <c r="G191" s="18"/>
+      <c r="H191" s="15">
+        <f t="shared" si="4"/>
+        <v>2011</v>
+      </c>
+      <c r="I191" s="16">
+        <f t="shared" si="5"/>
+        <v>0.38438587767279958</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>169</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C192" s="19">
+        <v>966</v>
+      </c>
+      <c r="D192" s="18">
+        <v>1023</v>
+      </c>
+      <c r="E192" s="19">
+        <v>948</v>
+      </c>
+      <c r="F192" s="18">
+        <v>1041</v>
+      </c>
+      <c r="G192" s="18"/>
+      <c r="H192" s="15">
+        <f t="shared" si="4"/>
+        <v>1989</v>
+      </c>
+      <c r="I192" s="16">
+        <f t="shared" si="5"/>
+        <v>0.47662141779788841</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C193" s="19">
+        <v>664</v>
+      </c>
+      <c r="D193" s="19">
+        <v>748</v>
+      </c>
+      <c r="E193" s="19">
+        <v>367</v>
+      </c>
+      <c r="F193" s="18">
+        <v>1045</v>
+      </c>
+      <c r="G193" s="18"/>
+      <c r="H193" s="15">
+        <f t="shared" si="4"/>
+        <v>1412</v>
+      </c>
+      <c r="I193" s="16">
+        <f t="shared" si="5"/>
+        <v>0.25991501416430596</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>169</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C194" s="19">
+        <v>209</v>
+      </c>
+      <c r="D194" s="19">
+        <v>217</v>
+      </c>
+      <c r="E194" s="19">
+        <v>40</v>
+      </c>
+      <c r="F194" s="19">
+        <v>386</v>
+      </c>
+      <c r="G194" s="19"/>
+      <c r="H194" s="15">
+        <f t="shared" si="4"/>
+        <v>426</v>
+      </c>
+      <c r="I194" s="16">
+        <f t="shared" si="5"/>
+        <v>9.3896713615023469E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>169</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C195" s="19">
+        <v>191</v>
+      </c>
+      <c r="D195" s="19">
+        <v>195</v>
+      </c>
+      <c r="E195" s="19">
+        <v>38</v>
+      </c>
+      <c r="F195" s="19">
+        <v>348</v>
+      </c>
+      <c r="G195" s="19"/>
+      <c r="H195" s="15">
+        <f t="shared" ref="H195:H225" si="6">E195+F195</f>
+        <v>386</v>
+      </c>
+      <c r="I195" s="16">
+        <f t="shared" si="5"/>
+        <v>9.8445595854922283E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>169</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C196" s="19">
+        <v>140</v>
+      </c>
+      <c r="D196" s="19">
+        <v>139</v>
+      </c>
+      <c r="E196" s="19">
+        <v>22</v>
+      </c>
+      <c r="F196" s="19">
+        <v>256</v>
+      </c>
+      <c r="G196" s="19"/>
+      <c r="H196" s="15">
+        <f t="shared" si="6"/>
+        <v>278</v>
+      </c>
+      <c r="I196" s="16">
+        <f t="shared" ref="I196:I225" si="7">+E196/(E196+F196)</f>
+        <v>7.9136690647482008E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>169</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" s="19">
+        <v>0</v>
+      </c>
+      <c r="D197" s="19">
+        <v>1</v>
+      </c>
+      <c r="E197" s="19">
+        <v>4</v>
+      </c>
+      <c r="F197" s="19">
+        <v>71</v>
+      </c>
+      <c r="G197" s="19"/>
+      <c r="H197" s="15">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="I197" s="16">
+        <f t="shared" si="7"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>169</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C198" s="19">
+        <v>0</v>
+      </c>
+      <c r="D198" s="19">
+        <v>1</v>
+      </c>
+      <c r="E198" s="19">
+        <v>28</v>
+      </c>
+      <c r="F198" s="19">
+        <v>15</v>
+      </c>
+      <c r="G198" s="19"/>
+      <c r="H198" s="15">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="I198" s="16">
+        <f t="shared" si="7"/>
+        <v>0.65116279069767447</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>169</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C199" s="19">
+        <v>0</v>
+      </c>
+      <c r="D199" s="19">
+        <v>1</v>
+      </c>
+      <c r="E199" s="19">
+        <v>26</v>
+      </c>
+      <c r="F199" s="19">
+        <v>7</v>
+      </c>
+      <c r="G199" s="19"/>
+      <c r="H199" s="15">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="I199" s="16">
+        <f t="shared" si="7"/>
+        <v>0.78787878787878785</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>169</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C200" s="19">
+        <v>0</v>
+      </c>
+      <c r="D200" s="19">
+        <v>1</v>
+      </c>
+      <c r="E200" s="19">
+        <v>0</v>
+      </c>
+      <c r="F200" s="19">
+        <v>33</v>
+      </c>
+      <c r="G200" s="19"/>
+      <c r="H200" s="15">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="I200" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C201" s="19">
+        <v>0</v>
+      </c>
+      <c r="D201" s="19">
+        <v>1</v>
+      </c>
+      <c r="E201" s="19">
+        <v>1</v>
+      </c>
+      <c r="F201" s="19">
+        <v>25</v>
+      </c>
+      <c r="G201" s="19"/>
+      <c r="H201" s="15">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="I201" s="16">
+        <f t="shared" si="7"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>169</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C202" s="19">
+        <v>0</v>
+      </c>
+      <c r="D202" s="19">
+        <v>1</v>
+      </c>
+      <c r="E202" s="19">
+        <v>0</v>
+      </c>
+      <c r="F202" s="19">
+        <v>25</v>
+      </c>
+      <c r="G202" s="19"/>
+      <c r="H202" s="15">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="I202" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>215</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C203" s="18">
+        <v>9288</v>
+      </c>
+      <c r="D203" s="18">
+        <v>9413</v>
+      </c>
+      <c r="E203" s="18">
+        <v>2863</v>
+      </c>
+      <c r="F203" s="18">
+        <v>15838</v>
+      </c>
+      <c r="G203" s="18"/>
+      <c r="H203" s="15">
+        <f t="shared" si="6"/>
+        <v>18701</v>
+      </c>
+      <c r="I203" s="16">
+        <f t="shared" si="7"/>
+        <v>0.15309341746430671</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>215</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C204" s="18">
+        <v>2423</v>
+      </c>
+      <c r="D204" s="18">
+        <v>2279</v>
+      </c>
+      <c r="E204" s="18">
+        <v>3897</v>
+      </c>
+      <c r="F204" s="19">
+        <v>806</v>
+      </c>
+      <c r="G204" s="19"/>
+      <c r="H204" s="15">
+        <f t="shared" si="6"/>
+        <v>4703</v>
+      </c>
+      <c r="I204" s="16">
+        <f t="shared" si="7"/>
+        <v>0.82862002976823301</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>215</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C205" s="18">
+        <v>1886</v>
+      </c>
+      <c r="D205" s="18">
+        <v>1942</v>
+      </c>
+      <c r="E205" s="19">
+        <v>509</v>
+      </c>
+      <c r="F205" s="18">
+        <v>3320</v>
+      </c>
+      <c r="G205" s="18"/>
+      <c r="H205" s="15">
+        <f t="shared" si="6"/>
+        <v>3829</v>
+      </c>
+      <c r="I205" s="16">
+        <f t="shared" si="7"/>
+        <v>0.13293288064768868</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>215</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C206" s="19">
+        <v>410</v>
+      </c>
+      <c r="D206" s="19">
+        <v>396</v>
+      </c>
+      <c r="E206" s="19">
+        <v>468</v>
+      </c>
+      <c r="F206" s="19">
+        <v>338</v>
+      </c>
+      <c r="G206" s="19"/>
+      <c r="H206" s="15">
+        <f t="shared" si="6"/>
+        <v>806</v>
+      </c>
+      <c r="I206" s="16">
+        <f t="shared" si="7"/>
+        <v>0.58064516129032262</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>215</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C207" s="19">
+        <v>221</v>
+      </c>
+      <c r="D207" s="19">
+        <v>209</v>
+      </c>
+      <c r="E207" s="19">
+        <v>348</v>
+      </c>
+      <c r="F207" s="19">
+        <v>82</v>
+      </c>
+      <c r="G207" s="19"/>
+      <c r="H207" s="15">
+        <f t="shared" si="6"/>
+        <v>430</v>
+      </c>
+      <c r="I207" s="16">
+        <f t="shared" si="7"/>
+        <v>0.80930232558139537</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>215</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C208" s="19">
+        <v>119</v>
+      </c>
+      <c r="D208" s="19">
+        <v>112</v>
+      </c>
+      <c r="E208" s="19">
+        <v>100</v>
+      </c>
+      <c r="F208" s="19">
+        <v>132</v>
+      </c>
+      <c r="G208" s="19"/>
+      <c r="H208" s="15">
+        <f t="shared" si="6"/>
+        <v>232</v>
+      </c>
+      <c r="I208" s="16">
+        <f t="shared" si="7"/>
+        <v>0.43103448275862066</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C209" s="19">
+        <v>108</v>
+      </c>
+      <c r="D209" s="19">
+        <v>103</v>
+      </c>
+      <c r="E209" s="19">
+        <v>76</v>
+      </c>
+      <c r="F209" s="19">
+        <v>134</v>
+      </c>
+      <c r="G209" s="19"/>
+      <c r="H209" s="15">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="I209" s="16">
+        <f t="shared" si="7"/>
+        <v>0.3619047619047619</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C210" s="19">
+        <v>93</v>
+      </c>
+      <c r="D210" s="19">
+        <v>93</v>
+      </c>
+      <c r="E210" s="19">
+        <v>149</v>
+      </c>
+      <c r="F210" s="19">
+        <v>36</v>
+      </c>
+      <c r="G210" s="19"/>
+      <c r="H210" s="15">
+        <f t="shared" si="6"/>
+        <v>185</v>
+      </c>
+      <c r="I210" s="16">
+        <f t="shared" si="7"/>
+        <v>0.80540540540540539</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C211" s="19">
+        <v>92</v>
+      </c>
+      <c r="D211" s="19">
+        <v>85</v>
+      </c>
+      <c r="E211" s="19">
+        <v>139</v>
+      </c>
+      <c r="F211" s="19">
+        <v>38</v>
+      </c>
+      <c r="G211" s="19"/>
+      <c r="H211" s="15">
+        <f t="shared" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="I211" s="16">
+        <f t="shared" si="7"/>
+        <v>0.78531073446327682</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C212" s="19">
+        <v>87</v>
+      </c>
+      <c r="D212" s="19">
+        <v>78</v>
+      </c>
+      <c r="E212" s="19">
+        <v>100</v>
+      </c>
+      <c r="F212" s="19">
+        <v>65</v>
+      </c>
+      <c r="G212" s="19"/>
+      <c r="H212" s="15">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
+      <c r="I212" s="16">
+        <f t="shared" si="7"/>
+        <v>0.60606060606060608</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C213" s="19">
+        <v>0</v>
+      </c>
+      <c r="D213" s="19">
+        <v>1</v>
+      </c>
+      <c r="E213" s="19">
+        <v>82</v>
+      </c>
+      <c r="F213" s="19">
+        <v>34</v>
+      </c>
+      <c r="G213" s="19"/>
+      <c r="H213" s="15">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+      <c r="I213" s="16">
+        <f t="shared" si="7"/>
+        <v>0.7068965517241379</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C214" s="19">
+        <v>0</v>
+      </c>
+      <c r="D214" s="19">
+        <v>1</v>
+      </c>
+      <c r="E214" s="19">
+        <v>54</v>
+      </c>
+      <c r="F214" s="19">
+        <v>44</v>
+      </c>
+      <c r="G214" s="19"/>
+      <c r="H214" s="15">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="I214" s="16">
+        <f t="shared" si="7"/>
+        <v>0.55102040816326525</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C215" s="19">
+        <v>0</v>
+      </c>
+      <c r="D215" s="19">
+        <v>1</v>
+      </c>
+      <c r="E215" s="19">
+        <v>52</v>
+      </c>
+      <c r="F215" s="19">
+        <v>30</v>
+      </c>
+      <c r="G215" s="19"/>
+      <c r="H215" s="15">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="I215" s="16">
+        <f t="shared" si="7"/>
+        <v>0.63414634146341464</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C216" s="19">
+        <v>0</v>
+      </c>
+      <c r="D216" s="19">
+        <v>1</v>
+      </c>
+      <c r="E216" s="19">
+        <v>34</v>
+      </c>
+      <c r="F216" s="19">
+        <v>40</v>
+      </c>
+      <c r="G216" s="19"/>
+      <c r="H216" s="15">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="I216" s="16">
+        <f t="shared" si="7"/>
+        <v>0.45945945945945948</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C217" s="19">
+        <v>0</v>
+      </c>
+      <c r="D217" s="19">
+        <v>1</v>
+      </c>
+      <c r="E217" s="19">
+        <v>32</v>
+      </c>
+      <c r="F217" s="19">
+        <v>34</v>
+      </c>
+      <c r="G217" s="19"/>
+      <c r="H217" s="15">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="I217" s="16">
+        <f t="shared" si="7"/>
+        <v>0.48484848484848486</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>215</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C218" s="19">
+        <v>0</v>
+      </c>
+      <c r="D218" s="19">
+        <v>1</v>
+      </c>
+      <c r="E218" s="19">
+        <v>18</v>
+      </c>
+      <c r="F218" s="19">
+        <v>45</v>
+      </c>
+      <c r="G218" s="19"/>
+      <c r="H218" s="15">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
+      <c r="I218" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>215</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C219" s="19">
+        <v>0</v>
+      </c>
+      <c r="D219" s="19">
+        <v>1</v>
+      </c>
+      <c r="E219" s="19">
+        <v>7</v>
+      </c>
+      <c r="F219" s="19">
+        <v>13</v>
+      </c>
+      <c r="G219" s="19"/>
+      <c r="H219" s="15">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="I219" s="16">
+        <f t="shared" si="7"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>215</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C220" s="19">
+        <v>0</v>
+      </c>
+      <c r="D220" s="19">
+        <v>1</v>
+      </c>
+      <c r="E220" s="19">
+        <v>5</v>
+      </c>
+      <c r="F220" s="19">
+        <v>14</v>
+      </c>
+      <c r="G220" s="19"/>
+      <c r="H220" s="15">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="I220" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>215</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C221" s="19">
+        <v>0</v>
+      </c>
+      <c r="D221" s="19">
+        <v>1</v>
+      </c>
+      <c r="E221" s="19">
+        <v>14</v>
+      </c>
+      <c r="F221" s="19">
+        <v>0</v>
+      </c>
+      <c r="G221" s="19"/>
+      <c r="H221" s="15">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="I221" s="16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>215</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C222" s="19">
+        <v>0</v>
+      </c>
+      <c r="D222" s="19">
+        <v>1</v>
+      </c>
+      <c r="E222" s="19">
+        <v>0</v>
+      </c>
+      <c r="F222" s="19">
+        <v>11</v>
+      </c>
+      <c r="G222" s="19"/>
+      <c r="H222" s="15">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="I222" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>215</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C223" s="19">
+        <v>0</v>
+      </c>
+      <c r="D223" s="19">
+        <v>1</v>
+      </c>
+      <c r="E223" s="19">
+        <v>6</v>
+      </c>
+      <c r="F223" s="19">
+        <v>5</v>
+      </c>
+      <c r="G223" s="19"/>
+      <c r="H223" s="15">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="I223" s="16">
+        <f t="shared" si="7"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>215</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C224" s="19">
+        <v>0</v>
+      </c>
+      <c r="D224" s="19">
+        <v>1</v>
+      </c>
+      <c r="E224" s="19">
+        <v>1</v>
+      </c>
+      <c r="F224" s="19">
+        <v>1</v>
+      </c>
+      <c r="G224" s="19"/>
+      <c r="H224" s="15">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I224" s="16">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>215</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C225" s="19">
+        <v>0</v>
+      </c>
+      <c r="D225" s="19">
+        <v>1</v>
+      </c>
+      <c r="E225" s="19">
+        <v>1</v>
+      </c>
+      <c r="F225" s="19">
+        <v>0</v>
+      </c>
+      <c r="G225" s="19"/>
+      <c r="H225" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I225" s="16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H226" s="8"/>
+      <c r="I226" s="9"/>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227" s="10"/>
+      <c r="H227" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I227" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>169</v>
+      </c>
+      <c r="H228" s="8"/>
+      <c r="I228" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H229" s="8"/>
+      <c r="I229" s="9"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H230" s="8"/>
+      <c r="I230" s="9"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>240</v>
+      </c>
+      <c r="E231">
+        <f>DCOUNTA(Poblacion,"País",A227:I228)</f>
+        <v>5</v>
+      </c>
+      <c r="H231" s="8"/>
+      <c r="I231" s="9"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>241</v>
+      </c>
+      <c r="E232" s="21">
+        <f>DAVERAGE(Poblacion,"Total país",A227:I228)</f>
+        <v>3380.2</v>
+      </c>
+      <c r="H232" s="8"/>
+      <c r="I232" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="span">
+          <x14:colorSeries theme="5"/>
+          <x14:colorNegative theme="6"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="5" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="5" tint="-0.249977111117893"/>
+          <x14:colorLast theme="5" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="5" tint="-0.249977111117893"/>
+          <x14:colorLow theme="5" tint="-0.249977111117893"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C3:F3</xm:f>
+              <xm:sqref>G3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C4:F4</xm:f>
+              <xm:sqref>G4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C5:F5</xm:f>
+              <xm:sqref>G5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C6:F6</xm:f>
+              <xm:sqref>G6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C7:F7</xm:f>
+              <xm:sqref>G7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C8:F8</xm:f>
+              <xm:sqref>G8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C9:F9</xm:f>
+              <xm:sqref>G9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C10:F10</xm:f>
+              <xm:sqref>G10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C11:F11</xm:f>
+              <xm:sqref>G11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C12:F12</xm:f>
+              <xm:sqref>G12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C13:F13</xm:f>
+              <xm:sqref>G13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C14:F14</xm:f>
+              <xm:sqref>G14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C15:F15</xm:f>
+              <xm:sqref>G15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C16:F16</xm:f>
+              <xm:sqref>G16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C17:F17</xm:f>
+              <xm:sqref>G17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C18:F18</xm:f>
+              <xm:sqref>G18</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C19:F19</xm:f>
+              <xm:sqref>G19</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C20:F20</xm:f>
+              <xm:sqref>G20</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C21:F21</xm:f>
+              <xm:sqref>G21</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C22:F22</xm:f>
+              <xm:sqref>G22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C23:F23</xm:f>
+              <xm:sqref>G23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C24:F24</xm:f>
+              <xm:sqref>G24</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C25:F25</xm:f>
+              <xm:sqref>G25</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C26:F26</xm:f>
+              <xm:sqref>G26</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C27:F27</xm:f>
+              <xm:sqref>G27</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C28:F28</xm:f>
+              <xm:sqref>G28</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C29:F29</xm:f>
+              <xm:sqref>G29</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C30:F30</xm:f>
+              <xm:sqref>G30</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C31:F31</xm:f>
+              <xm:sqref>G31</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C32:F32</xm:f>
+              <xm:sqref>G32</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C33:F33</xm:f>
+              <xm:sqref>G33</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C34:F34</xm:f>
+              <xm:sqref>G34</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C35:F35</xm:f>
+              <xm:sqref>G35</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C36:F36</xm:f>
+              <xm:sqref>G36</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C37:F37</xm:f>
+              <xm:sqref>G37</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C38:F38</xm:f>
+              <xm:sqref>G38</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C39:F39</xm:f>
+              <xm:sqref>G39</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C40:F40</xm:f>
+              <xm:sqref>G40</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C41:F41</xm:f>
+              <xm:sqref>G41</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C42:F42</xm:f>
+              <xm:sqref>G42</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C43:F43</xm:f>
+              <xm:sqref>G43</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C44:F44</xm:f>
+              <xm:sqref>G44</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C45:F45</xm:f>
+              <xm:sqref>G45</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C46:F46</xm:f>
+              <xm:sqref>G46</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C47:F47</xm:f>
+              <xm:sqref>G47</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C48:F48</xm:f>
+              <xm:sqref>G48</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C49:F49</xm:f>
+              <xm:sqref>G49</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C50:F50</xm:f>
+              <xm:sqref>G50</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C51:F51</xm:f>
+              <xm:sqref>G51</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C52:F52</xm:f>
+              <xm:sqref>G52</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C53:F53</xm:f>
+              <xm:sqref>G53</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C54:F54</xm:f>
+              <xm:sqref>G54</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C55:F55</xm:f>
+              <xm:sqref>G55</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C56:F56</xm:f>
+              <xm:sqref>G56</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C57:F57</xm:f>
+              <xm:sqref>G57</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C58:F58</xm:f>
+              <xm:sqref>G58</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C59:F59</xm:f>
+              <xm:sqref>G59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C60:F60</xm:f>
+              <xm:sqref>G60</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C61:F61</xm:f>
+              <xm:sqref>G61</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C62:F62</xm:f>
+              <xm:sqref>G62</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C63:F63</xm:f>
+              <xm:sqref>G63</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C64:F64</xm:f>
+              <xm:sqref>G64</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C65:F65</xm:f>
+              <xm:sqref>G65</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C66:F66</xm:f>
+              <xm:sqref>G66</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C67:F67</xm:f>
+              <xm:sqref>G67</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C68:F68</xm:f>
+              <xm:sqref>G68</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C69:F69</xm:f>
+              <xm:sqref>G69</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C70:F70</xm:f>
+              <xm:sqref>G70</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C71:F71</xm:f>
+              <xm:sqref>G71</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C72:F72</xm:f>
+              <xm:sqref>G72</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C73:F73</xm:f>
+              <xm:sqref>G73</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C74:F74</xm:f>
+              <xm:sqref>G74</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C75:F75</xm:f>
+              <xm:sqref>G75</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C76:F76</xm:f>
+              <xm:sqref>G76</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C77:F77</xm:f>
+              <xm:sqref>G77</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C78:F78</xm:f>
+              <xm:sqref>G78</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C79:F79</xm:f>
+              <xm:sqref>G79</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C80:F80</xm:f>
+              <xm:sqref>G80</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C81:F81</xm:f>
+              <xm:sqref>G81</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C82:F82</xm:f>
+              <xm:sqref>G82</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C83:F83</xm:f>
+              <xm:sqref>G83</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C84:F84</xm:f>
+              <xm:sqref>G84</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C85:F85</xm:f>
+              <xm:sqref>G85</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C86:F86</xm:f>
+              <xm:sqref>G86</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C87:F87</xm:f>
+              <xm:sqref>G87</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C88:F88</xm:f>
+              <xm:sqref>G88</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C89:F89</xm:f>
+              <xm:sqref>G89</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C90:F90</xm:f>
+              <xm:sqref>G90</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C91:F91</xm:f>
+              <xm:sqref>G91</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C92:F92</xm:f>
+              <xm:sqref>G92</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C93:F93</xm:f>
+              <xm:sqref>G93</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C94:F94</xm:f>
+              <xm:sqref>G94</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C95:F95</xm:f>
+              <xm:sqref>G95</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C96:F96</xm:f>
+              <xm:sqref>G96</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C97:F97</xm:f>
+              <xm:sqref>G97</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C98:F98</xm:f>
+              <xm:sqref>G98</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C99:F99</xm:f>
+              <xm:sqref>G99</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C100:F100</xm:f>
+              <xm:sqref>G100</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C101:F101</xm:f>
+              <xm:sqref>G101</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C102:F102</xm:f>
+              <xm:sqref>G102</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C103:F103</xm:f>
+              <xm:sqref>G103</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C104:F104</xm:f>
+              <xm:sqref>G104</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C105:F105</xm:f>
+              <xm:sqref>G105</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C106:F106</xm:f>
+              <xm:sqref>G106</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C107:F107</xm:f>
+              <xm:sqref>G107</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C108:F108</xm:f>
+              <xm:sqref>G108</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C109:F109</xm:f>
+              <xm:sqref>G109</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C110:F110</xm:f>
+              <xm:sqref>G110</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C111:F111</xm:f>
+              <xm:sqref>G111</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C112:F112</xm:f>
+              <xm:sqref>G112</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C113:F113</xm:f>
+              <xm:sqref>G113</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C114:F114</xm:f>
+              <xm:sqref>G114</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C115:F115</xm:f>
+              <xm:sqref>G115</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C116:F116</xm:f>
+              <xm:sqref>G116</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C117:F117</xm:f>
+              <xm:sqref>G117</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C118:F118</xm:f>
+              <xm:sqref>G118</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C119:F119</xm:f>
+              <xm:sqref>G119</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C120:F120</xm:f>
+              <xm:sqref>G120</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C121:F121</xm:f>
+              <xm:sqref>G121</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C122:F122</xm:f>
+              <xm:sqref>G122</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C123:F123</xm:f>
+              <xm:sqref>G123</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C124:F124</xm:f>
+              <xm:sqref>G124</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C125:F125</xm:f>
+              <xm:sqref>G125</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C126:F126</xm:f>
+              <xm:sqref>G126</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C127:F127</xm:f>
+              <xm:sqref>G127</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C128:F128</xm:f>
+              <xm:sqref>G128</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C129:F129</xm:f>
+              <xm:sqref>G129</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C130:F130</xm:f>
+              <xm:sqref>G130</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C131:F131</xm:f>
+              <xm:sqref>G131</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C132:F132</xm:f>
+              <xm:sqref>G132</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C133:F133</xm:f>
+              <xm:sqref>G133</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C134:F134</xm:f>
+              <xm:sqref>G134</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C135:F135</xm:f>
+              <xm:sqref>G135</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C136:F136</xm:f>
+              <xm:sqref>G136</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C137:F137</xm:f>
+              <xm:sqref>G137</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C138:F138</xm:f>
+              <xm:sqref>G138</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C139:F139</xm:f>
+              <xm:sqref>G139</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C140:F140</xm:f>
+              <xm:sqref>G140</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C141:F141</xm:f>
+              <xm:sqref>G141</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C142:F142</xm:f>
+              <xm:sqref>G142</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C143:F143</xm:f>
+              <xm:sqref>G143</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C144:F144</xm:f>
+              <xm:sqref>G144</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C145:F145</xm:f>
+              <xm:sqref>G145</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C146:F146</xm:f>
+              <xm:sqref>G146</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C147:F147</xm:f>
+              <xm:sqref>G147</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C148:F148</xm:f>
+              <xm:sqref>G148</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C149:F149</xm:f>
+              <xm:sqref>G149</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C150:F150</xm:f>
+              <xm:sqref>G150</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C151:F151</xm:f>
+              <xm:sqref>G151</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C152:F152</xm:f>
+              <xm:sqref>G152</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C153:F153</xm:f>
+              <xm:sqref>G153</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C154:F154</xm:f>
+              <xm:sqref>G154</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C155:F155</xm:f>
+              <xm:sqref>G155</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C156:F156</xm:f>
+              <xm:sqref>G156</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C157:F157</xm:f>
+              <xm:sqref>G157</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C158:F158</xm:f>
+              <xm:sqref>G158</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C159:F159</xm:f>
+              <xm:sqref>G159</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C160:F160</xm:f>
+              <xm:sqref>G160</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C161:F161</xm:f>
+              <xm:sqref>G161</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C162:F162</xm:f>
+              <xm:sqref>G162</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C163:F163</xm:f>
+              <xm:sqref>G163</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C164:F164</xm:f>
+              <xm:sqref>G164</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C165:F165</xm:f>
+              <xm:sqref>G165</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C166:F166</xm:f>
+              <xm:sqref>G166</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C167:F167</xm:f>
+              <xm:sqref>G167</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C168:F168</xm:f>
+              <xm:sqref>G168</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C169:F169</xm:f>
+              <xm:sqref>G169</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C170:F170</xm:f>
+              <xm:sqref>G170</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C171:F171</xm:f>
+              <xm:sqref>G171</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C172:F172</xm:f>
+              <xm:sqref>G172</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C173:F173</xm:f>
+              <xm:sqref>G173</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C174:F174</xm:f>
+              <xm:sqref>G174</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C175:F175</xm:f>
+              <xm:sqref>G175</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C176:F176</xm:f>
+              <xm:sqref>G176</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C177:F177</xm:f>
+              <xm:sqref>G177</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C178:F178</xm:f>
+              <xm:sqref>G178</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C179:F179</xm:f>
+              <xm:sqref>G179</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C180:F180</xm:f>
+              <xm:sqref>G180</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C181:F181</xm:f>
+              <xm:sqref>G181</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C182:F182</xm:f>
+              <xm:sqref>G182</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C183:F183</xm:f>
+              <xm:sqref>G183</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C184:F184</xm:f>
+              <xm:sqref>G184</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C185:F185</xm:f>
+              <xm:sqref>G185</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C186:F186</xm:f>
+              <xm:sqref>G186</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C187:F187</xm:f>
+              <xm:sqref>G187</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C188:F188</xm:f>
+              <xm:sqref>G188</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C189:F189</xm:f>
+              <xm:sqref>G189</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C190:F190</xm:f>
+              <xm:sqref>G190</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C191:F191</xm:f>
+              <xm:sqref>G191</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C192:F192</xm:f>
+              <xm:sqref>G192</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C193:F193</xm:f>
+              <xm:sqref>G193</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C194:F194</xm:f>
+              <xm:sqref>G194</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C195:F195</xm:f>
+              <xm:sqref>G195</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C196:F196</xm:f>
+              <xm:sqref>G196</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C197:F197</xm:f>
+              <xm:sqref>G197</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C198:F198</xm:f>
+              <xm:sqref>G198</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C199:F199</xm:f>
+              <xm:sqref>G199</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C200:F200</xm:f>
+              <xm:sqref>G200</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C201:F201</xm:f>
+              <xm:sqref>G201</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C202:F202</xm:f>
+              <xm:sqref>G202</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C203:F203</xm:f>
+              <xm:sqref>G203</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C204:F204</xm:f>
+              <xm:sqref>G204</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C205:F205</xm:f>
+              <xm:sqref>G205</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C206:F206</xm:f>
+              <xm:sqref>G206</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C207:F207</xm:f>
+              <xm:sqref>G207</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C208:F208</xm:f>
+              <xm:sqref>G208</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C209:F209</xm:f>
+              <xm:sqref>G209</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C210:F210</xm:f>
+              <xm:sqref>G210</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C211:F211</xm:f>
+              <xm:sqref>G211</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C212:F212</xm:f>
+              <xm:sqref>G212</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C213:F213</xm:f>
+              <xm:sqref>G213</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C214:F214</xm:f>
+              <xm:sqref>G214</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C215:F215</xm:f>
+              <xm:sqref>G215</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C216:F216</xm:f>
+              <xm:sqref>G216</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C217:F217</xm:f>
+              <xm:sqref>G217</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C218:F218</xm:f>
+              <xm:sqref>G218</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C219:F219</xm:f>
+              <xm:sqref>G219</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C220:F220</xm:f>
+              <xm:sqref>G220</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C221:F221</xm:f>
+              <xm:sqref>G221</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C222:F222</xm:f>
+              <xm:sqref>G222</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C223:F223</xm:f>
+              <xm:sqref>G223</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C224:F224</xm:f>
+              <xm:sqref>G224</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C225:F225</xm:f>
+              <xm:sqref>G225</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/07/GraficosI.xlsx
+++ b/07/GraficosI.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Minigráficos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Poblacion">Minigráficos!$A$2:$I$225</definedName>
+    <definedName name="Poblacion">Minigráficos!$A$2:$I$226</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2444,16 +2444,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2517,7 +2521,7 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="15">
-        <f t="shared" ref="H3:H66" si="0">E3+F3</f>
+        <f t="shared" ref="H3:H67" si="0">E3+F3</f>
         <v>108945</v>
       </c>
       <c r="I3" s="16">
@@ -2550,7 +2554,7 @@
         <v>67227</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" ref="I4:I67" si="1">+E4/(E4+F4)</f>
+        <f t="shared" ref="I4:I68" si="1">+E4/(E4+F4)</f>
         <v>0.54321924226873131</v>
       </c>
     </row>
@@ -4120,62 +4124,43 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="14">
-        <v>136128</v>
-      </c>
-      <c r="D59" s="14">
-        <v>140091</v>
-      </c>
-      <c r="E59" s="14">
-        <v>63543</v>
-      </c>
-      <c r="F59" s="14">
-        <v>212675</v>
-      </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="15">
-        <f t="shared" si="0"/>
-        <v>276218</v>
-      </c>
-      <c r="I59" s="16">
-        <f t="shared" si="1"/>
-        <v>0.23004655742927688</v>
-      </c>
+    <row r="59" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="13"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="14">
-        <v>82997</v>
+        <v>136128</v>
       </c>
       <c r="D60" s="14">
-        <v>84991</v>
+        <v>140091</v>
       </c>
       <c r="E60" s="14">
-        <v>32439</v>
+        <v>63543</v>
       </c>
       <c r="F60" s="14">
-        <v>135549</v>
+        <v>212675</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="15">
         <f t="shared" si="0"/>
-        <v>167988</v>
+        <v>276218</v>
       </c>
       <c r="I60" s="16">
         <f t="shared" si="1"/>
-        <v>0.19310307879134223</v>
+        <v>0.23004655742927688</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4183,28 +4168,28 @@
         <v>68</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="14">
-        <v>48198</v>
+        <v>82997</v>
       </c>
       <c r="D61" s="14">
-        <v>49168</v>
+        <v>84991</v>
       </c>
       <c r="E61" s="14">
-        <v>25126</v>
+        <v>32439</v>
       </c>
       <c r="F61" s="14">
-        <v>72239</v>
+        <v>135549</v>
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="15">
         <f t="shared" si="0"/>
-        <v>97365</v>
+        <v>167988</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="1"/>
-        <v>0.25805987777948958</v>
+        <v>0.19310307879134223</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4212,28 +4197,28 @@
         <v>68</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" s="14">
-        <v>20538</v>
+        <v>48198</v>
       </c>
       <c r="D62" s="14">
-        <v>21026</v>
+        <v>49168</v>
       </c>
       <c r="E62" s="14">
-        <v>10612</v>
+        <v>25126</v>
       </c>
       <c r="F62" s="14">
-        <v>30952</v>
+        <v>72239</v>
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="15">
         <f t="shared" si="0"/>
-        <v>41564</v>
+        <v>97365</v>
       </c>
       <c r="I62" s="16">
         <f t="shared" si="1"/>
-        <v>0.25531710133769608</v>
+        <v>0.25805987777948958</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4241,28 +4226,28 @@
         <v>68</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="14">
-        <v>17940</v>
+        <v>20538</v>
       </c>
       <c r="D63" s="14">
-        <v>18637</v>
+        <v>21026</v>
       </c>
       <c r="E63" s="14">
-        <v>3988</v>
+        <v>10612</v>
       </c>
       <c r="F63" s="14">
-        <v>32589</v>
+        <v>30952</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="15">
         <f t="shared" si="0"/>
-        <v>36577</v>
+        <v>41564</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="1"/>
-        <v>0.1090302649205785</v>
+        <v>0.25531710133769608</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4270,28 +4255,28 @@
         <v>68</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" s="14">
-        <v>15274</v>
+        <v>17940</v>
       </c>
       <c r="D64" s="14">
-        <v>15583</v>
+        <v>18637</v>
       </c>
       <c r="E64" s="14">
-        <v>7099</v>
+        <v>3988</v>
       </c>
       <c r="F64" s="14">
-        <v>23758</v>
+        <v>32589</v>
       </c>
       <c r="G64" s="14"/>
       <c r="H64" s="15">
         <f t="shared" si="0"/>
-        <v>30857</v>
+        <v>36577</v>
       </c>
       <c r="I64" s="16">
         <f t="shared" si="1"/>
-        <v>0.23006125028356614</v>
+        <v>0.1090302649205785</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4299,28 +4284,28 @@
         <v>68</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="14">
-        <v>12514</v>
+        <v>15274</v>
       </c>
       <c r="D65" s="14">
-        <v>12716</v>
+        <v>15583</v>
       </c>
       <c r="E65" s="14">
-        <v>6967</v>
+        <v>7099</v>
       </c>
       <c r="F65" s="14">
-        <v>18262</v>
+        <v>23758</v>
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="15">
         <f t="shared" si="0"/>
-        <v>25229</v>
+        <v>30857</v>
       </c>
       <c r="I65" s="16">
         <f t="shared" si="1"/>
-        <v>0.2761504617701851</v>
+        <v>0.23006125028356614</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4328,28 +4313,28 @@
         <v>68</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="14">
-        <v>11930</v>
+        <v>12514</v>
       </c>
       <c r="D66" s="14">
-        <v>11776</v>
+        <v>12716</v>
       </c>
       <c r="E66" s="14">
-        <v>3071</v>
+        <v>6967</v>
       </c>
       <c r="F66" s="14">
-        <v>20636</v>
+        <v>18262</v>
       </c>
       <c r="G66" s="14"/>
       <c r="H66" s="15">
         <f t="shared" si="0"/>
-        <v>23707</v>
+        <v>25229</v>
       </c>
       <c r="I66" s="16">
         <f t="shared" si="1"/>
-        <v>0.12953979837178892</v>
+        <v>0.2761504617701851</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4357,28 +4342,28 @@
         <v>68</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="14">
-        <v>7435</v>
+        <v>11930</v>
       </c>
       <c r="D67" s="14">
-        <v>7584</v>
+        <v>11776</v>
       </c>
       <c r="E67" s="14">
-        <v>2334</v>
+        <v>3071</v>
       </c>
       <c r="F67" s="14">
-        <v>12684</v>
+        <v>20636</v>
       </c>
       <c r="G67" s="14"/>
       <c r="H67" s="15">
-        <f t="shared" ref="H67:H130" si="2">E67+F67</f>
-        <v>15018</v>
+        <f t="shared" si="0"/>
+        <v>23707</v>
       </c>
       <c r="I67" s="16">
         <f t="shared" si="1"/>
-        <v>0.15541350379544547</v>
+        <v>0.12953979837178892</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4386,28 +4371,28 @@
         <v>68</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="14">
-        <v>6233</v>
+        <v>7435</v>
       </c>
       <c r="D68" s="14">
-        <v>6178</v>
+        <v>7584</v>
       </c>
       <c r="E68" s="14">
-        <v>4754</v>
+        <v>2334</v>
       </c>
       <c r="F68" s="14">
-        <v>7656</v>
+        <v>12684</v>
       </c>
       <c r="G68" s="14"/>
       <c r="H68" s="15">
-        <f t="shared" si="2"/>
-        <v>12410</v>
+        <f t="shared" ref="H68:H131" si="2">E68+F68</f>
+        <v>15018</v>
       </c>
       <c r="I68" s="16">
-        <f t="shared" ref="I68:I131" si="3">+E68/(E68+F68)</f>
-        <v>0.38307816277195811</v>
+        <f t="shared" si="1"/>
+        <v>0.15541350379544547</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,28 +4400,28 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="14">
-        <v>5593</v>
+        <v>6233</v>
       </c>
       <c r="D69" s="14">
-        <v>5567</v>
+        <v>6178</v>
       </c>
       <c r="E69" s="14">
-        <v>2512</v>
+        <v>4754</v>
       </c>
       <c r="F69" s="14">
-        <v>8648</v>
+        <v>7656</v>
       </c>
       <c r="G69" s="14"/>
       <c r="H69" s="15">
         <f t="shared" si="2"/>
-        <v>11160</v>
+        <v>12410</v>
       </c>
       <c r="I69" s="16">
-        <f t="shared" si="3"/>
-        <v>0.22508960573476702</v>
+        <f t="shared" ref="I69:I132" si="3">+E69/(E69+F69)</f>
+        <v>0.38307816277195811</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4444,28 +4429,28 @@
         <v>68</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="14">
         <v>5593</v>
       </c>
       <c r="D70" s="14">
-        <v>5497</v>
+        <v>5567</v>
       </c>
       <c r="E70" s="14">
-        <v>6648</v>
+        <v>2512</v>
       </c>
       <c r="F70" s="14">
-        <v>4442</v>
+        <v>8648</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="15">
         <f t="shared" si="2"/>
-        <v>11090</v>
+        <v>11160</v>
       </c>
       <c r="I70" s="16">
         <f t="shared" si="3"/>
-        <v>0.59945897204688914</v>
+        <v>0.22508960573476702</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4473,28 +4458,28 @@
         <v>68</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="14">
-        <v>4253</v>
+        <v>5593</v>
       </c>
       <c r="D71" s="14">
-        <v>4112</v>
+        <v>5497</v>
       </c>
       <c r="E71" s="14">
-        <v>2968</v>
+        <v>6648</v>
       </c>
       <c r="F71" s="14">
-        <v>5396</v>
+        <v>4442</v>
       </c>
       <c r="G71" s="14"/>
       <c r="H71" s="15">
         <f t="shared" si="2"/>
-        <v>8364</v>
+        <v>11090</v>
       </c>
       <c r="I71" s="16">
         <f t="shared" si="3"/>
-        <v>0.35485413677666189</v>
+        <v>0.59945897204688914</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4502,28 +4487,28 @@
         <v>68</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="14">
-        <v>4049</v>
+        <v>4253</v>
       </c>
       <c r="D72" s="14">
-        <v>4093</v>
+        <v>4112</v>
       </c>
       <c r="E72" s="14">
-        <v>2935</v>
+        <v>2968</v>
       </c>
       <c r="F72" s="14">
-        <v>5207</v>
+        <v>5396</v>
       </c>
       <c r="G72" s="14"/>
       <c r="H72" s="15">
         <f t="shared" si="2"/>
-        <v>8142</v>
+        <v>8364</v>
       </c>
       <c r="I72" s="16">
         <f t="shared" si="3"/>
-        <v>0.36047654139032181</v>
+        <v>0.35485413677666189</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4531,28 +4516,28 @@
         <v>68</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="14">
-        <v>3973</v>
+        <v>4049</v>
       </c>
       <c r="D73" s="14">
-        <v>4114</v>
+        <v>4093</v>
       </c>
       <c r="E73" s="14">
-        <v>5318</v>
+        <v>2935</v>
       </c>
       <c r="F73" s="14">
-        <v>2769</v>
+        <v>5207</v>
       </c>
       <c r="G73" s="14"/>
       <c r="H73" s="15">
         <f t="shared" si="2"/>
-        <v>8087</v>
+        <v>8142</v>
       </c>
       <c r="I73" s="16">
         <f t="shared" si="3"/>
-        <v>0.65759861506120931</v>
+        <v>0.36047654139032181</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4560,28 +4545,28 @@
         <v>68</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="14">
-        <v>3183</v>
+        <v>3973</v>
       </c>
       <c r="D74" s="14">
-        <v>3132</v>
+        <v>4114</v>
       </c>
       <c r="E74" s="14">
-        <v>3394</v>
+        <v>5318</v>
       </c>
       <c r="F74" s="14">
-        <v>2922</v>
+        <v>2769</v>
       </c>
       <c r="G74" s="14"/>
       <c r="H74" s="15">
         <f t="shared" si="2"/>
-        <v>6316</v>
+        <v>8087</v>
       </c>
       <c r="I74" s="16">
         <f t="shared" si="3"/>
-        <v>0.5373654211526282</v>
+        <v>0.65759861506120931</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4589,28 +4574,28 @@
         <v>68</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="14">
-        <v>3019</v>
+        <v>3183</v>
       </c>
       <c r="D75" s="14">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="E75" s="14">
-        <v>3304</v>
+        <v>3394</v>
       </c>
       <c r="F75" s="14">
-        <v>2850</v>
+        <v>2922</v>
       </c>
       <c r="G75" s="14"/>
       <c r="H75" s="15">
         <f t="shared" si="2"/>
-        <v>6154</v>
+        <v>6316</v>
       </c>
       <c r="I75" s="16">
         <f t="shared" si="3"/>
-        <v>0.53688657783555416</v>
+        <v>0.5373654211526282</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4618,28 +4603,28 @@
         <v>68</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="14">
-        <v>2702</v>
+        <v>3019</v>
       </c>
       <c r="D76" s="14">
-        <v>2657</v>
+        <v>3135</v>
       </c>
       <c r="E76" s="14">
-        <v>2398</v>
+        <v>3304</v>
       </c>
       <c r="F76" s="14">
-        <v>2961</v>
+        <v>2850</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="15">
         <f t="shared" si="2"/>
-        <v>5359</v>
+        <v>6154</v>
       </c>
       <c r="I76" s="16">
         <f t="shared" si="3"/>
-        <v>0.44747154319835791</v>
+        <v>0.53688657783555416</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4647,28 +4632,28 @@
         <v>68</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="14">
-        <v>2455</v>
+        <v>2702</v>
       </c>
       <c r="D77" s="14">
-        <v>2483</v>
+        <v>2657</v>
       </c>
       <c r="E77" s="14">
-        <v>1768</v>
+        <v>2398</v>
       </c>
       <c r="F77" s="14">
-        <v>3170</v>
+        <v>2961</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="15">
         <f t="shared" si="2"/>
-        <v>4938</v>
+        <v>5359</v>
       </c>
       <c r="I77" s="16">
         <f t="shared" si="3"/>
-        <v>0.35803969218307008</v>
+        <v>0.44747154319835791</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4676,28 +4661,28 @@
         <v>68</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="14">
-        <v>1994</v>
+        <v>2455</v>
       </c>
       <c r="D78" s="14">
-        <v>1939</v>
+        <v>2483</v>
       </c>
       <c r="E78" s="14">
-        <v>1914</v>
+        <v>1768</v>
       </c>
       <c r="F78" s="14">
-        <v>2019</v>
+        <v>3170</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="15">
         <f t="shared" si="2"/>
-        <v>3933</v>
+        <v>4938</v>
       </c>
       <c r="I78" s="16">
         <f t="shared" si="3"/>
-        <v>0.48665141113653698</v>
+        <v>0.35803969218307008</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4705,28 +4690,28 @@
         <v>68</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="14">
-        <v>1851</v>
+        <v>1994</v>
       </c>
       <c r="D79" s="14">
-        <v>1988</v>
-      </c>
-      <c r="E79" s="17">
-        <v>965</v>
+        <v>1939</v>
+      </c>
+      <c r="E79" s="14">
+        <v>1914</v>
       </c>
       <c r="F79" s="14">
-        <v>2874</v>
+        <v>2019</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="15">
         <f t="shared" si="2"/>
-        <v>3839</v>
+        <v>3933</v>
       </c>
       <c r="I79" s="16">
         <f t="shared" si="3"/>
-        <v>0.25136754363115393</v>
+        <v>0.48665141113653698</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4734,28 +4719,28 @@
         <v>68</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="14">
-        <v>1607</v>
+        <v>1851</v>
       </c>
       <c r="D80" s="14">
-        <v>1706</v>
+        <v>1988</v>
       </c>
       <c r="E80" s="17">
-        <v>294</v>
+        <v>965</v>
       </c>
       <c r="F80" s="14">
-        <v>3019</v>
+        <v>2874</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="15">
         <f t="shared" si="2"/>
-        <v>3313</v>
+        <v>3839</v>
       </c>
       <c r="I80" s="16">
         <f t="shared" si="3"/>
-        <v>8.8741322064594022E-2</v>
+        <v>0.25136754363115393</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4763,28 +4748,28 @@
         <v>68</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" s="14">
-        <v>1419</v>
+        <v>1607</v>
       </c>
       <c r="D81" s="14">
-        <v>1393</v>
-      </c>
-      <c r="E81" s="14">
-        <v>1200</v>
+        <v>1706</v>
+      </c>
+      <c r="E81" s="17">
+        <v>294</v>
       </c>
       <c r="F81" s="14">
-        <v>1611</v>
+        <v>3019</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="15">
         <f t="shared" si="2"/>
-        <v>2811</v>
+        <v>3313</v>
       </c>
       <c r="I81" s="16">
         <f t="shared" si="3"/>
-        <v>0.42689434364994666</v>
+        <v>8.8741322064594022E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4792,28 +4777,28 @@
         <v>68</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="14">
-        <v>1270</v>
+        <v>1419</v>
       </c>
       <c r="D82" s="14">
-        <v>1291</v>
+        <v>1393</v>
       </c>
       <c r="E82" s="14">
-        <v>1137</v>
+        <v>1200</v>
       </c>
       <c r="F82" s="14">
-        <v>1424</v>
+        <v>1611</v>
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="15">
         <f t="shared" si="2"/>
-        <v>2561</v>
+        <v>2811</v>
       </c>
       <c r="I82" s="16">
         <f t="shared" si="3"/>
-        <v>0.44396720031237796</v>
+        <v>0.42689434364994666</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4821,28 +4806,28 @@
         <v>68</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C83" s="17">
-        <v>641</v>
-      </c>
-      <c r="D83" s="17">
-        <v>647</v>
-      </c>
-      <c r="E83" s="17">
-        <v>341</v>
-      </c>
-      <c r="F83" s="17">
-        <v>948</v>
-      </c>
-      <c r="G83" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="C83" s="14">
+        <v>1270</v>
+      </c>
+      <c r="D83" s="14">
+        <v>1291</v>
+      </c>
+      <c r="E83" s="14">
+        <v>1137</v>
+      </c>
+      <c r="F83" s="14">
+        <v>1424</v>
+      </c>
+      <c r="G83" s="14"/>
       <c r="H83" s="15">
         <f t="shared" si="2"/>
-        <v>1289</v>
+        <v>2561</v>
       </c>
       <c r="I83" s="16">
         <f t="shared" si="3"/>
-        <v>0.26454615981380913</v>
+        <v>0.44396720031237796</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4850,28 +4835,28 @@
         <v>68</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" s="17">
-        <v>422</v>
+        <v>641</v>
       </c>
       <c r="D84" s="17">
-        <v>433</v>
+        <v>647</v>
       </c>
       <c r="E84" s="17">
-        <v>533</v>
+        <v>341</v>
       </c>
       <c r="F84" s="17">
-        <v>322</v>
+        <v>948</v>
       </c>
       <c r="G84" s="17"/>
       <c r="H84" s="15">
         <f t="shared" si="2"/>
-        <v>855</v>
+        <v>1289</v>
       </c>
       <c r="I84" s="16">
         <f t="shared" si="3"/>
-        <v>0.62339181286549705</v>
+        <v>0.26454615981380913</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4879,28 +4864,28 @@
         <v>68</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="17">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="D85" s="17">
-        <v>230</v>
+        <v>433</v>
       </c>
       <c r="E85" s="17">
-        <v>1</v>
+        <v>533</v>
       </c>
       <c r="F85" s="17">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="G85" s="17"/>
       <c r="H85" s="15">
         <f t="shared" si="2"/>
-        <v>449</v>
+        <v>855</v>
       </c>
       <c r="I85" s="16">
         <f t="shared" si="3"/>
-        <v>2.2271714922048997E-3</v>
+        <v>0.62339181286549705</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4908,28 +4893,28 @@
         <v>68</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" s="17">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D86" s="17">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E86" s="17">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="F86" s="17">
-        <v>214</v>
+        <v>448</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="15">
         <f t="shared" si="2"/>
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="I86" s="16">
         <f t="shared" si="3"/>
-        <v>0.48433734939759038</v>
+        <v>2.2271714922048997E-3</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4937,28 +4922,28 @@
         <v>68</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="17">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D87" s="17">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E87" s="17">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="F87" s="17">
-        <v>371</v>
+        <v>214</v>
       </c>
       <c r="G87" s="17"/>
       <c r="H87" s="15">
         <f t="shared" si="2"/>
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="I87" s="16">
         <f t="shared" si="3"/>
-        <v>5.3571428571428568E-2</v>
+        <v>0.48433734939759038</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4966,28 +4951,28 @@
         <v>68</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" s="17">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="D88" s="17">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="E88" s="17">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F88" s="17">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="G88" s="17"/>
       <c r="H88" s="15">
         <f t="shared" si="2"/>
-        <v>301</v>
+        <v>392</v>
       </c>
       <c r="I88" s="16">
         <f t="shared" si="3"/>
-        <v>0.11960132890365449</v>
+        <v>5.3571428571428568E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4995,28 +4980,28 @@
         <v>68</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" s="17">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D89" s="17">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E89" s="17">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F89" s="17">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="G89" s="17"/>
       <c r="H89" s="15">
         <f t="shared" si="2"/>
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="I89" s="16">
         <f t="shared" si="3"/>
-        <v>0.50557620817843862</v>
+        <v>0.11960132890365449</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5024,28 +5009,28 @@
         <v>68</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" s="17">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D90" s="17">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="E90" s="17">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F90" s="17">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="G90" s="17"/>
       <c r="H90" s="15">
         <f t="shared" si="2"/>
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I90" s="16">
         <f t="shared" si="3"/>
-        <v>0.53617021276595744</v>
+        <v>0.50557620817843862</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5053,28 +5038,28 @@
         <v>68</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" s="17">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D91" s="17">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E91" s="17">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="F91" s="17">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="G91" s="17"/>
       <c r="H91" s="15">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="I91" s="16">
         <f t="shared" si="3"/>
-        <v>0.30232558139534882</v>
+        <v>0.53617021276595744</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5082,28 +5067,28 @@
         <v>68</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" s="17">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D92" s="17">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="E92" s="17">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F92" s="17">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G92" s="17"/>
       <c r="H92" s="15">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="I92" s="16">
         <f t="shared" si="3"/>
-        <v>0.22413793103448276</v>
+        <v>0.30232558139534882</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5111,7 +5096,7 @@
         <v>68</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" s="17">
         <v>0</v>
@@ -5120,19 +5105,19 @@
         <v>1</v>
       </c>
       <c r="E93" s="17">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="F93" s="17">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="G93" s="17"/>
       <c r="H93" s="15">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="I93" s="16">
         <f t="shared" si="3"/>
-        <v>0.625</v>
+        <v>0.22413793103448276</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5140,7 +5125,7 @@
         <v>68</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94" s="17">
         <v>0</v>
@@ -5149,19 +5134,19 @@
         <v>1</v>
       </c>
       <c r="E94" s="17">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F94" s="17">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G94" s="17"/>
       <c r="H94" s="15">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="I94" s="16">
         <f t="shared" si="3"/>
-        <v>0.46902654867256638</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5169,7 +5154,7 @@
         <v>68</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95" s="17">
         <v>0</v>
@@ -5178,19 +5163,19 @@
         <v>1</v>
       </c>
       <c r="E95" s="17">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F95" s="17">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G95" s="17"/>
       <c r="H95" s="15">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="I95" s="16">
         <f t="shared" si="3"/>
-        <v>0.54255319148936165</v>
+        <v>0.46902654867256638</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5198,7 +5183,7 @@
         <v>68</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="17">
         <v>0</v>
@@ -5207,19 +5192,19 @@
         <v>1</v>
       </c>
       <c r="E96" s="17">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F96" s="17">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G96" s="17"/>
       <c r="H96" s="15">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I96" s="16">
         <f t="shared" si="3"/>
-        <v>0.62365591397849462</v>
+        <v>0.54255319148936165</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5227,7 +5212,7 @@
         <v>68</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C97" s="17">
         <v>0</v>
@@ -5236,19 +5221,19 @@
         <v>1</v>
       </c>
       <c r="E97" s="17">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F97" s="17">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G97" s="17"/>
       <c r="H97" s="15">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="I97" s="16">
         <f t="shared" si="3"/>
-        <v>0.29577464788732394</v>
+        <v>0.62365591397849462</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5256,7 +5241,7 @@
         <v>68</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C98" s="17">
         <v>0</v>
@@ -5265,19 +5250,19 @@
         <v>1</v>
       </c>
       <c r="E98" s="17">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F98" s="17">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G98" s="17"/>
       <c r="H98" s="15">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I98" s="16">
         <f t="shared" si="3"/>
-        <v>0.63235294117647056</v>
+        <v>0.29577464788732394</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5285,7 +5270,7 @@
         <v>68</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C99" s="17">
         <v>0</v>
@@ -5294,19 +5279,19 @@
         <v>1</v>
       </c>
       <c r="E99" s="17">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F99" s="17">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="G99" s="17"/>
       <c r="H99" s="15">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I99" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.63235294117647056</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5314,7 +5299,7 @@
         <v>68</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="17">
         <v>0</v>
@@ -5323,19 +5308,19 @@
         <v>1</v>
       </c>
       <c r="E100" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F100" s="17">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G100" s="17"/>
       <c r="H100" s="15">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I100" s="16">
         <f t="shared" si="3"/>
-        <v>0.17857142857142858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5343,7 +5328,7 @@
         <v>68</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C101" s="17">
         <v>0</v>
@@ -5352,19 +5337,19 @@
         <v>1</v>
       </c>
       <c r="E101" s="17">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F101" s="17">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G101" s="17"/>
       <c r="H101" s="15">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I101" s="16">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.17857142857142858</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5372,7 +5357,7 @@
         <v>68</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C102" s="17">
         <v>0</v>
@@ -5381,19 +5366,19 @@
         <v>1</v>
       </c>
       <c r="E102" s="17">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F102" s="17">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G102" s="17"/>
       <c r="H102" s="15">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I102" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5401,7 +5386,7 @@
         <v>68</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" s="17">
         <v>0</v>
@@ -5410,19 +5395,19 @@
         <v>1</v>
       </c>
       <c r="E103" s="17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F103" s="17">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G103" s="17"/>
       <c r="H103" s="15">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I103" s="16">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5430,7 +5415,7 @@
         <v>68</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C104" s="17">
         <v>0</v>
@@ -5439,19 +5424,19 @@
         <v>1</v>
       </c>
       <c r="E104" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F104" s="17">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G104" s="17"/>
       <c r="H104" s="15">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I104" s="16">
         <f t="shared" si="3"/>
-        <v>0.5625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5459,7 +5444,7 @@
         <v>68</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C105" s="17">
         <v>0</v>
@@ -5471,16 +5456,16 @@
         <v>9</v>
       </c>
       <c r="F105" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G105" s="17"/>
       <c r="H105" s="15">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I105" s="16">
         <f t="shared" si="3"/>
-        <v>0.81818181818181823</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5488,7 +5473,7 @@
         <v>68</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C106" s="17">
         <v>0</v>
@@ -5497,19 +5482,19 @@
         <v>1</v>
       </c>
       <c r="E106" s="17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F106" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106" s="17"/>
       <c r="H106" s="15">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I106" s="16">
         <f t="shared" si="3"/>
-        <v>0.875</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5517,7 +5502,7 @@
         <v>68</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C107" s="17">
         <v>0</v>
@@ -5526,19 +5511,19 @@
         <v>1</v>
       </c>
       <c r="E107" s="17">
+        <v>7</v>
+      </c>
+      <c r="F107" s="17">
         <v>1</v>
-      </c>
-      <c r="F107" s="17">
-        <v>6</v>
       </c>
       <c r="G107" s="17"/>
       <c r="H107" s="15">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I107" s="16">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5546,7 +5531,7 @@
         <v>68</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C108" s="17">
         <v>0</v>
@@ -5555,48 +5540,48 @@
         <v>1</v>
       </c>
       <c r="E108" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G108" s="17"/>
       <c r="H108" s="15">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I108" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C109" s="14">
-        <v>655632</v>
-      </c>
-      <c r="D109" s="14">
-        <v>618475</v>
-      </c>
-      <c r="E109" s="14">
-        <v>843136</v>
-      </c>
-      <c r="F109" s="14">
-        <v>430971</v>
-      </c>
-      <c r="G109" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="C109" s="17">
+        <v>0</v>
+      </c>
+      <c r="D109" s="17">
+        <v>1</v>
+      </c>
+      <c r="E109" s="17">
+        <v>0</v>
+      </c>
+      <c r="F109" s="17">
+        <v>2</v>
+      </c>
+      <c r="G109" s="17"/>
       <c r="H109" s="15">
         <f t="shared" si="2"/>
-        <v>1274107</v>
+        <v>2</v>
       </c>
       <c r="I109" s="16">
         <f t="shared" si="3"/>
-        <v>0.661746619396958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5604,28 +5589,28 @@
         <v>119</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C110" s="14">
-        <v>515255</v>
+        <v>655632</v>
       </c>
       <c r="D110" s="14">
-        <v>482801</v>
+        <v>618475</v>
       </c>
       <c r="E110" s="14">
-        <v>717585</v>
+        <v>843136</v>
       </c>
       <c r="F110" s="14">
-        <v>280471</v>
+        <v>430971</v>
       </c>
       <c r="G110" s="14"/>
       <c r="H110" s="15">
         <f t="shared" si="2"/>
-        <v>998056</v>
+        <v>1274107</v>
       </c>
       <c r="I110" s="16">
         <f t="shared" si="3"/>
-        <v>0.71898270237341388</v>
+        <v>0.661746619396958</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5633,28 +5618,28 @@
         <v>119</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C111" s="14">
-        <v>104403</v>
+        <v>515255</v>
       </c>
       <c r="D111" s="14">
-        <v>104852</v>
+        <v>482801</v>
       </c>
       <c r="E111" s="14">
-        <v>127231</v>
+        <v>717585</v>
       </c>
       <c r="F111" s="14">
-        <v>82024</v>
+        <v>280471</v>
       </c>
       <c r="G111" s="14"/>
       <c r="H111" s="15">
         <f t="shared" si="2"/>
-        <v>209255</v>
+        <v>998056</v>
       </c>
       <c r="I111" s="16">
         <f t="shared" si="3"/>
-        <v>0.60801892427898974</v>
+        <v>0.71898270237341388</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5662,28 +5647,28 @@
         <v>119</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C112" s="14">
-        <v>78632</v>
+        <v>104403</v>
       </c>
       <c r="D112" s="14">
-        <v>73698</v>
+        <v>104852</v>
       </c>
       <c r="E112" s="14">
-        <v>96764</v>
+        <v>127231</v>
       </c>
       <c r="F112" s="14">
-        <v>55567</v>
+        <v>82024</v>
       </c>
       <c r="G112" s="14"/>
       <c r="H112" s="15">
         <f t="shared" si="2"/>
-        <v>152331</v>
+        <v>209255</v>
       </c>
       <c r="I112" s="16">
         <f t="shared" si="3"/>
-        <v>0.63522198370653382</v>
+        <v>0.60801892427898974</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5691,28 +5676,28 @@
         <v>119</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C113" s="14">
-        <v>65001</v>
+        <v>78632</v>
       </c>
       <c r="D113" s="14">
-        <v>61947</v>
+        <v>73698</v>
       </c>
       <c r="E113" s="14">
-        <v>100839</v>
+        <v>96764</v>
       </c>
       <c r="F113" s="14">
-        <v>26109</v>
+        <v>55567</v>
       </c>
       <c r="G113" s="14"/>
       <c r="H113" s="15">
         <f t="shared" si="2"/>
-        <v>126948</v>
+        <v>152331</v>
       </c>
       <c r="I113" s="16">
         <f t="shared" si="3"/>
-        <v>0.79433311277058327</v>
+        <v>0.63522198370653382</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5720,28 +5705,28 @@
         <v>119</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C114" s="14">
-        <v>61997</v>
+        <v>65001</v>
       </c>
       <c r="D114" s="14">
-        <v>64508</v>
+        <v>61947</v>
       </c>
       <c r="E114" s="14">
-        <v>26930</v>
+        <v>100839</v>
       </c>
       <c r="F114" s="14">
-        <v>99575</v>
+        <v>26109</v>
       </c>
       <c r="G114" s="14"/>
       <c r="H114" s="15">
         <f t="shared" si="2"/>
-        <v>126505</v>
+        <v>126948</v>
       </c>
       <c r="I114" s="16">
         <f t="shared" si="3"/>
-        <v>0.21287696138492548</v>
+        <v>0.79433311277058327</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5749,28 +5734,28 @@
         <v>119</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C115" s="14">
-        <v>38847</v>
+        <v>61997</v>
       </c>
       <c r="D115" s="14">
-        <v>39858</v>
+        <v>64508</v>
       </c>
       <c r="E115" s="14">
-        <v>63223</v>
+        <v>26930</v>
       </c>
       <c r="F115" s="14">
-        <v>15482</v>
+        <v>99575</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="15">
         <f t="shared" si="2"/>
-        <v>78705</v>
+        <v>126505</v>
       </c>
       <c r="I115" s="16">
         <f t="shared" si="3"/>
-        <v>0.80329076932850518</v>
+        <v>0.21287696138492548</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5778,28 +5763,28 @@
         <v>119</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C116" s="14">
-        <v>37558</v>
+        <v>38847</v>
       </c>
       <c r="D116" s="14">
-        <v>36896</v>
+        <v>39858</v>
       </c>
       <c r="E116" s="14">
-        <v>31514</v>
+        <v>63223</v>
       </c>
       <c r="F116" s="14">
-        <v>42940</v>
+        <v>15482</v>
       </c>
       <c r="G116" s="14"/>
       <c r="H116" s="15">
         <f t="shared" si="2"/>
-        <v>74454</v>
+        <v>78705</v>
       </c>
       <c r="I116" s="16">
         <f t="shared" si="3"/>
-        <v>0.42326805812985197</v>
+        <v>0.80329076932850518</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,28 +5792,28 @@
         <v>119</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C117" s="14">
-        <v>33886</v>
+        <v>37558</v>
       </c>
       <c r="D117" s="14">
-        <v>32910</v>
+        <v>36896</v>
       </c>
       <c r="E117" s="14">
-        <v>26001</v>
+        <v>31514</v>
       </c>
       <c r="F117" s="14">
-        <v>40795</v>
+        <v>42940</v>
       </c>
       <c r="G117" s="14"/>
       <c r="H117" s="15">
         <f t="shared" si="2"/>
-        <v>66796</v>
+        <v>74454</v>
       </c>
       <c r="I117" s="16">
         <f t="shared" si="3"/>
-        <v>0.38925983591831848</v>
+        <v>0.42326805812985197</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5836,28 +5821,28 @@
         <v>119</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C118" s="14">
-        <v>33110</v>
+        <v>33886</v>
       </c>
       <c r="D118" s="14">
-        <v>32436</v>
+        <v>32910</v>
       </c>
       <c r="E118" s="14">
-        <v>16994</v>
+        <v>26001</v>
       </c>
       <c r="F118" s="14">
-        <v>48552</v>
+        <v>40795</v>
       </c>
       <c r="G118" s="14"/>
       <c r="H118" s="15">
         <f t="shared" si="2"/>
-        <v>65546</v>
+        <v>66796</v>
       </c>
       <c r="I118" s="16">
         <f t="shared" si="3"/>
-        <v>0.25926830012510299</v>
+        <v>0.38925983591831848</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5865,28 +5850,28 @@
         <v>119</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C119" s="14">
-        <v>30374</v>
+        <v>33110</v>
       </c>
       <c r="D119" s="14">
-        <v>30482</v>
+        <v>32436</v>
       </c>
       <c r="E119" s="14">
-        <v>47926</v>
+        <v>16994</v>
       </c>
       <c r="F119" s="14">
-        <v>12930</v>
+        <v>48552</v>
       </c>
       <c r="G119" s="14"/>
       <c r="H119" s="15">
         <f t="shared" si="2"/>
-        <v>60856</v>
+        <v>65546</v>
       </c>
       <c r="I119" s="16">
         <f t="shared" si="3"/>
-        <v>0.78753122124359143</v>
+        <v>0.25926830012510299</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5894,28 +5879,28 @@
         <v>119</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C120" s="14">
-        <v>23437</v>
+        <v>30374</v>
       </c>
       <c r="D120" s="14">
-        <v>23042</v>
+        <v>30482</v>
       </c>
       <c r="E120" s="14">
-        <v>6897</v>
+        <v>47926</v>
       </c>
       <c r="F120" s="14">
-        <v>39583</v>
+        <v>12930</v>
       </c>
       <c r="G120" s="14"/>
       <c r="H120" s="15">
         <f t="shared" si="2"/>
-        <v>46480</v>
+        <v>60856</v>
       </c>
       <c r="I120" s="16">
         <f t="shared" si="3"/>
-        <v>0.14838640275387263</v>
+        <v>0.78753122124359143</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5923,28 +5908,28 @@
         <v>119</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="14">
-        <v>22426</v>
+        <v>23437</v>
       </c>
       <c r="D121" s="14">
-        <v>22633</v>
+        <v>23042</v>
       </c>
       <c r="E121" s="14">
-        <v>32754</v>
+        <v>6897</v>
       </c>
       <c r="F121" s="14">
-        <v>12305</v>
+        <v>39583</v>
       </c>
       <c r="G121" s="14"/>
       <c r="H121" s="15">
         <f t="shared" si="2"/>
-        <v>45059</v>
+        <v>46480</v>
       </c>
       <c r="I121" s="16">
         <f t="shared" si="3"/>
-        <v>0.72691360216604894</v>
+        <v>0.14838640275387263</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5952,28 +5937,28 @@
         <v>119</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C122" s="14">
-        <v>11887</v>
+        <v>22426</v>
       </c>
       <c r="D122" s="14">
-        <v>12054</v>
+        <v>22633</v>
       </c>
       <c r="E122" s="14">
-        <v>13853</v>
+        <v>32754</v>
       </c>
       <c r="F122" s="14">
-        <v>10089</v>
+        <v>12305</v>
       </c>
       <c r="G122" s="14"/>
       <c r="H122" s="15">
         <f t="shared" si="2"/>
-        <v>23942</v>
+        <v>45059</v>
       </c>
       <c r="I122" s="16">
         <f t="shared" si="3"/>
-        <v>0.57860663269568124</v>
+        <v>0.72691360216604894</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5981,28 +5966,28 @@
         <v>119</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C123" s="14">
-        <v>11882</v>
+        <v>11887</v>
       </c>
       <c r="D123" s="14">
-        <v>11820</v>
+        <v>12054</v>
       </c>
       <c r="E123" s="14">
-        <v>8890</v>
+        <v>13853</v>
       </c>
       <c r="F123" s="14">
-        <v>14812</v>
+        <v>10089</v>
       </c>
       <c r="G123" s="14"/>
       <c r="H123" s="15">
         <f t="shared" si="2"/>
-        <v>23702</v>
+        <v>23942</v>
       </c>
       <c r="I123" s="16">
         <f t="shared" si="3"/>
-        <v>0.37507383343177791</v>
+        <v>0.57860663269568124</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6010,28 +5995,28 @@
         <v>119</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="14">
-        <v>11848</v>
+        <v>11882</v>
       </c>
       <c r="D124" s="14">
-        <v>11538</v>
+        <v>11820</v>
       </c>
       <c r="E124" s="14">
-        <v>20684</v>
+        <v>8890</v>
       </c>
       <c r="F124" s="14">
-        <v>2701</v>
+        <v>14812</v>
       </c>
       <c r="G124" s="14"/>
       <c r="H124" s="15">
         <f t="shared" si="2"/>
-        <v>23385</v>
+        <v>23702</v>
       </c>
       <c r="I124" s="16">
         <f t="shared" si="3"/>
-        <v>0.88449861022022669</v>
+        <v>0.37507383343177791</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6039,28 +6024,28 @@
         <v>119</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C125" s="14">
-        <v>11419</v>
+        <v>11848</v>
       </c>
       <c r="D125" s="14">
-        <v>11031</v>
+        <v>11538</v>
       </c>
       <c r="E125" s="14">
-        <v>5309</v>
+        <v>20684</v>
       </c>
       <c r="F125" s="14">
-        <v>17141</v>
+        <v>2701</v>
       </c>
       <c r="G125" s="14"/>
       <c r="H125" s="15">
         <f t="shared" si="2"/>
-        <v>22450</v>
+        <v>23385</v>
       </c>
       <c r="I125" s="16">
         <f t="shared" si="3"/>
-        <v>0.23648106904231625</v>
+        <v>0.88449861022022669</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6068,28 +6053,28 @@
         <v>119</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C126" s="14">
-        <v>11251</v>
+        <v>11419</v>
       </c>
       <c r="D126" s="14">
-        <v>10672</v>
+        <v>11031</v>
       </c>
       <c r="E126" s="14">
-        <v>17217</v>
+        <v>5309</v>
       </c>
       <c r="F126" s="14">
-        <v>4707</v>
+        <v>17141</v>
       </c>
       <c r="G126" s="14"/>
       <c r="H126" s="15">
         <f t="shared" si="2"/>
-        <v>21924</v>
+        <v>22450</v>
       </c>
       <c r="I126" s="16">
         <f t="shared" si="3"/>
-        <v>0.78530377668308704</v>
+        <v>0.23648106904231625</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6097,28 +6082,28 @@
         <v>119</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C127" s="14">
-        <v>11065</v>
+        <v>11251</v>
       </c>
       <c r="D127" s="14">
-        <v>10765</v>
+        <v>10672</v>
       </c>
       <c r="E127" s="14">
-        <v>9495</v>
+        <v>17217</v>
       </c>
       <c r="F127" s="14">
-        <v>12335</v>
+        <v>4707</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="15">
         <f t="shared" si="2"/>
-        <v>21830</v>
+        <v>21924</v>
       </c>
       <c r="I127" s="16">
         <f t="shared" si="3"/>
-        <v>0.43495190105359599</v>
+        <v>0.78530377668308704</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6126,28 +6111,28 @@
         <v>119</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C128" s="14">
-        <v>11566</v>
+        <v>11065</v>
       </c>
       <c r="D128" s="14">
-        <v>9333</v>
+        <v>10765</v>
       </c>
       <c r="E128" s="14">
-        <v>3106</v>
+        <v>9495</v>
       </c>
       <c r="F128" s="14">
-        <v>17793</v>
+        <v>12335</v>
       </c>
       <c r="G128" s="14"/>
       <c r="H128" s="15">
         <f t="shared" si="2"/>
-        <v>20899</v>
+        <v>21830</v>
       </c>
       <c r="I128" s="16">
         <f t="shared" si="3"/>
-        <v>0.14861955117469736</v>
+        <v>0.43495190105359599</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6155,28 +6140,28 @@
         <v>119</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C129" s="14">
-        <v>9227</v>
+        <v>11566</v>
       </c>
       <c r="D129" s="14">
-        <v>9412</v>
+        <v>9333</v>
       </c>
       <c r="E129" s="14">
-        <v>14305</v>
+        <v>3106</v>
       </c>
       <c r="F129" s="14">
-        <v>4334</v>
+        <v>17793</v>
       </c>
       <c r="G129" s="14"/>
       <c r="H129" s="15">
         <f t="shared" si="2"/>
-        <v>18639</v>
+        <v>20899</v>
       </c>
       <c r="I129" s="16">
         <f t="shared" si="3"/>
-        <v>0.76747679596544882</v>
+        <v>0.14861955117469736</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6184,28 +6169,28 @@
         <v>119</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C130" s="14">
-        <v>8809</v>
+        <v>9227</v>
       </c>
       <c r="D130" s="14">
-        <v>8679</v>
+        <v>9412</v>
       </c>
       <c r="E130" s="14">
-        <v>11007</v>
+        <v>14305</v>
       </c>
       <c r="F130" s="14">
-        <v>6481</v>
+        <v>4334</v>
       </c>
       <c r="G130" s="14"/>
       <c r="H130" s="15">
         <f t="shared" si="2"/>
-        <v>17488</v>
+        <v>18639</v>
       </c>
       <c r="I130" s="16">
         <f t="shared" si="3"/>
-        <v>0.62940301921317476</v>
+        <v>0.76747679596544882</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6213,28 +6198,28 @@
         <v>119</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C131" s="14">
-        <v>7917</v>
+        <v>8809</v>
       </c>
       <c r="D131" s="14">
-        <v>8352</v>
+        <v>8679</v>
       </c>
       <c r="E131" s="14">
-        <v>6303</v>
+        <v>11007</v>
       </c>
       <c r="F131" s="14">
-        <v>9966</v>
+        <v>6481</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="15">
-        <f t="shared" ref="H131:H194" si="4">E131+F131</f>
-        <v>16269</v>
+        <f t="shared" si="2"/>
+        <v>17488</v>
       </c>
       <c r="I131" s="16">
         <f t="shared" si="3"/>
-        <v>0.38742393509127787</v>
+        <v>0.62940301921317476</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6242,28 +6227,28 @@
         <v>119</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C132" s="14">
-        <v>7943</v>
+        <v>7917</v>
       </c>
       <c r="D132" s="14">
-        <v>7782</v>
+        <v>8352</v>
       </c>
       <c r="E132" s="14">
-        <v>7231</v>
+        <v>6303</v>
       </c>
       <c r="F132" s="14">
-        <v>8494</v>
+        <v>9966</v>
       </c>
       <c r="G132" s="14"/>
       <c r="H132" s="15">
-        <f t="shared" si="4"/>
-        <v>15725</v>
+        <f t="shared" ref="H132:H195" si="4">E132+F132</f>
+        <v>16269</v>
       </c>
       <c r="I132" s="16">
-        <f t="shared" ref="I132:I195" si="5">+E132/(E132+F132)</f>
-        <v>0.45984101748807632</v>
+        <f t="shared" si="3"/>
+        <v>0.38742393509127787</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6271,28 +6256,28 @@
         <v>119</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C133" s="14">
-        <v>5305</v>
+        <v>7943</v>
       </c>
       <c r="D133" s="14">
-        <v>5641</v>
+        <v>7782</v>
       </c>
       <c r="E133" s="14">
-        <v>8447</v>
+        <v>7231</v>
       </c>
       <c r="F133" s="14">
-        <v>2498</v>
+        <v>8494</v>
       </c>
       <c r="G133" s="14"/>
       <c r="H133" s="15">
         <f t="shared" si="4"/>
-        <v>10945</v>
+        <v>15725</v>
       </c>
       <c r="I133" s="16">
-        <f t="shared" si="5"/>
-        <v>0.77176793056190041</v>
+        <f t="shared" ref="I133:I196" si="5">+E133/(E133+F133)</f>
+        <v>0.45984101748807632</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6300,28 +6285,28 @@
         <v>119</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C134" s="14">
-        <v>3770</v>
+        <v>5305</v>
       </c>
       <c r="D134" s="14">
-        <v>3927</v>
+        <v>5641</v>
       </c>
       <c r="E134" s="14">
-        <v>3314</v>
+        <v>8447</v>
       </c>
       <c r="F134" s="14">
-        <v>4383</v>
+        <v>2498</v>
       </c>
       <c r="G134" s="14"/>
       <c r="H134" s="15">
         <f t="shared" si="4"/>
-        <v>7697</v>
+        <v>10945</v>
       </c>
       <c r="I134" s="16">
         <f t="shared" si="5"/>
-        <v>0.43055736001039369</v>
+        <v>0.77176793056190041</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6329,28 +6314,28 @@
         <v>119</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C135" s="14">
-        <v>3040</v>
+        <v>3770</v>
       </c>
       <c r="D135" s="14">
-        <v>3064</v>
+        <v>3927</v>
       </c>
       <c r="E135" s="14">
-        <v>4107</v>
+        <v>3314</v>
       </c>
       <c r="F135" s="14">
-        <v>1997</v>
+        <v>4383</v>
       </c>
       <c r="G135" s="14"/>
       <c r="H135" s="15">
         <f t="shared" si="4"/>
-        <v>6104</v>
+        <v>7697</v>
       </c>
       <c r="I135" s="16">
         <f t="shared" si="5"/>
-        <v>0.67283748361730011</v>
+        <v>0.43055736001039369</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6358,28 +6343,28 @@
         <v>119</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C136" s="14">
-        <v>3026</v>
+        <v>3040</v>
       </c>
       <c r="D136" s="14">
-        <v>3075</v>
-      </c>
-      <c r="E136" s="17">
-        <v>544</v>
+        <v>3064</v>
+      </c>
+      <c r="E136" s="14">
+        <v>4107</v>
       </c>
       <c r="F136" s="14">
-        <v>5557</v>
+        <v>1997</v>
       </c>
       <c r="G136" s="14"/>
       <c r="H136" s="15">
         <f t="shared" si="4"/>
-        <v>6101</v>
+        <v>6104</v>
       </c>
       <c r="I136" s="16">
         <f t="shared" si="5"/>
-        <v>8.9165710539255857E-2</v>
+        <v>0.67283748361730011</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6387,28 +6372,28 @@
         <v>119</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C137" s="14">
-        <v>2668</v>
+        <v>3026</v>
       </c>
       <c r="D137" s="14">
-        <v>2629</v>
-      </c>
-      <c r="E137" s="14">
-        <v>4085</v>
+        <v>3075</v>
+      </c>
+      <c r="E137" s="17">
+        <v>544</v>
       </c>
       <c r="F137" s="14">
-        <v>1212</v>
+        <v>5557</v>
       </c>
       <c r="G137" s="14"/>
       <c r="H137" s="15">
         <f t="shared" si="4"/>
-        <v>5297</v>
+        <v>6101</v>
       </c>
       <c r="I137" s="16">
         <f t="shared" si="5"/>
-        <v>0.77119124032471209</v>
+        <v>8.9165710539255857E-2</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6416,28 +6401,28 @@
         <v>119</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C138" s="14">
-        <v>2392</v>
+        <v>2668</v>
       </c>
       <c r="D138" s="14">
-        <v>2613</v>
+        <v>2629</v>
       </c>
       <c r="E138" s="14">
-        <v>1991</v>
+        <v>4085</v>
       </c>
       <c r="F138" s="14">
-        <v>3015</v>
+        <v>1212</v>
       </c>
       <c r="G138" s="14"/>
       <c r="H138" s="15">
         <f t="shared" si="4"/>
-        <v>5006</v>
+        <v>5297</v>
       </c>
       <c r="I138" s="16">
         <f t="shared" si="5"/>
-        <v>0.39772273272073511</v>
+        <v>0.77119124032471209</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6445,28 +6430,28 @@
         <v>119</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C139" s="14">
-        <v>2519</v>
+        <v>2392</v>
       </c>
       <c r="D139" s="14">
-        <v>2303</v>
+        <v>2613</v>
       </c>
       <c r="E139" s="14">
-        <v>1272</v>
+        <v>1991</v>
       </c>
       <c r="F139" s="14">
-        <v>3551</v>
+        <v>3015</v>
       </c>
       <c r="G139" s="14"/>
       <c r="H139" s="15">
         <f t="shared" si="4"/>
-        <v>4823</v>
+        <v>5006</v>
       </c>
       <c r="I139" s="16">
         <f t="shared" si="5"/>
-        <v>0.26373626373626374</v>
+        <v>0.39772273272073511</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6474,28 +6459,28 @@
         <v>119</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C140" s="14">
-        <v>2289</v>
+        <v>2519</v>
       </c>
       <c r="D140" s="14">
-        <v>2380</v>
+        <v>2303</v>
       </c>
       <c r="E140" s="14">
-        <v>2810</v>
+        <v>1272</v>
       </c>
       <c r="F140" s="14">
-        <v>1859</v>
+        <v>3551</v>
       </c>
       <c r="G140" s="14"/>
       <c r="H140" s="15">
         <f t="shared" si="4"/>
-        <v>4669</v>
+        <v>4823</v>
       </c>
       <c r="I140" s="16">
         <f t="shared" si="5"/>
-        <v>0.60184193617476978</v>
+        <v>0.26373626373626374</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6503,28 +6488,28 @@
         <v>119</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C141" s="14">
-        <v>2169</v>
+        <v>2289</v>
       </c>
       <c r="D141" s="14">
-        <v>2215</v>
+        <v>2380</v>
       </c>
       <c r="E141" s="14">
-        <v>2395</v>
+        <v>2810</v>
       </c>
       <c r="F141" s="14">
-        <v>1989</v>
+        <v>1859</v>
       </c>
       <c r="G141" s="14"/>
       <c r="H141" s="15">
         <f t="shared" si="4"/>
-        <v>4384</v>
+        <v>4669</v>
       </c>
       <c r="I141" s="16">
         <f t="shared" si="5"/>
-        <v>0.54630474452554745</v>
+        <v>0.60184193617476978</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6532,28 +6517,28 @@
         <v>119</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C142" s="14">
-        <v>1714</v>
+        <v>2169</v>
       </c>
       <c r="D142" s="14">
-        <v>1811</v>
+        <v>2215</v>
       </c>
       <c r="E142" s="14">
-        <v>1069</v>
+        <v>2395</v>
       </c>
       <c r="F142" s="14">
-        <v>2456</v>
+        <v>1989</v>
       </c>
       <c r="G142" s="14"/>
       <c r="H142" s="15">
         <f t="shared" si="4"/>
-        <v>3525</v>
+        <v>4384</v>
       </c>
       <c r="I142" s="16">
         <f t="shared" si="5"/>
-        <v>0.30326241134751775</v>
+        <v>0.54630474452554745</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6561,28 +6546,28 @@
         <v>119</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C143" s="14">
-        <v>1774</v>
+        <v>1714</v>
       </c>
       <c r="D143" s="14">
-        <v>1748</v>
-      </c>
-      <c r="E143" s="17">
-        <v>0</v>
+        <v>1811</v>
+      </c>
+      <c r="E143" s="14">
+        <v>1069</v>
       </c>
       <c r="F143" s="14">
-        <v>3522</v>
+        <v>2456</v>
       </c>
       <c r="G143" s="14"/>
       <c r="H143" s="15">
         <f t="shared" si="4"/>
-        <v>3522</v>
+        <v>3525</v>
       </c>
       <c r="I143" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.30326241134751775</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6590,28 +6575,28 @@
         <v>119</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C144" s="14">
-        <v>1582</v>
+        <v>1774</v>
       </c>
       <c r="D144" s="14">
-        <v>1654</v>
+        <v>1748</v>
       </c>
       <c r="E144" s="17">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="F144" s="14">
-        <v>2889</v>
+        <v>3522</v>
       </c>
       <c r="G144" s="14"/>
       <c r="H144" s="15">
         <f t="shared" si="4"/>
-        <v>3236</v>
+        <v>3522</v>
       </c>
       <c r="I144" s="16">
         <f t="shared" si="5"/>
-        <v>0.10723114956736712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6619,28 +6604,28 @@
         <v>119</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C145" s="14">
-        <v>1314</v>
+        <v>1582</v>
       </c>
       <c r="D145" s="14">
-        <v>1307</v>
+        <v>1654</v>
       </c>
       <c r="E145" s="17">
-        <v>970</v>
+        <v>347</v>
       </c>
       <c r="F145" s="14">
-        <v>1650</v>
+        <v>2889</v>
       </c>
       <c r="G145" s="14"/>
       <c r="H145" s="15">
         <f t="shared" si="4"/>
-        <v>2620</v>
+        <v>3236</v>
       </c>
       <c r="I145" s="16">
         <f t="shared" si="5"/>
-        <v>0.37022900763358779</v>
+        <v>0.10723114956736712</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6648,28 +6633,28 @@
         <v>119</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C146" s="14">
-        <v>1305</v>
+        <v>1314</v>
       </c>
       <c r="D146" s="14">
-        <v>1155</v>
+        <v>1307</v>
       </c>
       <c r="E146" s="17">
-        <v>437</v>
+        <v>970</v>
       </c>
       <c r="F146" s="14">
-        <v>2023</v>
+        <v>1650</v>
       </c>
       <c r="G146" s="14"/>
       <c r="H146" s="15">
         <f t="shared" si="4"/>
-        <v>2460</v>
+        <v>2620</v>
       </c>
       <c r="I146" s="16">
         <f t="shared" si="5"/>
-        <v>0.17764227642276423</v>
+        <v>0.37022900763358779</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6677,28 +6662,28 @@
         <v>119</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C147" s="14">
-        <v>1521</v>
-      </c>
-      <c r="D147" s="17">
-        <v>876</v>
+        <v>1305</v>
+      </c>
+      <c r="D147" s="14">
+        <v>1155</v>
       </c>
       <c r="E147" s="17">
-        <v>348</v>
+        <v>437</v>
       </c>
       <c r="F147" s="14">
-        <v>2049</v>
+        <v>2023</v>
       </c>
       <c r="G147" s="14"/>
       <c r="H147" s="15">
         <f t="shared" si="4"/>
-        <v>2397</v>
+        <v>2460</v>
       </c>
       <c r="I147" s="16">
         <f t="shared" si="5"/>
-        <v>0.14518147684605756</v>
+        <v>0.17764227642276423</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6706,28 +6691,28 @@
         <v>119</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C148" s="14">
-        <v>1042</v>
-      </c>
-      <c r="D148" s="14">
-        <v>1022</v>
-      </c>
-      <c r="E148" s="14">
-        <v>1921</v>
-      </c>
-      <c r="F148" s="17">
-        <v>142</v>
-      </c>
-      <c r="G148" s="17"/>
+        <v>1521</v>
+      </c>
+      <c r="D148" s="17">
+        <v>876</v>
+      </c>
+      <c r="E148" s="17">
+        <v>348</v>
+      </c>
+      <c r="F148" s="14">
+        <v>2049</v>
+      </c>
+      <c r="G148" s="14"/>
       <c r="H148" s="15">
         <f t="shared" si="4"/>
-        <v>2063</v>
+        <v>2397</v>
       </c>
       <c r="I148" s="16">
         <f t="shared" si="5"/>
-        <v>0.93116820164808534</v>
+        <v>0.14518147684605756</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6735,28 +6720,28 @@
         <v>119</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C149" s="17">
-        <v>991</v>
-      </c>
-      <c r="D149" s="17">
-        <v>906</v>
-      </c>
-      <c r="E149" s="17">
-        <v>48</v>
-      </c>
-      <c r="F149" s="14">
-        <v>1849</v>
-      </c>
-      <c r="G149" s="14"/>
+        <v>159</v>
+      </c>
+      <c r="C149" s="14">
+        <v>1042</v>
+      </c>
+      <c r="D149" s="14">
+        <v>1022</v>
+      </c>
+      <c r="E149" s="14">
+        <v>1921</v>
+      </c>
+      <c r="F149" s="17">
+        <v>142</v>
+      </c>
+      <c r="G149" s="17"/>
       <c r="H149" s="15">
         <f t="shared" si="4"/>
-        <v>1897</v>
+        <v>2063</v>
       </c>
       <c r="I149" s="16">
         <f t="shared" si="5"/>
-        <v>2.5303110173958882E-2</v>
+        <v>0.93116820164808534</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6764,28 +6749,28 @@
         <v>119</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C150" s="17">
-        <v>830</v>
+        <v>991</v>
       </c>
       <c r="D150" s="17">
-        <v>829</v>
+        <v>906</v>
       </c>
       <c r="E150" s="17">
-        <v>438</v>
+        <v>48</v>
       </c>
       <c r="F150" s="14">
-        <v>1222</v>
+        <v>1849</v>
       </c>
       <c r="G150" s="14"/>
       <c r="H150" s="15">
         <f t="shared" si="4"/>
-        <v>1660</v>
+        <v>1897</v>
       </c>
       <c r="I150" s="16">
         <f t="shared" si="5"/>
-        <v>0.26385542168674697</v>
+        <v>2.5303110173958882E-2</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6793,28 +6778,28 @@
         <v>119</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C151" s="17">
-        <v>544</v>
+        <v>830</v>
       </c>
       <c r="D151" s="17">
-        <v>533</v>
+        <v>829</v>
       </c>
       <c r="E151" s="17">
-        <v>59</v>
+        <v>438</v>
       </c>
       <c r="F151" s="14">
-        <v>1018</v>
+        <v>1222</v>
       </c>
       <c r="G151" s="14"/>
       <c r="H151" s="15">
         <f t="shared" si="4"/>
-        <v>1077</v>
+        <v>1660</v>
       </c>
       <c r="I151" s="16">
         <f t="shared" si="5"/>
-        <v>5.4781801299907153E-2</v>
+        <v>0.26385542168674697</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6822,28 +6807,28 @@
         <v>119</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C152" s="17">
-        <v>448</v>
+        <v>544</v>
       </c>
       <c r="D152" s="17">
-        <v>423</v>
+        <v>533</v>
       </c>
       <c r="E152" s="17">
-        <v>806</v>
-      </c>
-      <c r="F152" s="17">
-        <v>65</v>
-      </c>
-      <c r="G152" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="F152" s="14">
+        <v>1018</v>
+      </c>
+      <c r="G152" s="14"/>
       <c r="H152" s="15">
         <f t="shared" si="4"/>
-        <v>871</v>
+        <v>1077</v>
       </c>
       <c r="I152" s="16">
         <f t="shared" si="5"/>
-        <v>0.92537313432835822</v>
+        <v>5.4781801299907153E-2</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6851,28 +6836,28 @@
         <v>119</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C153" s="17">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="D153" s="17">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="E153" s="17">
-        <v>341</v>
+        <v>806</v>
       </c>
       <c r="F153" s="17">
-        <v>438</v>
+        <v>65</v>
       </c>
       <c r="G153" s="17"/>
       <c r="H153" s="15">
         <f t="shared" si="4"/>
-        <v>779</v>
+        <v>871</v>
       </c>
       <c r="I153" s="16">
         <f t="shared" si="5"/>
-        <v>0.43774069319640563</v>
+        <v>0.92537313432835822</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6880,28 +6865,28 @@
         <v>119</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C154" s="17">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="D154" s="17">
-        <v>261</v>
+        <v>390</v>
       </c>
       <c r="E154" s="17">
-        <v>49</v>
+        <v>341</v>
       </c>
       <c r="F154" s="17">
-        <v>557</v>
+        <v>438</v>
       </c>
       <c r="G154" s="17"/>
       <c r="H154" s="15">
         <f t="shared" si="4"/>
-        <v>606</v>
+        <v>779</v>
       </c>
       <c r="I154" s="16">
         <f t="shared" si="5"/>
-        <v>8.0858085808580851E-2</v>
+        <v>0.43774069319640563</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6909,28 +6894,28 @@
         <v>119</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C155" s="17">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="D155" s="17">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="E155" s="17">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F155" s="17">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="G155" s="17"/>
       <c r="H155" s="15">
         <f t="shared" si="4"/>
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="I155" s="16">
         <f t="shared" si="5"/>
-        <v>7.796610169491526E-2</v>
+        <v>8.0858085808580851E-2</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6938,28 +6923,28 @@
         <v>119</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C156" s="17">
-        <v>168</v>
+        <v>385</v>
       </c>
       <c r="D156" s="17">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="E156" s="17">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F156" s="17">
-        <v>230</v>
+        <v>544</v>
       </c>
       <c r="G156" s="17"/>
       <c r="H156" s="15">
         <f t="shared" si="4"/>
-        <v>322</v>
+        <v>590</v>
       </c>
       <c r="I156" s="16">
         <f t="shared" si="5"/>
-        <v>0.2857142857142857</v>
+        <v>7.796610169491526E-2</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6967,57 +6952,57 @@
         <v>119</v>
       </c>
       <c r="B157" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157" s="17">
         <v>168</v>
       </c>
-      <c r="C157" s="17">
-        <v>143</v>
-      </c>
       <c r="D157" s="17">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E157" s="17">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="F157" s="17">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="G157" s="17"/>
       <c r="H157" s="15">
         <f t="shared" si="4"/>
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="I157" s="16">
         <f t="shared" si="5"/>
-        <v>0.71942446043165464</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="C158" s="18">
-        <v>68827</v>
-      </c>
-      <c r="D158" s="18">
-        <v>78368</v>
-      </c>
-      <c r="E158" s="18">
-        <v>33375</v>
-      </c>
-      <c r="F158" s="18">
-        <v>113821</v>
-      </c>
-      <c r="G158" s="18"/>
+        <v>168</v>
+      </c>
+      <c r="C158" s="17">
+        <v>143</v>
+      </c>
+      <c r="D158" s="17">
+        <v>135</v>
+      </c>
+      <c r="E158" s="17">
+        <v>200</v>
+      </c>
+      <c r="F158" s="17">
+        <v>78</v>
+      </c>
+      <c r="G158" s="17"/>
       <c r="H158" s="15">
         <f t="shared" si="4"/>
-        <v>147196</v>
+        <v>278</v>
       </c>
       <c r="I158" s="16">
         <f t="shared" si="5"/>
-        <v>0.22673849832875895</v>
+        <v>0.71942446043165464</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7025,28 +7010,28 @@
         <v>169</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C159" s="18">
-        <v>40197</v>
+        <v>68827</v>
       </c>
       <c r="D159" s="18">
-        <v>41980</v>
+        <v>78368</v>
       </c>
       <c r="E159" s="18">
-        <v>10411</v>
+        <v>33375</v>
       </c>
       <c r="F159" s="18">
-        <v>71767</v>
+        <v>113821</v>
       </c>
       <c r="G159" s="18"/>
       <c r="H159" s="15">
         <f t="shared" si="4"/>
-        <v>82178</v>
+        <v>147196</v>
       </c>
       <c r="I159" s="16">
         <f t="shared" si="5"/>
-        <v>0.12668840808975637</v>
+        <v>0.22673849832875895</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7054,28 +7039,28 @@
         <v>169</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C160" s="18">
-        <v>28947</v>
+        <v>40197</v>
       </c>
       <c r="D160" s="18">
-        <v>30027</v>
+        <v>41980</v>
       </c>
       <c r="E160" s="18">
-        <v>6335</v>
+        <v>10411</v>
       </c>
       <c r="F160" s="18">
-        <v>52639</v>
+        <v>71767</v>
       </c>
       <c r="G160" s="18"/>
       <c r="H160" s="15">
         <f t="shared" si="4"/>
-        <v>58974</v>
+        <v>82178</v>
       </c>
       <c r="I160" s="16">
         <f t="shared" si="5"/>
-        <v>0.1074202190795944</v>
+        <v>0.12668840808975637</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7083,28 +7068,28 @@
         <v>169</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C161" s="18">
-        <v>28705</v>
+        <v>28947</v>
       </c>
       <c r="D161" s="18">
-        <v>30181</v>
+        <v>30027</v>
       </c>
       <c r="E161" s="18">
-        <v>14495</v>
+        <v>6335</v>
       </c>
       <c r="F161" s="18">
-        <v>44391</v>
+        <v>52639</v>
       </c>
       <c r="G161" s="18"/>
       <c r="H161" s="15">
         <f t="shared" si="4"/>
-        <v>58886</v>
+        <v>58974</v>
       </c>
       <c r="I161" s="16">
         <f t="shared" si="5"/>
-        <v>0.24615358489284381</v>
+        <v>0.1074202190795944</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7112,28 +7097,28 @@
         <v>169</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C162" s="18">
-        <v>27830</v>
+        <v>28705</v>
       </c>
       <c r="D162" s="18">
-        <v>29513</v>
+        <v>30181</v>
       </c>
       <c r="E162" s="18">
-        <v>18969</v>
+        <v>14495</v>
       </c>
       <c r="F162" s="18">
-        <v>38374</v>
+        <v>44391</v>
       </c>
       <c r="G162" s="18"/>
       <c r="H162" s="15">
         <f t="shared" si="4"/>
-        <v>57343</v>
+        <v>58886</v>
       </c>
       <c r="I162" s="16">
         <f t="shared" si="5"/>
-        <v>0.33079887693354026</v>
+        <v>0.24615358489284381</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7141,28 +7126,28 @@
         <v>169</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C163" s="18">
-        <v>23583</v>
+        <v>27830</v>
       </c>
       <c r="D163" s="18">
-        <v>27075</v>
+        <v>29513</v>
       </c>
       <c r="E163" s="18">
-        <v>14166</v>
+        <v>18969</v>
       </c>
       <c r="F163" s="18">
-        <v>36492</v>
+        <v>38374</v>
       </c>
       <c r="G163" s="18"/>
       <c r="H163" s="15">
         <f t="shared" si="4"/>
-        <v>50658</v>
+        <v>57343</v>
       </c>
       <c r="I163" s="16">
         <f t="shared" si="5"/>
-        <v>0.2796399384105176</v>
+        <v>0.33079887693354026</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7170,28 +7155,28 @@
         <v>169</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C164" s="18">
-        <v>19383</v>
+        <v>23583</v>
       </c>
       <c r="D164" s="18">
-        <v>20250</v>
+        <v>27075</v>
       </c>
       <c r="E164" s="18">
-        <v>8962</v>
+        <v>14166</v>
       </c>
       <c r="F164" s="18">
-        <v>30672</v>
+        <v>36492</v>
       </c>
       <c r="G164" s="18"/>
       <c r="H164" s="15">
         <f t="shared" si="4"/>
-        <v>39634</v>
+        <v>50658</v>
       </c>
       <c r="I164" s="16">
         <f t="shared" si="5"/>
-        <v>0.22611898874703537</v>
+        <v>0.2796399384105176</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7199,28 +7184,28 @@
         <v>169</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C165" s="18">
-        <v>18832</v>
+        <v>19383</v>
       </c>
       <c r="D165" s="18">
-        <v>19909</v>
+        <v>20250</v>
       </c>
       <c r="E165" s="18">
-        <v>13492</v>
+        <v>8962</v>
       </c>
       <c r="F165" s="18">
-        <v>25248</v>
+        <v>30672</v>
       </c>
       <c r="G165" s="18"/>
       <c r="H165" s="15">
         <f t="shared" si="4"/>
-        <v>38740</v>
+        <v>39634</v>
       </c>
       <c r="I165" s="16">
         <f t="shared" si="5"/>
-        <v>0.34827052142488385</v>
+        <v>0.22611898874703537</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7228,28 +7213,28 @@
         <v>169</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C166" s="18">
-        <v>11002</v>
+        <v>18832</v>
       </c>
       <c r="D166" s="18">
-        <v>11400</v>
+        <v>19909</v>
       </c>
       <c r="E166" s="18">
-        <v>9469</v>
+        <v>13492</v>
       </c>
       <c r="F166" s="18">
-        <v>12933</v>
+        <v>25248</v>
       </c>
       <c r="G166" s="18"/>
       <c r="H166" s="15">
         <f t="shared" si="4"/>
-        <v>22402</v>
+        <v>38740</v>
       </c>
       <c r="I166" s="16">
         <f t="shared" si="5"/>
-        <v>0.42268547451120436</v>
+        <v>0.34827052142488385</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7257,28 +7242,28 @@
         <v>169</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C167" s="18">
-        <v>7790</v>
+        <v>11002</v>
       </c>
       <c r="D167" s="18">
-        <v>7945</v>
+        <v>11400</v>
       </c>
       <c r="E167" s="18">
-        <v>1687</v>
+        <v>9469</v>
       </c>
       <c r="F167" s="18">
-        <v>14048</v>
+        <v>12933</v>
       </c>
       <c r="G167" s="18"/>
       <c r="H167" s="15">
         <f t="shared" si="4"/>
-        <v>15735</v>
+        <v>22402</v>
       </c>
       <c r="I167" s="16">
         <f t="shared" si="5"/>
-        <v>0.10721321893867175</v>
+        <v>0.42268547451120436</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7286,28 +7271,28 @@
         <v>169</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C168" s="18">
-        <v>5286</v>
+        <v>7790</v>
       </c>
       <c r="D168" s="18">
-        <v>5351</v>
+        <v>7945</v>
       </c>
       <c r="E168" s="18">
-        <v>4341</v>
+        <v>1687</v>
       </c>
       <c r="F168" s="18">
-        <v>6296</v>
+        <v>14048</v>
       </c>
       <c r="G168" s="18"/>
       <c r="H168" s="15">
         <f t="shared" si="4"/>
-        <v>10637</v>
+        <v>15735</v>
       </c>
       <c r="I168" s="16">
         <f t="shared" si="5"/>
-        <v>0.4081037886622168</v>
+        <v>0.10721321893867175</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7315,28 +7300,28 @@
         <v>169</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C169" s="18">
-        <v>5230</v>
+        <v>5286</v>
       </c>
       <c r="D169" s="18">
-        <v>5396</v>
+        <v>5351</v>
       </c>
       <c r="E169" s="18">
-        <v>4259</v>
+        <v>4341</v>
       </c>
       <c r="F169" s="18">
-        <v>6367</v>
+        <v>6296</v>
       </c>
       <c r="G169" s="18"/>
       <c r="H169" s="15">
         <f t="shared" si="4"/>
-        <v>10626</v>
+        <v>10637</v>
       </c>
       <c r="I169" s="16">
         <f t="shared" si="5"/>
-        <v>0.40080933559194426</v>
+        <v>0.4081037886622168</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7344,28 +7329,28 @@
         <v>169</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C170" s="18">
-        <v>5181</v>
+        <v>5230</v>
       </c>
       <c r="D170" s="18">
-        <v>5398</v>
-      </c>
-      <c r="E170" s="19">
-        <v>317</v>
+        <v>5396</v>
+      </c>
+      <c r="E170" s="18">
+        <v>4259</v>
       </c>
       <c r="F170" s="18">
-        <v>10262</v>
+        <v>6367</v>
       </c>
       <c r="G170" s="18"/>
       <c r="H170" s="15">
         <f t="shared" si="4"/>
-        <v>10579</v>
+        <v>10626</v>
       </c>
       <c r="I170" s="16">
         <f t="shared" si="5"/>
-        <v>2.9965025049626618E-2</v>
+        <v>0.40080933559194426</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7373,28 +7358,28 @@
         <v>169</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C171" s="18">
-        <v>4826</v>
+        <v>5181</v>
       </c>
       <c r="D171" s="18">
-        <v>5449</v>
-      </c>
-      <c r="E171" s="18">
-        <v>2698</v>
+        <v>5398</v>
+      </c>
+      <c r="E171" s="19">
+        <v>317</v>
       </c>
       <c r="F171" s="18">
-        <v>7576</v>
+        <v>10262</v>
       </c>
       <c r="G171" s="18"/>
       <c r="H171" s="15">
         <f t="shared" si="4"/>
-        <v>10274</v>
+        <v>10579</v>
       </c>
       <c r="I171" s="16">
         <f t="shared" si="5"/>
-        <v>0.26260463305431186</v>
+        <v>2.9965025049626618E-2</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7402,28 +7387,28 @@
         <v>169</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C172" s="18">
-        <v>4997</v>
+        <v>4826</v>
       </c>
       <c r="D172" s="18">
-        <v>5266</v>
+        <v>5449</v>
       </c>
       <c r="E172" s="18">
-        <v>3480</v>
+        <v>2698</v>
       </c>
       <c r="F172" s="18">
-        <v>6782</v>
+        <v>7576</v>
       </c>
       <c r="G172" s="18"/>
       <c r="H172" s="15">
         <f t="shared" si="4"/>
-        <v>10262</v>
+        <v>10274</v>
       </c>
       <c r="I172" s="16">
         <f t="shared" si="5"/>
-        <v>0.33911518222568698</v>
+        <v>0.26260463305431186</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7431,28 +7416,28 @@
         <v>169</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C173" s="18">
-        <v>4972</v>
+        <v>4997</v>
       </c>
       <c r="D173" s="18">
-        <v>5180</v>
-      </c>
-      <c r="E173" s="19">
-        <v>276</v>
+        <v>5266</v>
+      </c>
+      <c r="E173" s="18">
+        <v>3480</v>
       </c>
       <c r="F173" s="18">
-        <v>9876</v>
+        <v>6782</v>
       </c>
       <c r="G173" s="18"/>
       <c r="H173" s="15">
         <f t="shared" si="4"/>
-        <v>10152</v>
+        <v>10262</v>
       </c>
       <c r="I173" s="16">
         <f t="shared" si="5"/>
-        <v>2.7186761229314422E-2</v>
+        <v>0.33911518222568698</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7460,28 +7445,28 @@
         <v>169</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C174" s="18">
-        <v>4816</v>
+        <v>4972</v>
       </c>
       <c r="D174" s="18">
-        <v>5259</v>
-      </c>
-      <c r="E174" s="18">
-        <v>3379</v>
+        <v>5180</v>
+      </c>
+      <c r="E174" s="19">
+        <v>276</v>
       </c>
       <c r="F174" s="18">
-        <v>6696</v>
+        <v>9876</v>
       </c>
       <c r="G174" s="18"/>
       <c r="H174" s="15">
         <f t="shared" si="4"/>
-        <v>10075</v>
+        <v>10152</v>
       </c>
       <c r="I174" s="16">
         <f t="shared" si="5"/>
-        <v>0.33538461538461539</v>
+        <v>2.7186761229314422E-2</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7489,28 +7474,28 @@
         <v>169</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C175" s="18">
-        <v>4750</v>
+        <v>4816</v>
       </c>
       <c r="D175" s="18">
-        <v>5123</v>
+        <v>5259</v>
       </c>
       <c r="E175" s="18">
-        <v>6171</v>
+        <v>3379</v>
       </c>
       <c r="F175" s="18">
-        <v>3703</v>
+        <v>6696</v>
       </c>
       <c r="G175" s="18"/>
       <c r="H175" s="15">
         <f t="shared" si="4"/>
-        <v>9874</v>
+        <v>10075</v>
       </c>
       <c r="I175" s="16">
         <f t="shared" si="5"/>
-        <v>0.62497468098035247</v>
+        <v>0.33538461538461539</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7518,28 +7503,28 @@
         <v>169</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C176" s="18">
-        <v>4408</v>
+        <v>4750</v>
       </c>
       <c r="D176" s="18">
-        <v>4484</v>
+        <v>5123</v>
       </c>
       <c r="E176" s="18">
-        <v>1487</v>
+        <v>6171</v>
       </c>
       <c r="F176" s="18">
-        <v>7405</v>
+        <v>3703</v>
       </c>
       <c r="G176" s="18"/>
       <c r="H176" s="15">
         <f t="shared" si="4"/>
-        <v>8892</v>
+        <v>9874</v>
       </c>
       <c r="I176" s="16">
         <f t="shared" si="5"/>
-        <v>0.1672289698605488</v>
+        <v>0.62497468098035247</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7547,28 +7532,28 @@
         <v>169</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C177" s="18">
-        <v>4031</v>
+        <v>4408</v>
       </c>
       <c r="D177" s="18">
-        <v>4249</v>
+        <v>4484</v>
       </c>
       <c r="E177" s="18">
-        <v>2508</v>
+        <v>1487</v>
       </c>
       <c r="F177" s="18">
-        <v>5771</v>
+        <v>7405</v>
       </c>
       <c r="G177" s="18"/>
       <c r="H177" s="15">
         <f t="shared" si="4"/>
-        <v>8279</v>
+        <v>8892</v>
       </c>
       <c r="I177" s="16">
         <f t="shared" si="5"/>
-        <v>0.30293513709385189</v>
+        <v>0.1672289698605488</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7576,28 +7561,28 @@
         <v>169</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C178" s="18">
-        <v>4029</v>
+        <v>4031</v>
       </c>
       <c r="D178" s="18">
-        <v>4148</v>
+        <v>4249</v>
       </c>
       <c r="E178" s="18">
-        <v>2895</v>
+        <v>2508</v>
       </c>
       <c r="F178" s="18">
-        <v>5281</v>
+        <v>5771</v>
       </c>
       <c r="G178" s="18"/>
       <c r="H178" s="15">
         <f t="shared" si="4"/>
-        <v>8176</v>
+        <v>8279</v>
       </c>
       <c r="I178" s="16">
         <f t="shared" si="5"/>
-        <v>0.35408512720156554</v>
+        <v>0.30293513709385189</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7605,28 +7590,28 @@
         <v>169</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C179" s="18">
-        <v>3631</v>
+        <v>4029</v>
       </c>
       <c r="D179" s="18">
-        <v>3714</v>
+        <v>4148</v>
       </c>
       <c r="E179" s="18">
-        <v>2772</v>
+        <v>2895</v>
       </c>
       <c r="F179" s="18">
-        <v>4573</v>
+        <v>5281</v>
       </c>
       <c r="G179" s="18"/>
       <c r="H179" s="15">
         <f t="shared" si="4"/>
-        <v>7345</v>
+        <v>8176</v>
       </c>
       <c r="I179" s="16">
         <f t="shared" si="5"/>
-        <v>0.37739959155888358</v>
+        <v>0.35408512720156554</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7634,28 +7619,28 @@
         <v>169</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C180" s="18">
-        <v>2622</v>
+        <v>3631</v>
       </c>
       <c r="D180" s="18">
-        <v>2759</v>
+        <v>3714</v>
       </c>
       <c r="E180" s="18">
-        <v>2118</v>
+        <v>2772</v>
       </c>
       <c r="F180" s="18">
-        <v>3263</v>
+        <v>4573</v>
       </c>
       <c r="G180" s="18"/>
       <c r="H180" s="15">
         <f t="shared" si="4"/>
-        <v>5381</v>
+        <v>7345</v>
       </c>
       <c r="I180" s="16">
         <f t="shared" si="5"/>
-        <v>0.39360713622003346</v>
+        <v>0.37739959155888358</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7663,28 +7648,28 @@
         <v>169</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C181" s="18">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="D181" s="18">
-        <v>2671</v>
-      </c>
-      <c r="E181" s="19">
-        <v>759</v>
+        <v>2759</v>
+      </c>
+      <c r="E181" s="18">
+        <v>2118</v>
       </c>
       <c r="F181" s="18">
-        <v>4523</v>
+        <v>3263</v>
       </c>
       <c r="G181" s="18"/>
       <c r="H181" s="15">
         <f t="shared" si="4"/>
-        <v>5282</v>
+        <v>5381</v>
       </c>
       <c r="I181" s="16">
         <f t="shared" si="5"/>
-        <v>0.14369556985990156</v>
+        <v>0.39360713622003346</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7692,28 +7677,28 @@
         <v>169</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C182" s="18">
-        <v>2518</v>
+        <v>2612</v>
       </c>
       <c r="D182" s="18">
-        <v>2647</v>
-      </c>
-      <c r="E182" s="18">
-        <v>1827</v>
+        <v>2671</v>
+      </c>
+      <c r="E182" s="19">
+        <v>759</v>
       </c>
       <c r="F182" s="18">
-        <v>3338</v>
+        <v>4523</v>
       </c>
       <c r="G182" s="18"/>
       <c r="H182" s="15">
         <f t="shared" si="4"/>
-        <v>5165</v>
+        <v>5282</v>
       </c>
       <c r="I182" s="16">
         <f t="shared" si="5"/>
-        <v>0.35372700871248791</v>
+        <v>0.14369556985990156</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7721,28 +7706,28 @@
         <v>169</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C183" s="18">
-        <v>2164</v>
+        <v>2518</v>
       </c>
       <c r="D183" s="18">
-        <v>2313</v>
+        <v>2647</v>
       </c>
       <c r="E183" s="18">
-        <v>1910</v>
+        <v>1827</v>
       </c>
       <c r="F183" s="18">
-        <v>2567</v>
+        <v>3338</v>
       </c>
       <c r="G183" s="18"/>
       <c r="H183" s="15">
         <f t="shared" si="4"/>
-        <v>4477</v>
+        <v>5165</v>
       </c>
       <c r="I183" s="16">
         <f t="shared" si="5"/>
-        <v>0.42662497207951755</v>
+        <v>0.35372700871248791</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7750,28 +7735,28 @@
         <v>169</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C184" s="18">
-        <v>2201</v>
+        <v>2164</v>
       </c>
       <c r="D184" s="18">
-        <v>2241</v>
+        <v>2313</v>
       </c>
       <c r="E184" s="18">
-        <v>1156</v>
+        <v>1910</v>
       </c>
       <c r="F184" s="18">
-        <v>3286</v>
+        <v>2567</v>
       </c>
       <c r="G184" s="18"/>
       <c r="H184" s="15">
         <f t="shared" si="4"/>
-        <v>4442</v>
+        <v>4477</v>
       </c>
       <c r="I184" s="16">
         <f t="shared" si="5"/>
-        <v>0.26024313372354796</v>
+        <v>0.42662497207951755</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7779,28 +7764,28 @@
         <v>169</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C185" s="18">
-        <v>2096</v>
+        <v>2201</v>
       </c>
       <c r="D185" s="18">
-        <v>2283</v>
+        <v>2241</v>
       </c>
       <c r="E185" s="18">
-        <v>1995</v>
+        <v>1156</v>
       </c>
       <c r="F185" s="18">
-        <v>2384</v>
+        <v>3286</v>
       </c>
       <c r="G185" s="18"/>
       <c r="H185" s="15">
         <f t="shared" si="4"/>
-        <v>4379</v>
+        <v>4442</v>
       </c>
       <c r="I185" s="16">
         <f t="shared" si="5"/>
-        <v>0.45558346654487325</v>
+        <v>0.26024313372354796</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7808,28 +7793,28 @@
         <v>169</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C186" s="18">
-        <v>1899</v>
+        <v>2096</v>
       </c>
       <c r="D186" s="18">
-        <v>1939</v>
+        <v>2283</v>
       </c>
       <c r="E186" s="18">
-        <v>2198</v>
+        <v>1995</v>
       </c>
       <c r="F186" s="18">
-        <v>1640</v>
+        <v>2384</v>
       </c>
       <c r="G186" s="18"/>
       <c r="H186" s="15">
         <f t="shared" si="4"/>
-        <v>3838</v>
+        <v>4379</v>
       </c>
       <c r="I186" s="16">
         <f t="shared" si="5"/>
-        <v>0.57269411151641481</v>
+        <v>0.45558346654487325</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7837,28 +7822,28 @@
         <v>169</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C187" s="18">
-        <v>1839</v>
+        <v>1899</v>
       </c>
       <c r="D187" s="18">
-        <v>1866</v>
+        <v>1939</v>
       </c>
       <c r="E187" s="18">
-        <v>1544</v>
+        <v>2198</v>
       </c>
       <c r="F187" s="18">
-        <v>2161</v>
+        <v>1640</v>
       </c>
       <c r="G187" s="18"/>
       <c r="H187" s="15">
         <f t="shared" si="4"/>
-        <v>3705</v>
+        <v>3838</v>
       </c>
       <c r="I187" s="16">
         <f t="shared" si="5"/>
-        <v>0.4167341430499325</v>
+        <v>0.57269411151641481</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7866,28 +7851,28 @@
         <v>169</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C188" s="18">
-        <v>1738</v>
+        <v>1839</v>
       </c>
       <c r="D188" s="18">
-        <v>1944</v>
-      </c>
-      <c r="E188" s="19">
-        <v>953</v>
+        <v>1866</v>
+      </c>
+      <c r="E188" s="18">
+        <v>1544</v>
       </c>
       <c r="F188" s="18">
-        <v>2729</v>
+        <v>2161</v>
       </c>
       <c r="G188" s="18"/>
       <c r="H188" s="15">
         <f t="shared" si="4"/>
-        <v>3682</v>
+        <v>3705</v>
       </c>
       <c r="I188" s="16">
         <f t="shared" si="5"/>
-        <v>0.25882672460619227</v>
+        <v>0.4167341430499325</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7895,28 +7880,28 @@
         <v>169</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C189" s="18">
-        <v>1592</v>
+        <v>1738</v>
       </c>
       <c r="D189" s="18">
-        <v>1521</v>
-      </c>
-      <c r="E189" s="18">
-        <v>1907</v>
+        <v>1944</v>
+      </c>
+      <c r="E189" s="19">
+        <v>953</v>
       </c>
       <c r="F189" s="18">
-        <v>1206</v>
+        <v>2729</v>
       </c>
       <c r="G189" s="18"/>
       <c r="H189" s="15">
         <f t="shared" si="4"/>
-        <v>3113</v>
+        <v>3682</v>
       </c>
       <c r="I189" s="16">
         <f t="shared" si="5"/>
-        <v>0.6125923546418246</v>
+        <v>0.25882672460619227</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7924,28 +7909,28 @@
         <v>169</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C190" s="18">
-        <v>1086</v>
+        <v>1592</v>
       </c>
       <c r="D190" s="18">
-        <v>1303</v>
-      </c>
-      <c r="E190" s="19">
-        <v>622</v>
+        <v>1521</v>
+      </c>
+      <c r="E190" s="18">
+        <v>1907</v>
       </c>
       <c r="F190" s="18">
-        <v>1768</v>
+        <v>1206</v>
       </c>
       <c r="G190" s="18"/>
       <c r="H190" s="15">
         <f t="shared" si="4"/>
-        <v>2390</v>
+        <v>3113</v>
       </c>
       <c r="I190" s="16">
         <f t="shared" si="5"/>
-        <v>0.26025104602510463</v>
+        <v>0.6125923546418246</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7953,28 +7938,28 @@
         <v>169</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C191" s="18">
-        <v>1005</v>
+        <v>1086</v>
       </c>
       <c r="D191" s="18">
-        <v>1006</v>
+        <v>1303</v>
       </c>
       <c r="E191" s="19">
-        <v>773</v>
+        <v>622</v>
       </c>
       <c r="F191" s="18">
-        <v>1238</v>
+        <v>1768</v>
       </c>
       <c r="G191" s="18"/>
       <c r="H191" s="15">
         <f t="shared" si="4"/>
-        <v>2011</v>
+        <v>2390</v>
       </c>
       <c r="I191" s="16">
         <f t="shared" si="5"/>
-        <v>0.38438587767279958</v>
+        <v>0.26025104602510463</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7982,28 +7967,28 @@
         <v>169</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C192" s="19">
-        <v>966</v>
+        <v>203</v>
+      </c>
+      <c r="C192" s="18">
+        <v>1005</v>
       </c>
       <c r="D192" s="18">
-        <v>1023</v>
+        <v>1006</v>
       </c>
       <c r="E192" s="19">
-        <v>948</v>
+        <v>773</v>
       </c>
       <c r="F192" s="18">
-        <v>1041</v>
+        <v>1238</v>
       </c>
       <c r="G192" s="18"/>
       <c r="H192" s="15">
         <f t="shared" si="4"/>
-        <v>1989</v>
+        <v>2011</v>
       </c>
       <c r="I192" s="16">
         <f t="shared" si="5"/>
-        <v>0.47662141779788841</v>
+        <v>0.38438587767279958</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8011,28 +7996,28 @@
         <v>169</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C193" s="19">
-        <v>664</v>
-      </c>
-      <c r="D193" s="19">
-        <v>748</v>
+        <v>966</v>
+      </c>
+      <c r="D193" s="18">
+        <v>1023</v>
       </c>
       <c r="E193" s="19">
-        <v>367</v>
+        <v>948</v>
       </c>
       <c r="F193" s="18">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="G193" s="18"/>
       <c r="H193" s="15">
         <f t="shared" si="4"/>
-        <v>1412</v>
+        <v>1989</v>
       </c>
       <c r="I193" s="16">
         <f t="shared" si="5"/>
-        <v>0.25991501416430596</v>
+        <v>0.47662141779788841</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8040,28 +8025,28 @@
         <v>169</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C194" s="19">
-        <v>209</v>
+        <v>664</v>
       </c>
       <c r="D194" s="19">
-        <v>217</v>
+        <v>748</v>
       </c>
       <c r="E194" s="19">
-        <v>40</v>
-      </c>
-      <c r="F194" s="19">
-        <v>386</v>
-      </c>
-      <c r="G194" s="19"/>
+        <v>367</v>
+      </c>
+      <c r="F194" s="18">
+        <v>1045</v>
+      </c>
+      <c r="G194" s="18"/>
       <c r="H194" s="15">
         <f t="shared" si="4"/>
-        <v>426</v>
+        <v>1412</v>
       </c>
       <c r="I194" s="16">
         <f t="shared" si="5"/>
-        <v>9.3896713615023469E-2</v>
+        <v>0.25991501416430596</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8069,28 +8054,28 @@
         <v>169</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C195" s="19">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D195" s="19">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="E195" s="19">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F195" s="19">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="G195" s="19"/>
       <c r="H195" s="15">
-        <f t="shared" ref="H195:H225" si="6">E195+F195</f>
-        <v>386</v>
+        <f t="shared" si="4"/>
+        <v>426</v>
       </c>
       <c r="I195" s="16">
         <f t="shared" si="5"/>
-        <v>9.8445595854922283E-2</v>
+        <v>9.3896713615023469E-2</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8098,28 +8083,28 @@
         <v>169</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C196" s="19">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="D196" s="19">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="E196" s="19">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F196" s="19">
-        <v>256</v>
+        <v>348</v>
       </c>
       <c r="G196" s="19"/>
       <c r="H196" s="15">
-        <f t="shared" si="6"/>
-        <v>278</v>
+        <f t="shared" ref="H196:H226" si="6">E196+F196</f>
+        <v>386</v>
       </c>
       <c r="I196" s="16">
-        <f t="shared" ref="I196:I225" si="7">+E196/(E196+F196)</f>
-        <v>7.9136690647482008E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.8445595854922283E-2</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8127,28 +8112,28 @@
         <v>169</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C197" s="19">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D197" s="19">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="E197" s="19">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F197" s="19">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="G197" s="19"/>
       <c r="H197" s="15">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="I197" s="16">
-        <f t="shared" si="7"/>
-        <v>5.3333333333333337E-2</v>
+        <f t="shared" ref="I197:I226" si="7">+E197/(E197+F197)</f>
+        <v>7.9136690647482008E-2</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8156,7 +8141,7 @@
         <v>169</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C198" s="19">
         <v>0</v>
@@ -8165,19 +8150,19 @@
         <v>1</v>
       </c>
       <c r="E198" s="19">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F198" s="19">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G198" s="19"/>
       <c r="H198" s="15">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I198" s="16">
         <f t="shared" si="7"/>
-        <v>0.65116279069767447</v>
+        <v>5.3333333333333337E-2</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8185,7 +8170,7 @@
         <v>169</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C199" s="19">
         <v>0</v>
@@ -8194,19 +8179,19 @@
         <v>1</v>
       </c>
       <c r="E199" s="19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F199" s="19">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G199" s="19"/>
       <c r="H199" s="15">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I199" s="16">
         <f t="shared" si="7"/>
-        <v>0.78787878787878785</v>
+        <v>0.65116279069767447</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8214,7 +8199,7 @@
         <v>169</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C200" s="19">
         <v>0</v>
@@ -8223,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="E200" s="19">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F200" s="19">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G200" s="19"/>
       <c r="H200" s="15">
@@ -8235,7 +8220,7 @@
       </c>
       <c r="I200" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.78787878787878785</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8243,7 +8228,7 @@
         <v>169</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C201" s="19">
         <v>0</v>
@@ -8252,19 +8237,19 @@
         <v>1</v>
       </c>
       <c r="E201" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" s="19">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G201" s="19"/>
       <c r="H201" s="15">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I201" s="16">
         <f t="shared" si="7"/>
-        <v>3.8461538461538464E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8272,7 +8257,7 @@
         <v>169</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C202" s="19">
         <v>0</v>
@@ -8281,7 +8266,7 @@
         <v>1</v>
       </c>
       <c r="E202" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" s="19">
         <v>25</v>
@@ -8289,40 +8274,40 @@
       <c r="G202" s="19"/>
       <c r="H202" s="15">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I202" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.8461538461538464E-2</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C203" s="18">
-        <v>9288</v>
-      </c>
-      <c r="D203" s="18">
-        <v>9413</v>
-      </c>
-      <c r="E203" s="18">
-        <v>2863</v>
-      </c>
-      <c r="F203" s="18">
-        <v>15838</v>
-      </c>
-      <c r="G203" s="18"/>
+        <v>214</v>
+      </c>
+      <c r="C203" s="19">
+        <v>0</v>
+      </c>
+      <c r="D203" s="19">
+        <v>1</v>
+      </c>
+      <c r="E203" s="19">
+        <v>0</v>
+      </c>
+      <c r="F203" s="19">
+        <v>25</v>
+      </c>
+      <c r="G203" s="19"/>
       <c r="H203" s="15">
         <f t="shared" si="6"/>
-        <v>18701</v>
+        <v>25</v>
       </c>
       <c r="I203" s="16">
         <f t="shared" si="7"/>
-        <v>0.15309341746430671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8330,28 +8315,28 @@
         <v>215</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C204" s="18">
-        <v>2423</v>
+        <v>9288</v>
       </c>
       <c r="D204" s="18">
-        <v>2279</v>
+        <v>9413</v>
       </c>
       <c r="E204" s="18">
-        <v>3897</v>
-      </c>
-      <c r="F204" s="19">
-        <v>806</v>
-      </c>
-      <c r="G204" s="19"/>
+        <v>2863</v>
+      </c>
+      <c r="F204" s="18">
+        <v>15838</v>
+      </c>
+      <c r="G204" s="18"/>
       <c r="H204" s="15">
         <f t="shared" si="6"/>
-        <v>4703</v>
+        <v>18701</v>
       </c>
       <c r="I204" s="16">
         <f t="shared" si="7"/>
-        <v>0.82862002976823301</v>
+        <v>0.15309341746430671</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8359,28 +8344,28 @@
         <v>215</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C205" s="18">
-        <v>1886</v>
+        <v>2423</v>
       </c>
       <c r="D205" s="18">
-        <v>1942</v>
-      </c>
-      <c r="E205" s="19">
-        <v>509</v>
-      </c>
-      <c r="F205" s="18">
-        <v>3320</v>
-      </c>
-      <c r="G205" s="18"/>
+        <v>2279</v>
+      </c>
+      <c r="E205" s="18">
+        <v>3897</v>
+      </c>
+      <c r="F205" s="19">
+        <v>806</v>
+      </c>
+      <c r="G205" s="19"/>
       <c r="H205" s="15">
         <f t="shared" si="6"/>
-        <v>3829</v>
+        <v>4703</v>
       </c>
       <c r="I205" s="16">
         <f t="shared" si="7"/>
-        <v>0.13293288064768868</v>
+        <v>0.82862002976823301</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8388,28 +8373,28 @@
         <v>215</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C206" s="19">
-        <v>410</v>
-      </c>
-      <c r="D206" s="19">
-        <v>396</v>
+        <v>218</v>
+      </c>
+      <c r="C206" s="18">
+        <v>1886</v>
+      </c>
+      <c r="D206" s="18">
+        <v>1942</v>
       </c>
       <c r="E206" s="19">
-        <v>468</v>
-      </c>
-      <c r="F206" s="19">
-        <v>338</v>
-      </c>
-      <c r="G206" s="19"/>
+        <v>509</v>
+      </c>
+      <c r="F206" s="18">
+        <v>3320</v>
+      </c>
+      <c r="G206" s="18"/>
       <c r="H206" s="15">
         <f t="shared" si="6"/>
-        <v>806</v>
+        <v>3829</v>
       </c>
       <c r="I206" s="16">
         <f t="shared" si="7"/>
-        <v>0.58064516129032262</v>
+        <v>0.13293288064768868</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8417,28 +8402,28 @@
         <v>215</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C207" s="19">
-        <v>221</v>
+        <v>410</v>
       </c>
       <c r="D207" s="19">
-        <v>209</v>
+        <v>396</v>
       </c>
       <c r="E207" s="19">
-        <v>348</v>
+        <v>468</v>
       </c>
       <c r="F207" s="19">
-        <v>82</v>
+        <v>338</v>
       </c>
       <c r="G207" s="19"/>
       <c r="H207" s="15">
         <f t="shared" si="6"/>
-        <v>430</v>
+        <v>806</v>
       </c>
       <c r="I207" s="16">
         <f t="shared" si="7"/>
-        <v>0.80930232558139537</v>
+        <v>0.58064516129032262</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8446,28 +8431,28 @@
         <v>215</v>
       </c>
       <c r="B208" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C208" s="19">
         <v>221</v>
       </c>
-      <c r="C208" s="19">
-        <v>119</v>
-      </c>
       <c r="D208" s="19">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="E208" s="19">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="F208" s="19">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="G208" s="19"/>
       <c r="H208" s="15">
         <f t="shared" si="6"/>
-        <v>232</v>
+        <v>430</v>
       </c>
       <c r="I208" s="16">
         <f t="shared" si="7"/>
-        <v>0.43103448275862066</v>
+        <v>0.80930232558139537</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8475,28 +8460,28 @@
         <v>215</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C209" s="19">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D209" s="19">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E209" s="19">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F209" s="19">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G209" s="19"/>
       <c r="H209" s="15">
         <f t="shared" si="6"/>
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="I209" s="16">
         <f t="shared" si="7"/>
-        <v>0.3619047619047619</v>
+        <v>0.43103448275862066</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8504,28 +8489,28 @@
         <v>215</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C210" s="19">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D210" s="19">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E210" s="19">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="F210" s="19">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="G210" s="19"/>
       <c r="H210" s="15">
         <f t="shared" si="6"/>
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="I210" s="16">
         <f t="shared" si="7"/>
-        <v>0.80540540540540539</v>
+        <v>0.3619047619047619</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8533,28 +8518,28 @@
         <v>215</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C211" s="19">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D211" s="19">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E211" s="19">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F211" s="19">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G211" s="19"/>
       <c r="H211" s="15">
         <f t="shared" si="6"/>
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="I211" s="16">
         <f t="shared" si="7"/>
-        <v>0.78531073446327682</v>
+        <v>0.80540540540540539</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8562,28 +8547,28 @@
         <v>215</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C212" s="19">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D212" s="19">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E212" s="19">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="F212" s="19">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="G212" s="19"/>
       <c r="H212" s="15">
         <f t="shared" si="6"/>
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="I212" s="16">
         <f t="shared" si="7"/>
-        <v>0.60606060606060608</v>
+        <v>0.78531073446327682</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8591,28 +8576,28 @@
         <v>215</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C213" s="19">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D213" s="19">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="E213" s="19">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F213" s="19">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G213" s="19"/>
       <c r="H213" s="15">
         <f t="shared" si="6"/>
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="I213" s="16">
         <f t="shared" si="7"/>
-        <v>0.7068965517241379</v>
+        <v>0.60606060606060608</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8620,7 +8605,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C214" s="19">
         <v>0</v>
@@ -8629,19 +8614,19 @@
         <v>1</v>
       </c>
       <c r="E214" s="19">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F214" s="19">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G214" s="19"/>
       <c r="H214" s="15">
         <f t="shared" si="6"/>
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I214" s="16">
         <f t="shared" si="7"/>
-        <v>0.55102040816326525</v>
+        <v>0.7068965517241379</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8649,7 +8634,7 @@
         <v>215</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C215" s="19">
         <v>0</v>
@@ -8658,19 +8643,19 @@
         <v>1</v>
       </c>
       <c r="E215" s="19">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F215" s="19">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G215" s="19"/>
       <c r="H215" s="15">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I215" s="16">
         <f t="shared" si="7"/>
-        <v>0.63414634146341464</v>
+        <v>0.55102040816326525</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8678,7 +8663,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C216" s="19">
         <v>0</v>
@@ -8687,19 +8672,19 @@
         <v>1</v>
       </c>
       <c r="E216" s="19">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F216" s="19">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G216" s="19"/>
       <c r="H216" s="15">
         <f t="shared" si="6"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I216" s="16">
         <f t="shared" si="7"/>
-        <v>0.45945945945945948</v>
+        <v>0.63414634146341464</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8707,7 +8692,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C217" s="19">
         <v>0</v>
@@ -8716,19 +8701,19 @@
         <v>1</v>
       </c>
       <c r="E217" s="19">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F217" s="19">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G217" s="19"/>
       <c r="H217" s="15">
         <f t="shared" si="6"/>
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I217" s="16">
         <f t="shared" si="7"/>
-        <v>0.48484848484848486</v>
+        <v>0.45945945945945948</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8736,7 +8721,7 @@
         <v>215</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C218" s="19">
         <v>0</v>
@@ -8745,19 +8730,19 @@
         <v>1</v>
       </c>
       <c r="E218" s="19">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F218" s="19">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G218" s="19"/>
       <c r="H218" s="15">
         <f t="shared" si="6"/>
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I218" s="16">
         <f t="shared" si="7"/>
-        <v>0.2857142857142857</v>
+        <v>0.48484848484848486</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8765,7 +8750,7 @@
         <v>215</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C219" s="19">
         <v>0</v>
@@ -8774,19 +8759,19 @@
         <v>1</v>
       </c>
       <c r="E219" s="19">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F219" s="19">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G219" s="19"/>
       <c r="H219" s="15">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I219" s="16">
         <f t="shared" si="7"/>
-        <v>0.35</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8794,7 +8779,7 @@
         <v>215</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C220" s="19">
         <v>0</v>
@@ -8803,19 +8788,19 @@
         <v>1</v>
       </c>
       <c r="E220" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F220" s="19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G220" s="19"/>
       <c r="H220" s="15">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I220" s="16">
         <f t="shared" si="7"/>
-        <v>0.26315789473684209</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8823,7 +8808,7 @@
         <v>215</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C221" s="19">
         <v>0</v>
@@ -8832,19 +8817,19 @@
         <v>1</v>
       </c>
       <c r="E221" s="19">
+        <v>5</v>
+      </c>
+      <c r="F221" s="19">
         <v>14</v>
-      </c>
-      <c r="F221" s="19">
-        <v>0</v>
       </c>
       <c r="G221" s="19"/>
       <c r="H221" s="15">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I221" s="16">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.26315789473684209</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8852,7 +8837,7 @@
         <v>215</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C222" s="19">
         <v>0</v>
@@ -8861,19 +8846,19 @@
         <v>1</v>
       </c>
       <c r="E222" s="19">
+        <v>14</v>
+      </c>
+      <c r="F222" s="19">
         <v>0</v>
-      </c>
-      <c r="F222" s="19">
-        <v>11</v>
       </c>
       <c r="G222" s="19"/>
       <c r="H222" s="15">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I222" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8881,7 +8866,7 @@
         <v>215</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C223" s="19">
         <v>0</v>
@@ -8890,10 +8875,10 @@
         <v>1</v>
       </c>
       <c r="E223" s="19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F223" s="19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G223" s="19"/>
       <c r="H223" s="15">
@@ -8902,7 +8887,7 @@
       </c>
       <c r="I223" s="16">
         <f t="shared" si="7"/>
-        <v>0.54545454545454541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8910,7 +8895,7 @@
         <v>215</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C224" s="19">
         <v>0</v>
@@ -8919,19 +8904,19 @@
         <v>1</v>
       </c>
       <c r="E224" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F224" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G224" s="19"/>
       <c r="H224" s="15">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I224" s="16">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8939,7 +8924,7 @@
         <v>215</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C225" s="19">
         <v>0</v>
@@ -8951,87 +8936,116 @@
         <v>1</v>
       </c>
       <c r="F225" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" s="19"/>
       <c r="H225" s="15">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" s="16">
         <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>215</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C226" s="19">
+        <v>0</v>
+      </c>
+      <c r="D226" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H226" s="8"/>
-      <c r="I226" s="9"/>
+      <c r="E226" s="19">
+        <v>1</v>
+      </c>
+      <c r="F226" s="19">
+        <v>0</v>
+      </c>
+      <c r="G226" s="19"/>
+      <c r="H226" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I226" s="16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="10" t="s">
+      <c r="H227" s="8"/>
+      <c r="I227" s="9"/>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B228" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C227" s="10" t="s">
+      <c r="C228" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D227" s="10" t="s">
+      <c r="D228" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E227" s="10" t="s">
+      <c r="E228" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F227" s="10" t="s">
+      <c r="F228" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G227" s="10"/>
-      <c r="H227" s="11" t="s">
+      <c r="G228" s="10"/>
+      <c r="H228" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I227" s="12" t="s">
+      <c r="I228" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>169</v>
       </c>
-      <c r="H228" s="8"/>
-      <c r="I228" s="20" t="s">
+      <c r="H229" s="8"/>
+      <c r="I229" s="20" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H229" s="8"/>
-      <c r="I229" s="9"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H230" s="8"/>
       <c r="I230" s="9"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>240</v>
-      </c>
-      <c r="E231">
-        <f>DCOUNTA(Poblacion,"País",A227:I228)</f>
-        <v>5</v>
-      </c>
       <c r="H231" s="8"/>
       <c r="I231" s="9"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>241</v>
-      </c>
-      <c r="E232" s="21">
-        <f>DAVERAGE(Poblacion,"Total país",A227:I228)</f>
-        <v>3380.2</v>
+        <v>240</v>
+      </c>
+      <c r="E232">
+        <f>DCOUNTA(Poblacion,"País",A228:I229)</f>
+        <v>5</v>
       </c>
       <c r="H232" s="8"/>
       <c r="I232" s="9"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>241</v>
+      </c>
+      <c r="E233" s="21">
+        <f>DAVERAGE(Poblacion,"Total país",A228:I229)</f>
+        <v>3380.2</v>
+      </c>
+      <c r="H233" s="8"/>
+      <c r="I233" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9041,6 +9055,34 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" low="1" minAxisType="group" maxAxisType="group">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C3:C58</xm:f>
+              <xm:sqref>C59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!D3:D58</xm:f>
+              <xm:sqref>D59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!E3:E58</xm:f>
+              <xm:sqref>E59</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!F3:F58</xm:f>
+              <xm:sqref>F59</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup type="column" displayEmptyCellsAs="span">
           <x14:colorSeries theme="5"/>
           <x14:colorNegative theme="6"/>
@@ -9943,6 +9985,10 @@
               <xm:f>Minigráficos!C225:F225</xm:f>
               <xm:sqref>G225</xm:sqref>
             </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Minigráficos!C226:F226</xm:f>
+              <xm:sqref>G226</xm:sqref>
+            </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
       </x14:sparklineGroups>

--- a/07/GraficosI.xlsx
+++ b/07/GraficosI.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="8955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="8955" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HistoricoMundial" sheetId="1" r:id="rId1"/>
     <sheet name="Minigráficos" sheetId="2" r:id="rId2"/>
+    <sheet name="Formas" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Poblacion">Minigráficos!$A$2:$I$226</definedName>
@@ -1997,6 +1998,453 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="14 Cubo"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="1790700"/>
+          <a:ext cx="1485900" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:effectLst>
+          <a:glow rad="228600">
+            <a:schemeClr val="accent1">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:outerShdw blurRad="76200" dist="12700" dir="8100000" sy="-23000" kx="800400" algn="br" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="20000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3312702" cy="843693"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="13 CuadroTexto"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200399" y="628650"/>
+          <a:ext cx="3312702" cy="843693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+          <a:reflection blurRad="6350" stA="50000" endA="295" endPos="92000" dist="101600" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="perspectiveContrastingRightFacing"/>
+          <a:lightRig rig="threePt" dir="t">
+            <a:rot lat="0" lon="0" rev="1200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="63500" h="25400"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="soft" dir="t">
+              <a:rot lat="0" lon="0" rev="10800000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="27940" h="12700"/>
+            <a:contourClr>
+              <a:srgbClr val="DDDDDD"/>
+            </a:contourClr>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2400" b="1" cap="none" spc="150">
+              <a:ln w="11430"/>
+              <a:solidFill>
+                <a:srgbClr val="F8F8F8"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="25400" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Manual Avanzado</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2400" b="1" cap="none" spc="150">
+              <a:ln w="11430"/>
+              <a:solidFill>
+                <a:srgbClr val="F8F8F8"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="25400" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Microsoft  Excel 2016</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 68">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="5334000" y="3048000"/>
+          <a:ext cx="1352550" cy="1847850"/>
+          <a:chOff x="978" y="61"/>
+          <a:chExt cx="128" cy="192"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="AutoShape 65"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="978" y="62"/>
+            <a:ext cx="128" cy="96"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="G0" fmla="+- 5400 0 0"/>
+              <a:gd name="G1" fmla="+- 21600 0 5400"/>
+              <a:gd name="G2" fmla="*/ 5400 1 2"/>
+              <a:gd name="G3" fmla="+- 21600 0 G2"/>
+              <a:gd name="G4" fmla="+/ 5400 21600 2"/>
+              <a:gd name="G5" fmla="+/ G1 0 2"/>
+              <a:gd name="G6" fmla="*/ 21600 21600 5400"/>
+              <a:gd name="G7" fmla="*/ G6 1 2"/>
+              <a:gd name="G8" fmla="+- 21600 0 G7"/>
+              <a:gd name="G9" fmla="*/ 21600 1 2"/>
+              <a:gd name="G10" fmla="+- 5400 0 G9"/>
+              <a:gd name="G11" fmla="?: G10 G8 0"/>
+              <a:gd name="G12" fmla="?: G10 G7 21600"/>
+              <a:gd name="T0" fmla="*/ 18900 w 21600"/>
+              <a:gd name="T1" fmla="*/ 10800 h 21600"/>
+              <a:gd name="T2" fmla="*/ 10800 w 21600"/>
+              <a:gd name="T3" fmla="*/ 21600 h 21600"/>
+              <a:gd name="T4" fmla="*/ 2700 w 21600"/>
+              <a:gd name="T5" fmla="*/ 10800 h 21600"/>
+              <a:gd name="T6" fmla="*/ 10800 w 21600"/>
+              <a:gd name="T7" fmla="*/ 0 h 21600"/>
+              <a:gd name="T8" fmla="*/ 4500 w 21600"/>
+              <a:gd name="T9" fmla="*/ 4500 h 21600"/>
+              <a:gd name="T10" fmla="*/ 17100 w 21600"/>
+              <a:gd name="T11" fmla="*/ 17100 h 21600"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="T8" t="T9" r="T10" b="T11"/>
+            <a:pathLst>
+              <a:path w="21600" h="21600">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="5400" y="21600"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="16200" y="21600"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="21600" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw sy="50000" kx="-2453608" rotWithShape="0">
+              <a:srgbClr val="808080">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="AutoShape 66"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm rot="10800000">
+            <a:off x="978" y="157"/>
+            <a:ext cx="128" cy="96"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="G0" fmla="+- 5400 0 0"/>
+              <a:gd name="G1" fmla="+- 21600 0 5400"/>
+              <a:gd name="G2" fmla="*/ 5400 1 2"/>
+              <a:gd name="G3" fmla="+- 21600 0 G2"/>
+              <a:gd name="G4" fmla="+/ 5400 21600 2"/>
+              <a:gd name="G5" fmla="+/ G1 0 2"/>
+              <a:gd name="G6" fmla="*/ 21600 21600 5400"/>
+              <a:gd name="G7" fmla="*/ G6 1 2"/>
+              <a:gd name="G8" fmla="+- 21600 0 G7"/>
+              <a:gd name="G9" fmla="*/ 21600 1 2"/>
+              <a:gd name="G10" fmla="+- 5400 0 G9"/>
+              <a:gd name="G11" fmla="?: G10 G8 0"/>
+              <a:gd name="G12" fmla="?: G10 G7 21600"/>
+              <a:gd name="T0" fmla="*/ 18900 w 21600"/>
+              <a:gd name="T1" fmla="*/ 10800 h 21600"/>
+              <a:gd name="T2" fmla="*/ 10800 w 21600"/>
+              <a:gd name="T3" fmla="*/ 21600 h 21600"/>
+              <a:gd name="T4" fmla="*/ 2700 w 21600"/>
+              <a:gd name="T5" fmla="*/ 10800 h 21600"/>
+              <a:gd name="T6" fmla="*/ 10800 w 21600"/>
+              <a:gd name="T7" fmla="*/ 0 h 21600"/>
+              <a:gd name="T8" fmla="*/ 4500 w 21600"/>
+              <a:gd name="T9" fmla="*/ 4500 h 21600"/>
+              <a:gd name="T10" fmla="*/ 17100 w 21600"/>
+              <a:gd name="T11" fmla="*/ 17100 h 21600"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="T8" t="T9" r="T10" b="T11"/>
+            <a:pathLst>
+              <a:path w="21600" h="21600">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="5400" y="21600"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="16200" y="21600"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="21600" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw sy="50000" kx="-2453608" rotWithShape="0">
+              <a:srgbClr val="808080">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="AutoShape 67"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="994" y="61"/>
+            <a:ext cx="96" cy="96"/>
+          </a:xfrm>
+          <a:prstGeom prst="sun">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 25000"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:scene3d>
+            <a:camera prst="legacyObliqueTopRight"/>
+            <a:lightRig rig="legacyFlat3" dir="b"/>
+          </a:scene3d>
+          <a:sp3d extrusionH="11100" prstMaterial="legacyMatte">
+            <a:bevelT w="13500" h="13500" prst="angle"/>
+            <a:bevelB w="13500" h="13500" prst="angle"/>
+            <a:extrusionClr>
+              <a:srgbClr val="FFFFFF"/>
+            </a:extrusionClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2446,7 +2894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C59" sqref="C59:F59"/>
     </sheetView>
   </sheetViews>
@@ -9995,4 +10443,19 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/07/GraficosI.xlsx
+++ b/07/GraficosI.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="8955" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="8955" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HistoricoMundial" sheetId="1" r:id="rId1"/>
     <sheet name="Minigráficos" sheetId="2" r:id="rId2"/>
     <sheet name="Formas" sheetId="3" r:id="rId3"/>
+    <sheet name="Imágenes" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Poblacion">Minigráficos!$A$2:$I$226</definedName>
@@ -2445,6 +2446,76 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 73">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="762000" y="571500"/>
+          <a:ext cx="5695950" cy="3790950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="152400" dist="12000" dir="900000" sy="98000" kx="110000" ky="200000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="30000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="perspectiveRelaxed">
+            <a:rot lat="19800000" lon="1200000" rev="20820000"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d contourW="6350" prstMaterial="matte">
+          <a:bevelT w="101600" h="101600"/>
+          <a:contourClr>
+            <a:srgbClr val="969696"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -10449,7 +10520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -10458,4 +10529,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/07/GraficosI.xlsx
+++ b/07/GraficosI.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="8955" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21300" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="HistoricoMundial" sheetId="1" r:id="rId1"/>
     <sheet name="Minigráficos" sheetId="2" r:id="rId2"/>
     <sheet name="Formas" sheetId="3" r:id="rId3"/>
     <sheet name="Imágenes" sheetId="4" r:id="rId4"/>
+    <sheet name="SmartArts" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Poblacion">Minigráficos!$A$2:$I$226</definedName>
   </definedNames>
@@ -1408,6 +1412,431 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Población mundial</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>HistoricoMundial!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HistoricoMundial!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>1262</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>2751</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0">
+                  <c:v>3018</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0">
+                  <c:v>3335</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="#,##0">
+                  <c:v>3697</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0">
+                  <c:v>4077</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="#,##0">
+                  <c:v>4446</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="#,##0">
+                  <c:v>4854</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>5259</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="#,##0">
+                  <c:v>5759</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>6228</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>6574</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>6894</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>7349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-13BD-4602-92BD-B4D2344E5C9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines/>
+        <c:smooth val="0"/>
+        <c:axId val="234586576"/>
+        <c:axId val="234584400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="234586576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Año</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="234584400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="234584400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Habitantes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-ES" baseline="0"/>
+                  <a:t> (millones)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.2409240924092403E-2"/>
+              <c:y val="0.31637453183520597"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="234586576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="0"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="0"/>
+        <c:showKeys val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:alphaModFix amt="26000"/>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000"/>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43805605363685968"/>
+          <c:y val="0.90387142056681113"/>
+          <c:w val="0.30429631856877076"/>
+          <c:h val="7.8738147093315461E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent6">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1964,6 +2393,7805 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful4">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="colorful" pri="10400"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst/>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful5">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="colorful" pri="10500"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst/>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent6">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{D45F8AB6-ECBF-4050-A991-8AEA0BCF717F}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d1" qsCatId="3D" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/colorful4" csCatId="colorful" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES"/>
+            <a:t>Raíz</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{696637CA-A189-41FA-A89D-123325D0CA68}" type="parTrans" cxnId="{5E94EE8B-6DC7-4F05-A239-BEC4FD3D1919}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C19E35D9-D9FC-4225-AE10-5ACA7DF3A9A5}" type="sibTrans" cxnId="{5E94EE8B-6DC7-4F05-A239-BEC4FD3D1919}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E33487D2-8868-4C3A-A49B-D6B9DB46C674}" type="asst">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES"/>
+            <a:t>Ayudante</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F26CC1C5-B9F2-48C3-8365-82FBEDC73CA2}" type="parTrans" cxnId="{4205DCED-5057-4FF3-8B00-C90E61A16D46}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{54731621-A1E8-4223-836A-FD2398984CDB}" type="sibTrans" cxnId="{4205DCED-5057-4FF3-8B00-C90E61A16D46}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E708E406-77BF-419B-895A-6F45F0FFAB23}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES"/>
+            <a:t>Subordinado</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AAA5EC6E-C21C-484D-87CD-C213070C7619}" type="parTrans" cxnId="{4F3B8B08-9753-4474-927B-94AEB8E5BF34}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A47D811A-6957-4368-BDE9-709DBE4295A1}" type="sibTrans" cxnId="{4F3B8B08-9753-4474-927B-94AEB8E5BF34}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F4E8F386-4812-440F-88EA-4096D45EACE1}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES"/>
+            <a:t>Subordinado</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A2CF33A7-F8AB-487A-8045-249701B6A12A}" type="parTrans" cxnId="{EB1C1AF5-5287-40DF-B1F8-AACDE965A799}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B183A82E-E5B3-4E48-9D2A-763AB6B86D62}" type="sibTrans" cxnId="{EB1C1AF5-5287-40DF-B1F8-AACDE965A799}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{23791C10-5FCD-44E3-A53E-B130EA4838D5}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES"/>
+            <a:t>Subordinado</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B4F79EAF-3487-4CEF-9E13-03CF73C255CC}" type="parTrans" cxnId="{B0F5A392-DA32-49E8-B02C-3FF03DFE3536}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EABE81A3-E4E0-4E2E-B7CD-8871F519C3CD}" type="sibTrans" cxnId="{B0F5A392-DA32-49E8-B02C-3FF03DFE3536}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E8EFCD56-67EA-4238-B70B-074317D52B4C}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES"/>
+            <a:t>Dependiente</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F98B926E-9771-4EE4-B69B-304171C4B929}" type="parTrans" cxnId="{77EFB785-726F-47C2-9E23-0992376BA247}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{02CAA261-CE9E-4D5C-8AA9-C9606CB9CB78}" type="sibTrans" cxnId="{77EFB785-726F-47C2-9E23-0992376BA247}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4EB24459-53D2-47F2-AA6D-37E1EEE5FC0A}" type="pres">
+      <dgm:prSet presAssocID="{D45F8AB6-ECBF-4050-A991-8AEA0BCF717F}" presName="hierChild1" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:orgChart val="1"/>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{92B0A344-85A6-4967-B315-70C6E1330C34}" type="pres">
+      <dgm:prSet presAssocID="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" presName="hierRoot1" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2B253D93-0E4F-49CC-8B08-5AD0A7F72670}" type="pres">
+      <dgm:prSet presAssocID="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" presName="rootComposite1" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D1A58788-F485-45E8-AA88-783DA78174F9}" type="pres">
+      <dgm:prSet presAssocID="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BBD5E858-857F-44E7-8646-6C25A873082D}" type="pres">
+      <dgm:prSet presAssocID="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F87BABE5-5B59-4D37-9F0E-EF390F92C21D}" type="pres">
+      <dgm:prSet presAssocID="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" presName="hierChild2" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{341FF034-43AB-45E9-B776-58717DD1927A}" type="pres">
+      <dgm:prSet presAssocID="{AAA5EC6E-C21C-484D-87CD-C213070C7619}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CA64F7BD-7F22-4E04-87D2-84A11DC98DAF}" type="pres">
+      <dgm:prSet presAssocID="{E708E406-77BF-419B-895A-6F45F0FFAB23}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F7858E11-DF3D-467E-BCEE-82A4E466F643}" type="pres">
+      <dgm:prSet presAssocID="{E708E406-77BF-419B-895A-6F45F0FFAB23}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FA916528-550F-459B-855D-6E5D5DEF42CD}" type="pres">
+      <dgm:prSet presAssocID="{E708E406-77BF-419B-895A-6F45F0FFAB23}" presName="rootText" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BA7F7588-C454-48AD-8ECA-55A67B4F9701}" type="pres">
+      <dgm:prSet presAssocID="{E708E406-77BF-419B-895A-6F45F0FFAB23}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7A73AB72-9288-41E2-9E56-D034E79E09B5}" type="pres">
+      <dgm:prSet presAssocID="{E708E406-77BF-419B-895A-6F45F0FFAB23}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{18960F96-23AC-4AF5-8155-3E3A7D98E90C}" type="pres">
+      <dgm:prSet presAssocID="{E708E406-77BF-419B-895A-6F45F0FFAB23}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8E735F89-F763-45CD-B75F-577F3D5F76FA}" type="pres">
+      <dgm:prSet presAssocID="{A2CF33A7-F8AB-487A-8045-249701B6A12A}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{64265852-2784-48A4-A486-76FFA41944EA}" type="pres">
+      <dgm:prSet presAssocID="{F4E8F386-4812-440F-88EA-4096D45EACE1}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{83747B03-D59A-46DE-8A43-2C58B779E9FE}" type="pres">
+      <dgm:prSet presAssocID="{F4E8F386-4812-440F-88EA-4096D45EACE1}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B1CCAC34-31E1-41AD-A7A0-A696B931CF02}" type="pres">
+      <dgm:prSet presAssocID="{F4E8F386-4812-440F-88EA-4096D45EACE1}" presName="rootText" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B8B2EFE6-4D12-429C-9E6E-1AC72DFCC64D}" type="pres">
+      <dgm:prSet presAssocID="{F4E8F386-4812-440F-88EA-4096D45EACE1}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A4CE49EC-1C20-44B1-A559-CB36FBF8B0FA}" type="pres">
+      <dgm:prSet presAssocID="{F4E8F386-4812-440F-88EA-4096D45EACE1}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{258BFC84-7E62-4092-B817-9B643C393C95}" type="pres">
+      <dgm:prSet presAssocID="{F4E8F386-4812-440F-88EA-4096D45EACE1}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8A179BD0-5EF7-453F-8479-84B8F4D66E1F}" type="pres">
+      <dgm:prSet presAssocID="{B4F79EAF-3487-4CEF-9E13-03CF73C255CC}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{907BA0A4-04E4-42D7-9B67-A3102427F2CC}" type="pres">
+      <dgm:prSet presAssocID="{23791C10-5FCD-44E3-A53E-B130EA4838D5}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E454AA3E-4654-4C22-A853-826871F390BF}" type="pres">
+      <dgm:prSet presAssocID="{23791C10-5FCD-44E3-A53E-B130EA4838D5}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4F0D2E7F-6B64-4605-8C7A-FB2D903106F6}" type="pres">
+      <dgm:prSet presAssocID="{23791C10-5FCD-44E3-A53E-B130EA4838D5}" presName="rootText" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C82010B3-5012-43C4-9FF0-CEF622A6106B}" type="pres">
+      <dgm:prSet presAssocID="{23791C10-5FCD-44E3-A53E-B130EA4838D5}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5BF17632-237E-4DC5-96CA-5857E80600A8}" type="pres">
+      <dgm:prSet presAssocID="{23791C10-5FCD-44E3-A53E-B130EA4838D5}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1150EBEC-82AF-45D3-986F-D290EB49CD05}" type="pres">
+      <dgm:prSet presAssocID="{F98B926E-9771-4EE4-B69B-304171C4B929}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{156AA941-300F-4334-8290-B57F548251A6}" type="pres">
+      <dgm:prSet presAssocID="{E8EFCD56-67EA-4238-B70B-074317D52B4C}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0FEFC09F-8137-4354-9AD0-3ABC5B653386}" type="pres">
+      <dgm:prSet presAssocID="{E8EFCD56-67EA-4238-B70B-074317D52B4C}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{168534F7-F84B-4226-9854-4FEFC01FF4AA}" type="pres">
+      <dgm:prSet presAssocID="{E8EFCD56-67EA-4238-B70B-074317D52B4C}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CD06159A-6B74-488C-A0A1-841B51AAA4E7}" type="pres">
+      <dgm:prSet presAssocID="{E8EFCD56-67EA-4238-B70B-074317D52B4C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AFB2A08C-9B6B-4CF6-A9B7-62206B5ACF3F}" type="pres">
+      <dgm:prSet presAssocID="{E8EFCD56-67EA-4238-B70B-074317D52B4C}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{29F6E565-603C-404A-9C33-568A57ABEAC2}" type="pres">
+      <dgm:prSet presAssocID="{E8EFCD56-67EA-4238-B70B-074317D52B4C}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5B92FED1-23A4-4EDC-B702-9772108B96D1}" type="pres">
+      <dgm:prSet presAssocID="{23791C10-5FCD-44E3-A53E-B130EA4838D5}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0E4AC134-E170-4370-912F-9689CA4D1179}" type="pres">
+      <dgm:prSet presAssocID="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{91503FB7-04E2-48B9-970E-C11747EA4AFB}" type="pres">
+      <dgm:prSet presAssocID="{F26CC1C5-B9F2-48C3-8365-82FBEDC73CA2}" presName="Name111" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{101E2207-3C23-4F87-BDDC-AEB39EA6E9D4}" type="pres">
+      <dgm:prSet presAssocID="{E33487D2-8868-4C3A-A49B-D6B9DB46C674}" presName="hierRoot3" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{624BC5F1-F4BF-4CAB-B993-CA428A6F4A31}" type="pres">
+      <dgm:prSet presAssocID="{E33487D2-8868-4C3A-A49B-D6B9DB46C674}" presName="rootComposite3" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C80CDC21-5A35-4E13-8051-B2B4DE88B3A9}" type="pres">
+      <dgm:prSet presAssocID="{E33487D2-8868-4C3A-A49B-D6B9DB46C674}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0DD6554A-5C37-4FC9-BFD4-87F5A5007CA4}" type="pres">
+      <dgm:prSet presAssocID="{E33487D2-8868-4C3A-A49B-D6B9DB46C674}" presName="rootConnector3" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{60E2BC85-9505-40A3-8FB4-90AD7E1F14E6}" type="pres">
+      <dgm:prSet presAssocID="{E33487D2-8868-4C3A-A49B-D6B9DB46C674}" presName="hierChild6" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1B50C0B0-E0CA-455B-9420-E83462C150C1}" type="pres">
+      <dgm:prSet presAssocID="{E33487D2-8868-4C3A-A49B-D6B9DB46C674}" presName="hierChild7" presStyleCnt="0"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{D2A78CB2-745F-4AAB-B316-5AAEB54395AA}" type="presOf" srcId="{AAA5EC6E-C21C-484D-87CD-C213070C7619}" destId="{341FF034-43AB-45E9-B776-58717DD1927A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4205DCED-5057-4FF3-8B00-C90E61A16D46}" srcId="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" destId="{E33487D2-8868-4C3A-A49B-D6B9DB46C674}" srcOrd="0" destOrd="0" parTransId="{F26CC1C5-B9F2-48C3-8365-82FBEDC73CA2}" sibTransId="{54731621-A1E8-4223-836A-FD2398984CDB}"/>
+    <dgm:cxn modelId="{77EFB785-726F-47C2-9E23-0992376BA247}" srcId="{23791C10-5FCD-44E3-A53E-B130EA4838D5}" destId="{E8EFCD56-67EA-4238-B70B-074317D52B4C}" srcOrd="0" destOrd="0" parTransId="{F98B926E-9771-4EE4-B69B-304171C4B929}" sibTransId="{02CAA261-CE9E-4D5C-8AA9-C9606CB9CB78}"/>
+    <dgm:cxn modelId="{19FAFE4B-3294-4963-9857-30775AECE2A2}" type="presOf" srcId="{F98B926E-9771-4EE4-B69B-304171C4B929}" destId="{1150EBEC-82AF-45D3-986F-D290EB49CD05}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{42DF58EC-D9AA-476B-8E65-C3EA0AB1DC91}" type="presOf" srcId="{E8EFCD56-67EA-4238-B70B-074317D52B4C}" destId="{CD06159A-6B74-488C-A0A1-841B51AAA4E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9C9BC2B1-F6E8-4197-A769-2382006A077F}" type="presOf" srcId="{23791C10-5FCD-44E3-A53E-B130EA4838D5}" destId="{4F0D2E7F-6B64-4605-8C7A-FB2D903106F6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5E94EE8B-6DC7-4F05-A239-BEC4FD3D1919}" srcId="{D45F8AB6-ECBF-4050-A991-8AEA0BCF717F}" destId="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" srcOrd="0" destOrd="0" parTransId="{696637CA-A189-41FA-A89D-123325D0CA68}" sibTransId="{C19E35D9-D9FC-4225-AE10-5ACA7DF3A9A5}"/>
+    <dgm:cxn modelId="{8EC8635F-004F-4DC1-80DB-4FC4382DD8A7}" type="presOf" srcId="{B4F79EAF-3487-4CEF-9E13-03CF73C255CC}" destId="{8A179BD0-5EF7-453F-8479-84B8F4D66E1F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{509A4971-BD8B-4F40-86FB-2B7BA9D313DE}" type="presOf" srcId="{F26CC1C5-B9F2-48C3-8365-82FBEDC73CA2}" destId="{91503FB7-04E2-48B9-970E-C11747EA4AFB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{82D5038C-2963-4D60-B750-307A1C4BBC6D}" type="presOf" srcId="{E708E406-77BF-419B-895A-6F45F0FFAB23}" destId="{BA7F7588-C454-48AD-8ECA-55A67B4F9701}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C5BD704B-B97D-4C4C-9A62-0B1C92B9D087}" type="presOf" srcId="{23791C10-5FCD-44E3-A53E-B130EA4838D5}" destId="{C82010B3-5012-43C4-9FF0-CEF622A6106B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{004F827C-523A-498F-8D59-A0EECFB30573}" type="presOf" srcId="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" destId="{BBD5E858-857F-44E7-8646-6C25A873082D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2949DB8B-0FD6-4455-A18F-4AFBCFF27F08}" type="presOf" srcId="{E33487D2-8868-4C3A-A49B-D6B9DB46C674}" destId="{0DD6554A-5C37-4FC9-BFD4-87F5A5007CA4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F4FFDEEC-E043-4D50-B813-647AD2FE9371}" type="presOf" srcId="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" destId="{D1A58788-F485-45E8-AA88-783DA78174F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{09BA84B7-4C38-4CDC-B743-0777A7D67222}" type="presOf" srcId="{F4E8F386-4812-440F-88EA-4096D45EACE1}" destId="{B8B2EFE6-4D12-429C-9E6E-1AC72DFCC64D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EB1C1AF5-5287-40DF-B1F8-AACDE965A799}" srcId="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" destId="{F4E8F386-4812-440F-88EA-4096D45EACE1}" srcOrd="2" destOrd="0" parTransId="{A2CF33A7-F8AB-487A-8045-249701B6A12A}" sibTransId="{B183A82E-E5B3-4E48-9D2A-763AB6B86D62}"/>
+    <dgm:cxn modelId="{A81843B8-F38D-4B63-8B32-AE0B97692AD3}" type="presOf" srcId="{A2CF33A7-F8AB-487A-8045-249701B6A12A}" destId="{8E735F89-F763-45CD-B75F-577F3D5F76FA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B0F5A392-DA32-49E8-B02C-3FF03DFE3536}" srcId="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" destId="{23791C10-5FCD-44E3-A53E-B130EA4838D5}" srcOrd="3" destOrd="0" parTransId="{B4F79EAF-3487-4CEF-9E13-03CF73C255CC}" sibTransId="{EABE81A3-E4E0-4E2E-B7CD-8871F519C3CD}"/>
+    <dgm:cxn modelId="{4F3B8B08-9753-4474-927B-94AEB8E5BF34}" srcId="{D7ED076B-FBEF-4C5E-98B9-BBC81277690D}" destId="{E708E406-77BF-419B-895A-6F45F0FFAB23}" srcOrd="1" destOrd="0" parTransId="{AAA5EC6E-C21C-484D-87CD-C213070C7619}" sibTransId="{A47D811A-6957-4368-BDE9-709DBE4295A1}"/>
+    <dgm:cxn modelId="{BC74FF71-3193-4E1B-B67B-2845AEC6673B}" type="presOf" srcId="{D45F8AB6-ECBF-4050-A991-8AEA0BCF717F}" destId="{4EB24459-53D2-47F2-AA6D-37E1EEE5FC0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C4CEBC8E-58B9-4813-B94C-F184EB49D41C}" type="presOf" srcId="{E8EFCD56-67EA-4238-B70B-074317D52B4C}" destId="{168534F7-F84B-4226-9854-4FEFC01FF4AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{04187B1E-6EC2-4588-AA56-3CBDE94166C6}" type="presOf" srcId="{F4E8F386-4812-440F-88EA-4096D45EACE1}" destId="{B1CCAC34-31E1-41AD-A7A0-A696B931CF02}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{761A7B2E-30AE-4120-9709-B3D4C9559796}" type="presOf" srcId="{E33487D2-8868-4C3A-A49B-D6B9DB46C674}" destId="{C80CDC21-5A35-4E13-8051-B2B4DE88B3A9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7A80F456-EB83-40FB-8E9D-A140169A3BCD}" type="presOf" srcId="{E708E406-77BF-419B-895A-6F45F0FFAB23}" destId="{FA916528-550F-459B-855D-6E5D5DEF42CD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{14B3D957-1266-4C20-878D-E4336F942390}" type="presParOf" srcId="{4EB24459-53D2-47F2-AA6D-37E1EEE5FC0A}" destId="{92B0A344-85A6-4967-B315-70C6E1330C34}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B721083C-E0D9-40E3-AD9D-3326B1D09EB9}" type="presParOf" srcId="{92B0A344-85A6-4967-B315-70C6E1330C34}" destId="{2B253D93-0E4F-49CC-8B08-5AD0A7F72670}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{713CEEF8-88D1-4083-9B11-97DBCDBEAC89}" type="presParOf" srcId="{2B253D93-0E4F-49CC-8B08-5AD0A7F72670}" destId="{D1A58788-F485-45E8-AA88-783DA78174F9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{72C80B72-A73D-47A2-A223-1E254E6DB99C}" type="presParOf" srcId="{2B253D93-0E4F-49CC-8B08-5AD0A7F72670}" destId="{BBD5E858-857F-44E7-8646-6C25A873082D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{753E6729-2DF2-4E9F-9C2B-01E46B65C087}" type="presParOf" srcId="{92B0A344-85A6-4967-B315-70C6E1330C34}" destId="{F87BABE5-5B59-4D37-9F0E-EF390F92C21D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1870E302-430D-48AF-8564-B74D6DB3F80C}" type="presParOf" srcId="{F87BABE5-5B59-4D37-9F0E-EF390F92C21D}" destId="{341FF034-43AB-45E9-B776-58717DD1927A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D2A515E8-95F9-40A2-96DA-122A8585955C}" type="presParOf" srcId="{F87BABE5-5B59-4D37-9F0E-EF390F92C21D}" destId="{CA64F7BD-7F22-4E04-87D2-84A11DC98DAF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{83B8BF7D-5316-4D85-8F2A-A554037C9C20}" type="presParOf" srcId="{CA64F7BD-7F22-4E04-87D2-84A11DC98DAF}" destId="{F7858E11-DF3D-467E-BCEE-82A4E466F643}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{00C506A5-7358-4DE9-B246-C558276C9D17}" type="presParOf" srcId="{F7858E11-DF3D-467E-BCEE-82A4E466F643}" destId="{FA916528-550F-459B-855D-6E5D5DEF42CD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D5DAF164-6A8D-4274-8545-D2903861410C}" type="presParOf" srcId="{F7858E11-DF3D-467E-BCEE-82A4E466F643}" destId="{BA7F7588-C454-48AD-8ECA-55A67B4F9701}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{34E8AD7D-9CCC-46A1-AC5C-DAEB23D82847}" type="presParOf" srcId="{CA64F7BD-7F22-4E04-87D2-84A11DC98DAF}" destId="{7A73AB72-9288-41E2-9E56-D034E79E09B5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D7512494-3C75-41AA-94E5-B0B1C6B2EAEB}" type="presParOf" srcId="{CA64F7BD-7F22-4E04-87D2-84A11DC98DAF}" destId="{18960F96-23AC-4AF5-8155-3E3A7D98E90C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C5141749-3835-49F2-8040-0F636DEC2A6D}" type="presParOf" srcId="{F87BABE5-5B59-4D37-9F0E-EF390F92C21D}" destId="{8E735F89-F763-45CD-B75F-577F3D5F76FA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F63D8145-2C4E-4D15-BE80-E12A5399AF21}" type="presParOf" srcId="{F87BABE5-5B59-4D37-9F0E-EF390F92C21D}" destId="{64265852-2784-48A4-A486-76FFA41944EA}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AD752202-F6F9-43CD-B855-A0390AE03024}" type="presParOf" srcId="{64265852-2784-48A4-A486-76FFA41944EA}" destId="{83747B03-D59A-46DE-8A43-2C58B779E9FE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1C8ACDC6-FEFA-4FAB-8479-AB9B9E6705C7}" type="presParOf" srcId="{83747B03-D59A-46DE-8A43-2C58B779E9FE}" destId="{B1CCAC34-31E1-41AD-A7A0-A696B931CF02}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FC5FCC42-E408-4722-B186-7375E9429F24}" type="presParOf" srcId="{83747B03-D59A-46DE-8A43-2C58B779E9FE}" destId="{B8B2EFE6-4D12-429C-9E6E-1AC72DFCC64D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7D095268-2589-4582-B8AB-D78482A45D82}" type="presParOf" srcId="{64265852-2784-48A4-A486-76FFA41944EA}" destId="{A4CE49EC-1C20-44B1-A559-CB36FBF8B0FA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D5825FB8-70E9-4425-A10A-2C01D8EACF70}" type="presParOf" srcId="{64265852-2784-48A4-A486-76FFA41944EA}" destId="{258BFC84-7E62-4092-B817-9B643C393C95}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{006607E5-4DB5-403B-946A-1141A99FBFDF}" type="presParOf" srcId="{F87BABE5-5B59-4D37-9F0E-EF390F92C21D}" destId="{8A179BD0-5EF7-453F-8479-84B8F4D66E1F}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F0F660AA-CA56-479B-A20F-8D99464009EE}" type="presParOf" srcId="{F87BABE5-5B59-4D37-9F0E-EF390F92C21D}" destId="{907BA0A4-04E4-42D7-9B67-A3102427F2CC}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{503C0710-C26B-4F0B-BE3F-3113FC7090AF}" type="presParOf" srcId="{907BA0A4-04E4-42D7-9B67-A3102427F2CC}" destId="{E454AA3E-4654-4C22-A853-826871F390BF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7146C6E1-E398-4FEF-9A56-7B5CC3289F0F}" type="presParOf" srcId="{E454AA3E-4654-4C22-A853-826871F390BF}" destId="{4F0D2E7F-6B64-4605-8C7A-FB2D903106F6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5C377E3C-F879-42D3-88A5-C76F7A8AC409}" type="presParOf" srcId="{E454AA3E-4654-4C22-A853-826871F390BF}" destId="{C82010B3-5012-43C4-9FF0-CEF622A6106B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5C280E31-71FE-43C9-8D6A-5D669BF00AEB}" type="presParOf" srcId="{907BA0A4-04E4-42D7-9B67-A3102427F2CC}" destId="{5BF17632-237E-4DC5-96CA-5857E80600A8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CC154580-C093-4E65-AE1A-259B99544C26}" type="presParOf" srcId="{5BF17632-237E-4DC5-96CA-5857E80600A8}" destId="{1150EBEC-82AF-45D3-986F-D290EB49CD05}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F92092EB-6B87-49DF-801D-A5431C4B4845}" type="presParOf" srcId="{5BF17632-237E-4DC5-96CA-5857E80600A8}" destId="{156AA941-300F-4334-8290-B57F548251A6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AA5202DA-C132-4B39-B4D2-92E5FBD1184F}" type="presParOf" srcId="{156AA941-300F-4334-8290-B57F548251A6}" destId="{0FEFC09F-8137-4354-9AD0-3ABC5B653386}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{31CDFD77-9045-46F4-BBB3-D61E0C25B443}" type="presParOf" srcId="{0FEFC09F-8137-4354-9AD0-3ABC5B653386}" destId="{168534F7-F84B-4226-9854-4FEFC01FF4AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AE7A132C-933C-4D1B-A60F-78F6EF43CCB2}" type="presParOf" srcId="{0FEFC09F-8137-4354-9AD0-3ABC5B653386}" destId="{CD06159A-6B74-488C-A0A1-841B51AAA4E7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1537B328-49F3-4930-BEB8-D4F6D3C7D2CA}" type="presParOf" srcId="{156AA941-300F-4334-8290-B57F548251A6}" destId="{AFB2A08C-9B6B-4CF6-A9B7-62206B5ACF3F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9B6341DE-1296-44EC-8A4C-01992D4E45D2}" type="presParOf" srcId="{156AA941-300F-4334-8290-B57F548251A6}" destId="{29F6E565-603C-404A-9C33-568A57ABEAC2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{15D308ED-2306-4467-B758-A70FABF2869B}" type="presParOf" srcId="{907BA0A4-04E4-42D7-9B67-A3102427F2CC}" destId="{5B92FED1-23A4-4EDC-B702-9772108B96D1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F673093F-E749-4765-94B7-49003D3B0BB9}" type="presParOf" srcId="{92B0A344-85A6-4967-B315-70C6E1330C34}" destId="{0E4AC134-E170-4370-912F-9689CA4D1179}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EC265FF3-BDCF-4AEC-B43A-4D6957D7937F}" type="presParOf" srcId="{0E4AC134-E170-4370-912F-9689CA4D1179}" destId="{91503FB7-04E2-48B9-970E-C11747EA4AFB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C6DF8CBE-2809-4139-BEF9-D8B0F38E320D}" type="presParOf" srcId="{0E4AC134-E170-4370-912F-9689CA4D1179}" destId="{101E2207-3C23-4F87-BDDC-AEB39EA6E9D4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6868E69B-F941-460E-A3F1-41D227230092}" type="presParOf" srcId="{101E2207-3C23-4F87-BDDC-AEB39EA6E9D4}" destId="{624BC5F1-F4BF-4CAB-B993-CA428A6F4A31}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{45BA488D-9C05-4B31-AECB-8AE52798722D}" type="presParOf" srcId="{624BC5F1-F4BF-4CAB-B993-CA428A6F4A31}" destId="{C80CDC21-5A35-4E13-8051-B2B4DE88B3A9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{262EE3CE-3332-4CCA-98C5-7A6996C023A1}" type="presParOf" srcId="{624BC5F1-F4BF-4CAB-B993-CA428A6F4A31}" destId="{0DD6554A-5C37-4FC9-BFD4-87F5A5007CA4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{084940E6-3A4E-4723-B033-BBEF9991E1F7}" type="presParOf" srcId="{101E2207-3C23-4F87-BDDC-AEB39EA6E9D4}" destId="{60E2BC85-9505-40A3-8FB4-90AD7E1F14E6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CA50082B-BB2A-449B-8196-1B08D645B19C}" type="presParOf" srcId="{101E2207-3C23-4F87-BDDC-AEB39EA6E9D4}" destId="{1B50C0B0-E0CA-455B-9420-E83462C150C1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{EFC3EEA8-03BC-42FD-AB56-B50398B1FF9F}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1" loCatId="relationship" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d1" qsCatId="3D" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/colorful5" csCatId="colorful" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0EDC2244-9CAE-4E3D-BAD6-EF164A7AE272}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr>
+        <a:blipFill rotWithShape="0">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Servicios</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ED9966CF-2FF0-4592-8F0A-2EE8BB0E3DDB}" type="parTrans" cxnId="{CB394FFF-9D28-413E-ADF0-302F766D9772}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{93B93611-67B8-4D66-B13E-220FEED58454}" type="sibTrans" cxnId="{CB394FFF-9D28-413E-ADF0-302F766D9772}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{82E12CBE-4E2B-434E-B8F9-C1EBE2841E80}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr>
+        <a:blipFill rotWithShape="0">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES"/>
+            <a:t>Agricultura</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A576B8F6-5BE7-4AAC-B844-C445AD1E1FB3}" type="parTrans" cxnId="{E240117A-EC87-422D-82C1-242AEDBAC1AE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{29677439-50E6-4B85-87EB-AF8D5046D72E}" type="sibTrans" cxnId="{E240117A-EC87-422D-82C1-242AEDBAC1AE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{15E9853F-46DF-4A7C-8EBC-28359E004687}">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr>
+        <a:blipFill rotWithShape="0">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Industria</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7FDDA0AB-62DE-4CC1-8464-5EFC660BD2CD}" type="parTrans" cxnId="{905F9ADB-D9A9-4B39-848D-2FA3C6104F14}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F45F7233-A2E5-4515-9B1F-F1E1F17D9E4D}" type="sibTrans" cxnId="{905F9ADB-D9A9-4B39-848D-2FA3C6104F14}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1586198C-2498-482D-B9F6-1626819C3211}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES"/>
+            <a:t>IPC</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F7D5D5AE-1B6A-47C6-96D4-73BF2D247783}" type="parTrans" cxnId="{A277E6FA-D03B-48FB-8816-28033FAAB45D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8963DDCB-3A53-49F2-8A26-9796BC8C625A}" type="sibTrans" cxnId="{A277E6FA-D03B-48FB-8816-28033FAAB45D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{315D7E90-DFDF-4A16-8BBA-B546B92406A8}" type="pres">
+      <dgm:prSet presAssocID="{EFC3EEA8-03BC-42FD-AB56-B50398B1FF9F}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="4"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{98DC22D0-2BB2-4CA2-AA09-AA713D0ED79D}" type="pres">
+      <dgm:prSet presAssocID="{EFC3EEA8-03BC-42FD-AB56-B50398B1FF9F}" presName="ellipse" presStyleLbl="trBgShp" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D95FED83-45F3-4895-810E-B3ACC9829ADA}" type="pres">
+      <dgm:prSet presAssocID="{EFC3EEA8-03BC-42FD-AB56-B50398B1FF9F}" presName="arrow1" presStyleLbl="fgShp" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{63C174B8-A482-4550-ACFC-67A71D5DDF4C}" type="pres">
+      <dgm:prSet presAssocID="{EFC3EEA8-03BC-42FD-AB56-B50398B1FF9F}" presName="rectangle" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C93CC328-9594-44B0-B611-9551EDF2001C}" type="pres">
+      <dgm:prSet presAssocID="{82E12CBE-4E2B-434E-B8F9-C1EBE2841E80}" presName="item1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A056DEB0-2ED1-4D21-AADB-6503D407A417}" type="pres">
+      <dgm:prSet presAssocID="{15E9853F-46DF-4A7C-8EBC-28359E004687}" presName="item2" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B8588F04-38EC-4BE2-A356-58C89C17153B}" type="pres">
+      <dgm:prSet presAssocID="{1586198C-2498-482D-B9F6-1626819C3211}" presName="item3" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6C57548C-8E20-46C4-AA04-C50F24413671}" type="pres">
+      <dgm:prSet presAssocID="{EFC3EEA8-03BC-42FD-AB56-B50398B1FF9F}" presName="funnel" presStyleLbl="trAlignAcc1" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{637A5817-9145-48CC-AE95-4597AE2DD3C6}" type="presOf" srcId="{15E9853F-46DF-4A7C-8EBC-28359E004687}" destId="{C93CC328-9594-44B0-B611-9551EDF2001C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+    <dgm:cxn modelId="{6E4DE902-F295-4097-A687-12FD99F7E67E}" type="presOf" srcId="{EFC3EEA8-03BC-42FD-AB56-B50398B1FF9F}" destId="{315D7E90-DFDF-4A16-8BBA-B546B92406A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+    <dgm:cxn modelId="{905F9ADB-D9A9-4B39-848D-2FA3C6104F14}" srcId="{EFC3EEA8-03BC-42FD-AB56-B50398B1FF9F}" destId="{15E9853F-46DF-4A7C-8EBC-28359E004687}" srcOrd="2" destOrd="0" parTransId="{7FDDA0AB-62DE-4CC1-8464-5EFC660BD2CD}" sibTransId="{F45F7233-A2E5-4515-9B1F-F1E1F17D9E4D}"/>
+    <dgm:cxn modelId="{A277E6FA-D03B-48FB-8816-28033FAAB45D}" srcId="{EFC3EEA8-03BC-42FD-AB56-B50398B1FF9F}" destId="{1586198C-2498-482D-B9F6-1626819C3211}" srcOrd="3" destOrd="0" parTransId="{F7D5D5AE-1B6A-47C6-96D4-73BF2D247783}" sibTransId="{8963DDCB-3A53-49F2-8A26-9796BC8C625A}"/>
+    <dgm:cxn modelId="{E240117A-EC87-422D-82C1-242AEDBAC1AE}" srcId="{EFC3EEA8-03BC-42FD-AB56-B50398B1FF9F}" destId="{82E12CBE-4E2B-434E-B8F9-C1EBE2841E80}" srcOrd="1" destOrd="0" parTransId="{A576B8F6-5BE7-4AAC-B844-C445AD1E1FB3}" sibTransId="{29677439-50E6-4B85-87EB-AF8D5046D72E}"/>
+    <dgm:cxn modelId="{CB394FFF-9D28-413E-ADF0-302F766D9772}" srcId="{EFC3EEA8-03BC-42FD-AB56-B50398B1FF9F}" destId="{0EDC2244-9CAE-4E3D-BAD6-EF164A7AE272}" srcOrd="0" destOrd="0" parTransId="{ED9966CF-2FF0-4592-8F0A-2EE8BB0E3DDB}" sibTransId="{93B93611-67B8-4D66-B13E-220FEED58454}"/>
+    <dgm:cxn modelId="{DA3028F6-16CD-4CDB-8CB9-C232BF86B569}" type="presOf" srcId="{82E12CBE-4E2B-434E-B8F9-C1EBE2841E80}" destId="{A056DEB0-2ED1-4D21-AADB-6503D407A417}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+    <dgm:cxn modelId="{58E2B558-DED2-40CE-8E3B-005C90FB474A}" type="presOf" srcId="{1586198C-2498-482D-B9F6-1626819C3211}" destId="{63C174B8-A482-4550-ACFC-67A71D5DDF4C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+    <dgm:cxn modelId="{6B2ABDCA-2282-48A2-9FE8-32DF22DA2BA0}" type="presOf" srcId="{0EDC2244-9CAE-4E3D-BAD6-EF164A7AE272}" destId="{B8588F04-38EC-4BE2-A356-58C89C17153B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+    <dgm:cxn modelId="{85F16D2F-6740-4779-8B26-37F8AE607AA2}" type="presParOf" srcId="{315D7E90-DFDF-4A16-8BBA-B546B92406A8}" destId="{98DC22D0-2BB2-4CA2-AA09-AA713D0ED79D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+    <dgm:cxn modelId="{EDEAFC43-CED0-4CE4-8B34-8D4F7F396BE2}" type="presParOf" srcId="{315D7E90-DFDF-4A16-8BBA-B546B92406A8}" destId="{D95FED83-45F3-4895-810E-B3ACC9829ADA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+    <dgm:cxn modelId="{3BCDA8FC-0425-4B53-ADB0-FC741EE69507}" type="presParOf" srcId="{315D7E90-DFDF-4A16-8BBA-B546B92406A8}" destId="{63C174B8-A482-4550-ACFC-67A71D5DDF4C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+    <dgm:cxn modelId="{36E12635-41CA-47AF-B982-595B61F0F90E}" type="presParOf" srcId="{315D7E90-DFDF-4A16-8BBA-B546B92406A8}" destId="{C93CC328-9594-44B0-B611-9551EDF2001C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+    <dgm:cxn modelId="{41A7C7A9-649F-4AFB-831B-819323D140FE}" type="presParOf" srcId="{315D7E90-DFDF-4A16-8BBA-B546B92406A8}" destId="{A056DEB0-2ED1-4D21-AADB-6503D407A417}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+    <dgm:cxn modelId="{1902ED56-DA2E-47A6-956A-A0BE3AA15DDF}" type="presParOf" srcId="{315D7E90-DFDF-4A16-8BBA-B546B92406A8}" destId="{B8588F04-38EC-4BE2-A356-58C89C17153B}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+    <dgm:cxn modelId="{5368E4BB-5528-419B-B832-2E3333F46244}" type="presParOf" srcId="{315D7E90-DFDF-4A16-8BBA-B546B92406A8}" destId="{6C57548C-8E20-46C4-AA04-C50F24413671}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId10" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{91503FB7-04E2-48B9-970E-C11747EA4AFB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2282388" y="608604"/>
+          <a:ext cx="127751" cy="559673"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="127751" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="127751" y="559673"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="559673"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="matte"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{1150EBEC-82AF-45D3-986F-D290EB49CD05}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3395651" y="2336292"/>
+          <a:ext cx="182502" cy="559673"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="559673"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="182502" y="559673"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="matte"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{8A179BD0-5EF7-453F-8479-84B8F4D66E1F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2410139" y="608604"/>
+          <a:ext cx="1472184" cy="1119347"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="991595"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1472184" y="991595"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1472184" y="1119347"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="matte"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{8E735F89-F763-45CD-B75F-577F3D5F76FA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2364419" y="608604"/>
+          <a:ext cx="91440" cy="1119347"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="1119347"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="matte"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{341FF034-43AB-45E9-B776-58717DD1927A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="937955" y="608604"/>
+          <a:ext cx="1472184" cy="1119347"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="1472184" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1472184" y="991595"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="991595"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="1119347"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="matte"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D1A58788-F485-45E8-AA88-783DA78174F9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1801799" y="263"/>
+          <a:ext cx="1216681" cy="608340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1700" kern="1200"/>
+            <a:t>Raíz</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1801799" y="263"/>
+        <a:ext cx="1216681" cy="608340"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FA916528-550F-459B-855D-6E5D5DEF42CD}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="329614" y="1727951"/>
+          <a:ext cx="1216681" cy="608340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1700" kern="1200"/>
+            <a:t>Subordinado</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="329614" y="1727951"/>
+        <a:ext cx="1216681" cy="608340"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B1CCAC34-31E1-41AD-A7A0-A696B931CF02}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1801799" y="1727951"/>
+          <a:ext cx="1216681" cy="608340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1700" kern="1200"/>
+            <a:t>Subordinado</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1801799" y="1727951"/>
+        <a:ext cx="1216681" cy="608340"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4F0D2E7F-6B64-4605-8C7A-FB2D903106F6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3273983" y="1727951"/>
+          <a:ext cx="1216681" cy="608340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1700" kern="1200"/>
+            <a:t>Subordinado</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3273983" y="1727951"/>
+        <a:ext cx="1216681" cy="608340"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{168534F7-F84B-4226-9854-4FEFC01FF4AA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3578154" y="2591795"/>
+          <a:ext cx="1216681" cy="608340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent6">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent6">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent6">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1700" kern="1200"/>
+            <a:t>Dependiente</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3578154" y="2591795"/>
+        <a:ext cx="1216681" cy="608340"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C80CDC21-5A35-4E13-8051-B2B4DE88B3A9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1065706" y="864107"/>
+          <a:ext cx="1216681" cy="608340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent5">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="10795" tIns="10795" rIns="10795" bIns="10795" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1700" kern="1200"/>
+            <a:t>Ayudante</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1065706" y="864107"/>
+        <a:ext cx="1216681" cy="608340"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{98DC22D0-2BB2-4CA2-AA09-AA713D0ED79D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1341787" y="179546"/>
+          <a:ext cx="3563301" cy="1237487"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:tint val="50000"/>
+            <a:alpha val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d z="-190500" extrusionH="12700" prstMaterial="matte"/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D95FED83-45F3-4895-810E-B3ACC9829ADA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2783681" y="3209733"/>
+          <a:ext cx="690562" cy="441959"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:tint val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d z="190500" prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{63C174B8-A482-4550-ACFC-67A71D5DDF4C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1471613" y="3563301"/>
+          <a:ext cx="3314699" cy="828674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="206248" tIns="206248" rIns="206248" bIns="206248" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1289050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2900" kern="1200"/>
+            <a:t>IPC</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1471613" y="3563301"/>
+        <a:ext cx="3314699" cy="828674"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C93CC328-9594-44B0-B611-9551EDF2001C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2637282" y="1512607"/>
+          <a:ext cx="1243012" cy="1243012"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17780" tIns="17780" rIns="17780" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Industria</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2819317" y="1694642"/>
+        <a:ext cx="878942" cy="878942"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A056DEB0-2ED1-4D21-AADB-6503D407A417}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1747838" y="580072"/>
+          <a:ext cx="1243012" cy="1243012"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17780" tIns="17780" rIns="17780" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" kern="1200"/>
+            <a:t>Agricultura</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1929873" y="762107"/>
+        <a:ext cx="878942" cy="878942"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B8588F04-38EC-4BE2-A356-58C89C17153B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3018473" y="279539"/>
+          <a:ext cx="1243012" cy="1243012"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17780" tIns="17780" rIns="17780" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Servicios</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3200508" y="461574"/>
+        <a:ext cx="878942" cy="878942"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6C57548C-8E20-46C4-AA04-C50F24413671}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1195388" y="27622"/>
+          <a:ext cx="3867149" cy="3093719"/>
+        </a:xfrm>
+        <a:prstGeom prst="funnel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="40000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="12700" prstMaterial="plastic">
+          <a:bevelT w="50800" h="50800"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="1000"/>
+    <dgm:cat type="convert" pri="6000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2" type="asst">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="5">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="1" destId="4" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="1" destId="5" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="13"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="16" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="17" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11" type="asst"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="13"/>
+        <dgm:pt modelId="14"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="15" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="16" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="17" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="18" srcId="1" destId="14" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="hierChild1">
+    <dgm:varLst>
+      <dgm:orgChart val="1"/>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromL"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="des" forName="rootComposite1" refType="w" fact="10"/>
+      <dgm:constr type="h" for="des" forName="rootComposite1" refType="w" refFor="des" refForName="rootComposite1" fact="0.5"/>
+      <dgm:constr type="w" for="des" forName="rootComposite" refType="w" fact="10"/>
+      <dgm:constr type="h" for="des" forName="rootComposite" refType="w" refFor="des" refForName="rootComposite1" fact="0.5"/>
+      <dgm:constr type="w" for="des" forName="rootComposite3" refType="w" fact="10"/>
+      <dgm:constr type="h" for="des" forName="rootComposite3" refType="w" refFor="des" refForName="rootComposite1" fact="0.5"/>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ"/>
+      <dgm:constr type="sp" for="des" op="equ"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot1" refType="w" refFor="des" refForName="rootComposite1" fact="0.21"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot2" refType="sp" refFor="des" refForName="hierRoot1"/>
+      <dgm:constr type="sp" for="des" forName="hierRoot3" refType="sp" refFor="des" refForName="hierRoot1"/>
+      <dgm:constr type="sibSp" refType="w" refFor="des" refForName="rootComposite1" fact="0.21"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild4" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild5" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild6" refType="sibSp"/>
+      <dgm:constr type="sibSp" for="des" forName="hierChild7" refType="sibSp"/>
+      <dgm:constr type="secSibSp" refType="w" refFor="des" refForName="rootComposite1" fact="0.21"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild2" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild3" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild4" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild5" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild6" refType="secSibSp"/>
+      <dgm:constr type="secSibSp" for="des" forName="hierChild7" refType="secSibSp"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="hierRoot1">
+          <dgm:varLst>
+            <dgm:hierBranch val="init"/>
+          </dgm:varLst>
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="hierBranch" op="equ" val="l">
+              <dgm:choose name="Name7">
+                <dgm:if name="Name8" axis="ch" ptType="asst" func="cnt" op="gte" val="1">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="tR"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.65"/>
+                  </dgm:constrLst>
+                </dgm:if>
+                <dgm:else name="Name9">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="tR"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.25"/>
+                  </dgm:constrLst>
+                </dgm:else>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:if name="Name10" func="var" arg="hierBranch" op="equ" val="r">
+              <dgm:choose name="Name11">
+                <dgm:if name="Name12" axis="ch" ptType="asst" func="cnt" op="gte" val="1">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="tL"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.65"/>
+                  </dgm:constrLst>
+                </dgm:if>
+                <dgm:else name="Name13">
+                  <dgm:alg type="hierRoot">
+                    <dgm:param type="hierAlign" val="tL"/>
+                  </dgm:alg>
+                  <dgm:constrLst>
+                    <dgm:constr type="alignOff" val="0.25"/>
+                  </dgm:constrLst>
+                </dgm:else>
+              </dgm:choose>
+            </dgm:if>
+            <dgm:if name="Name14" func="var" arg="hierBranch" op="equ" val="hang">
+              <dgm:alg type="hierRoot"/>
+              <dgm:constrLst>
+                <dgm:constr type="alignOff" val="0.65"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:else name="Name15">
+              <dgm:alg type="hierRoot"/>
+              <dgm:constrLst>
+                <dgm:constr type="alignOff"/>
+                <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+              </dgm:constrLst>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="rootComposite1">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node" cnt="1"/>
+            <dgm:choose name="Name16">
+              <dgm:if name="Name17" func="var" arg="hierBranch" op="equ" val="init">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="l" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:if name="Name18" func="var" arg="hierBranch" op="equ" val="l">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="r" for="ch" forName="rootConnector1" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:if name="Name19" func="var" arg="hierBranch" op="equ" val="r">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="l" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name20">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText1"/>
+                  <dgm:constr type="t" for="ch" forName="rootText1"/>
+                  <dgm:constr type="w" for="ch" forName="rootText1" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText1" refType="h"/>
+                  <dgm:constr type="r" for="ch" forName="rootConnector1" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector1"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector1" refType="w" refFor="ch" refForName="rootText1" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector1" refType="h" refFor="ch" refForName="rootText1"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst/>
+            <dgm:layoutNode name="rootText1" styleLbl="node0">
+              <dgm:varLst>
+                <dgm:chPref val="3"/>
+              </dgm:varLst>
+              <dgm:alg type="tx"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst>
+                <dgm:constr type="primFontSz" val="65"/>
+                <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="rootConnector1" moveWith="rootText1">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="hierChild2">
+            <dgm:choose name="Name21">
+              <dgm:if name="Name22" func="var" arg="hierBranch" op="equ" val="l">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="chAlign" val="r"/>
+                  <dgm:param type="linDir" val="fromT"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:if name="Name23" func="var" arg="hierBranch" op="equ" val="r">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="chAlign" val="l"/>
+                  <dgm:param type="linDir" val="fromT"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:if name="Name24" func="var" arg="hierBranch" op="equ" val="hang">
+                <dgm:choose name="Name25">
+                  <dgm:if name="Name26" func="var" arg="dir" op="equ" val="norm">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="chAlign" val="l"/>
+                      <dgm:param type="linDir" val="fromL"/>
+                      <dgm:param type="secChAlign" val="t"/>
+                      <dgm:param type="secLinDir" val="fromT"/>
+                    </dgm:alg>
+                  </dgm:if>
+                  <dgm:else name="Name27">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="chAlign" val="l"/>
+                      <dgm:param type="linDir" val="fromR"/>
+                      <dgm:param type="secChAlign" val="t"/>
+                      <dgm:param type="secLinDir" val="fromT"/>
+                    </dgm:alg>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:if>
+              <dgm:else name="Name28">
+                <dgm:choose name="Name29">
+                  <dgm:if name="Name30" func="var" arg="dir" op="equ" val="norm">
+                    <dgm:alg type="hierChild"/>
+                  </dgm:if>
+                  <dgm:else name="Name31">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="linDir" val="fromR"/>
+                    </dgm:alg>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="rep2a" axis="ch" ptType="nonAsst">
+              <dgm:forEach name="Name32" axis="precedSib" ptType="parTrans" st="-1" cnt="1">
+                <dgm:choose name="Name33">
+                  <dgm:if name="Name34" func="var" arg="hierBranch" op="equ" val="std">
+                    <dgm:layoutNode name="Name35">
+                      <dgm:alg type="conn">
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="tCtr"/>
+                        <dgm:param type="bendPt" val="end"/>
+                      </dgm:alg>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:if>
+                  <dgm:if name="Name36" func="var" arg="hierBranch" op="equ" val="init">
+                    <dgm:layoutNode name="Name37">
+                      <dgm:choose name="Name38">
+                        <dgm:if name="Name39" axis="self" func="depth" op="lte" val="2">
+                          <dgm:alg type="conn">
+                            <dgm:param type="connRout" val="bend"/>
+                            <dgm:param type="dim" val="1D"/>
+                            <dgm:param type="endSty" val="noArr"/>
+                            <dgm:param type="begPts" val="bCtr"/>
+                            <dgm:param type="endPts" val="tCtr"/>
+                            <dgm:param type="bendPt" val="end"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name40">
+                          <dgm:choose name="Name41">
+                            <dgm:if name="Name42" axis="par des" func="maxDepth" op="lte" val="1">
+                              <dgm:choose name="Name43">
+                                <dgm:if name="Name44" axis="par ch" ptType="node asst" func="cnt" op="gte" val="1">
+                                  <dgm:alg type="conn">
+                                    <dgm:param type="connRout" val="bend"/>
+                                    <dgm:param type="dim" val="1D"/>
+                                    <dgm:param type="endSty" val="noArr"/>
+                                    <dgm:param type="begPts" val="bCtr"/>
+                                    <dgm:param type="endPts" val="midL midR"/>
+                                  </dgm:alg>
+                                </dgm:if>
+                                <dgm:else name="Name45">
+                                  <dgm:alg type="conn">
+                                    <dgm:param type="connRout" val="bend"/>
+                                    <dgm:param type="dim" val="1D"/>
+                                    <dgm:param type="endSty" val="noArr"/>
+                                    <dgm:param type="begPts" val="bCtr"/>
+                                    <dgm:param type="endPts" val="midL midR"/>
+                                    <dgm:param type="srcNode" val="rootConnector"/>
+                                  </dgm:alg>
+                                </dgm:else>
+                              </dgm:choose>
+                            </dgm:if>
+                            <dgm:else name="Name46">
+                              <dgm:alg type="conn">
+                                <dgm:param type="connRout" val="bend"/>
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="begPts" val="bCtr"/>
+                                <dgm:param type="endPts" val="tCtr"/>
+                                <dgm:param type="bendPt" val="end"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:if>
+                  <dgm:if name="Name47" func="var" arg="hierBranch" op="equ" val="hang">
+                    <dgm:layoutNode name="Name48">
+                      <dgm:alg type="conn">
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midL midR"/>
+                      </dgm:alg>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:if>
+                  <dgm:else name="Name49">
+                    <dgm:layoutNode name="Name50">
+                      <dgm:choose name="Name51">
+                        <dgm:if name="Name52" axis="self" func="depth" op="lte" val="2">
+                          <dgm:choose name="Name53">
+                            <dgm:if name="Name54" axis="par ch" ptType="node asst" func="cnt" op="gte" val="1">
+                              <dgm:alg type="conn">
+                                <dgm:param type="connRout" val="bend"/>
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="begPts" val="bCtr"/>
+                                <dgm:param type="endPts" val="midL midR"/>
+                              </dgm:alg>
+                            </dgm:if>
+                            <dgm:else name="Name55">
+                              <dgm:alg type="conn">
+                                <dgm:param type="connRout" val="bend"/>
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="begPts" val="bCtr"/>
+                                <dgm:param type="endPts" val="midL midR"/>
+                                <dgm:param type="srcNode" val="rootConnector1"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                        </dgm:if>
+                        <dgm:else name="Name56">
+                          <dgm:choose name="Name57">
+                            <dgm:if name="Name58" axis="par ch" ptType="node asst" func="cnt" op="gte" val="1">
+                              <dgm:alg type="conn">
+                                <dgm:param type="connRout" val="bend"/>
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="begPts" val="bCtr"/>
+                                <dgm:param type="endPts" val="midL midR"/>
+                              </dgm:alg>
+                            </dgm:if>
+                            <dgm:else name="Name59">
+                              <dgm:alg type="conn">
+                                <dgm:param type="connRout" val="bend"/>
+                                <dgm:param type="dim" val="1D"/>
+                                <dgm:param type="endSty" val="noArr"/>
+                                <dgm:param type="begPts" val="bCtr"/>
+                                <dgm:param type="endPts" val="midL midR"/>
+                                <dgm:param type="srcNode" val="rootConnector"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                        </dgm:else>
+                      </dgm:choose>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:else>
+                </dgm:choose>
+              </dgm:forEach>
+              <dgm:layoutNode name="hierRoot2">
+                <dgm:varLst>
+                  <dgm:hierBranch val="init"/>
+                </dgm:varLst>
+                <dgm:choose name="Name60">
+                  <dgm:if name="Name61" func="var" arg="hierBranch" op="equ" val="l">
+                    <dgm:choose name="Name62">
+                      <dgm:if name="Name63" axis="ch" ptType="asst" func="cnt" op="gte" val="1">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="tR"/>
+                        </dgm:alg>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.65"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name64">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="tR"/>
+                        </dgm:alg>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.25"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:if name="Name65" func="var" arg="hierBranch" op="equ" val="r">
+                    <dgm:choose name="Name66">
+                      <dgm:if name="Name67" axis="ch" ptType="asst" func="cnt" op="gte" val="1">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="tL"/>
+                        </dgm:alg>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.65"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name68">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="tL"/>
+                        </dgm:alg>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.25"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:if name="Name69" func="var" arg="hierBranch" op="equ" val="std">
+                    <dgm:alg type="hierRoot"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff"/>
+                      <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                    </dgm:constrLst>
+                  </dgm:if>
+                  <dgm:if name="Name70" func="var" arg="hierBranch" op="equ" val="init">
+                    <dgm:choose name="Name71">
+                      <dgm:if name="Name72" axis="des" func="maxDepth" op="lte" val="1">
+                        <dgm:choose name="Name73">
+                          <dgm:if name="Name74" axis="ch" ptType="asst" func="cnt" op="gte" val="1">
+                            <dgm:alg type="hierRoot">
+                              <dgm:param type="hierAlign" val="tL"/>
+                            </dgm:alg>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                            <dgm:constrLst>
+                              <dgm:constr type="alignOff" val="0.65"/>
+                            </dgm:constrLst>
+                          </dgm:if>
+                          <dgm:else name="Name75">
+                            <dgm:alg type="hierRoot">
+                              <dgm:param type="hierAlign" val="tL"/>
+                            </dgm:alg>
+                            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                              <dgm:adjLst/>
+                            </dgm:shape>
+                            <dgm:presOf/>
+                            <dgm:constrLst>
+                              <dgm:constr type="alignOff" val="0.25"/>
+                            </dgm:constrLst>
+                          </dgm:else>
+                        </dgm:choose>
+                      </dgm:if>
+                      <dgm:else name="Name76">
+                        <dgm:alg type="hierRoot"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff"/>
+                          <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:else name="Name77">
+                    <dgm:alg type="hierRoot"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff" val="0.65"/>
+                    </dgm:constrLst>
+                  </dgm:else>
+                </dgm:choose>
+                <dgm:ruleLst/>
+                <dgm:layoutNode name="rootComposite">
+                  <dgm:alg type="composite"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                  <dgm:choose name="Name78">
+                    <dgm:if name="Name79" func="var" arg="hierBranch" op="equ" val="init">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name80" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name81" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:else name="Name82">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText"/>
+                        <dgm:constr type="t" for="ch" forName="rootText"/>
+                        <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                      </dgm:constrLst>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="rootText">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="primFontSz" val="65"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="rootConnector" moveWith="rootText">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild4">
+                  <dgm:choose name="Name83">
+                    <dgm:if name="Name84" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="r"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:if name="Name85" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:if name="Name86" func="var" arg="hierBranch" op="equ" val="hang">
+                      <dgm:choose name="Name87">
+                        <dgm:if name="Name88" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromL"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name89">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromR"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name90" func="var" arg="hierBranch" op="equ" val="std">
+                      <dgm:choose name="Name91">
+                        <dgm:if name="Name92" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild"/>
+                        </dgm:if>
+                        <dgm:else name="Name93">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name94" func="var" arg="hierBranch" op="equ" val="init">
+                      <dgm:choose name="Name95">
+                        <dgm:if name="Name96" axis="des" func="maxDepth" op="lte" val="1">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name97">
+                          <dgm:choose name="Name98">
+                            <dgm:if name="Name99" func="var" arg="dir" op="equ" val="norm">
+                              <dgm:alg type="hierChild"/>
+                            </dgm:if>
+                            <dgm:else name="Name100">
+                              <dgm:alg type="hierChild">
+                                <dgm:param type="linDir" val="fromR"/>
+                              </dgm:alg>
+                            </dgm:else>
+                          </dgm:choose>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:else name="Name101"/>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name102" ref="rep2a"/>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild5">
+                  <dgm:choose name="Name103">
+                    <dgm:if name="Name104" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromL"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name105">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromR"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name106" ref="rep2b"/>
+                </dgm:layoutNode>
+              </dgm:layoutNode>
+            </dgm:forEach>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="hierChild3">
+            <dgm:choose name="Name107">
+              <dgm:if name="Name108" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="chAlign" val="l"/>
+                  <dgm:param type="linDir" val="fromL"/>
+                  <dgm:param type="secChAlign" val="t"/>
+                  <dgm:param type="secLinDir" val="fromT"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name109">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="chAlign" val="l"/>
+                  <dgm:param type="linDir" val="fromR"/>
+                  <dgm:param type="secChAlign" val="t"/>
+                  <dgm:param type="secLinDir" val="fromT"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="rep2b" axis="ch" ptType="asst">
+              <dgm:forEach name="Name110" axis="precedSib" ptType="parTrans" st="-1" cnt="1">
+                <dgm:layoutNode name="Name111">
+                  <dgm:alg type="conn">
+                    <dgm:param type="connRout" val="bend"/>
+                    <dgm:param type="dim" val="1D"/>
+                    <dgm:param type="endSty" val="noArr"/>
+                    <dgm:param type="begPts" val="bCtr"/>
+                    <dgm:param type="endPts" val="midL midR"/>
+                  </dgm:alg>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" zOrderOff="-99999">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:layoutNode name="hierRoot3">
+                <dgm:varLst>
+                  <dgm:hierBranch val="init"/>
+                </dgm:varLst>
+                <dgm:choose name="Name112">
+                  <dgm:if name="Name113" func="var" arg="hierBranch" op="equ" val="l">
+                    <dgm:alg type="hierRoot">
+                      <dgm:param type="hierAlign" val="tR"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff" val="0.65"/>
+                    </dgm:constrLst>
+                  </dgm:if>
+                  <dgm:if name="Name114" func="var" arg="hierBranch" op="equ" val="r">
+                    <dgm:alg type="hierRoot">
+                      <dgm:param type="hierAlign" val="tL"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff" val="0.65"/>
+                    </dgm:constrLst>
+                  </dgm:if>
+                  <dgm:if name="Name115" func="var" arg="hierBranch" op="equ" val="hang">
+                    <dgm:alg type="hierRoot"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff" val="0.65"/>
+                    </dgm:constrLst>
+                  </dgm:if>
+                  <dgm:if name="Name116" func="var" arg="hierBranch" op="equ" val="std">
+                    <dgm:alg type="hierRoot"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst>
+                      <dgm:constr type="alignOff"/>
+                      <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                    </dgm:constrLst>
+                  </dgm:if>
+                  <dgm:if name="Name117" func="var" arg="hierBranch" op="equ" val="init">
+                    <dgm:choose name="Name118">
+                      <dgm:if name="Name119" axis="des" func="maxDepth" op="lte" val="1">
+                        <dgm:alg type="hierRoot">
+                          <dgm:param type="hierAlign" val="tL"/>
+                        </dgm:alg>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff" val="0.65"/>
+                        </dgm:constrLst>
+                      </dgm:if>
+                      <dgm:else name="Name120">
+                        <dgm:alg type="hierRoot"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst>
+                          <dgm:constr type="alignOff"/>
+                          <dgm:constr type="bendDist" for="des" ptType="parTrans" refType="sp" fact="0.5"/>
+                        </dgm:constrLst>
+                      </dgm:else>
+                    </dgm:choose>
+                  </dgm:if>
+                  <dgm:else name="Name121"/>
+                </dgm:choose>
+                <dgm:ruleLst/>
+                <dgm:layoutNode name="rootComposite3">
+                  <dgm:alg type="composite"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                  <dgm:choose name="Name122">
+                    <dgm:if name="Name123" func="var" arg="hierBranch" op="equ" val="init">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name124" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector3" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:if name="Name125" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="l" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:if>
+                    <dgm:else name="Name126">
+                      <dgm:constrLst>
+                        <dgm:constr type="l" for="ch" forName="rootText3"/>
+                        <dgm:constr type="t" for="ch" forName="rootText3"/>
+                        <dgm:constr type="w" for="ch" forName="rootText3" refType="w"/>
+                        <dgm:constr type="h" for="ch" forName="rootText3" refType="h"/>
+                        <dgm:constr type="r" for="ch" forName="rootConnector3" refType="w"/>
+                        <dgm:constr type="t" for="ch" forName="rootConnector3"/>
+                        <dgm:constr type="w" for="ch" forName="rootConnector3" refType="w" refFor="ch" refForName="rootText3" fact="0.2"/>
+                        <dgm:constr type="h" for="ch" forName="rootConnector3" refType="h" refFor="ch" refForName="rootText3"/>
+                      </dgm:constrLst>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="rootText3">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="primFontSz" val="65"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="rootConnector3" moveWith="rootText1">
+                    <dgm:alg type="sp"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self" ptType="node" cnt="1"/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild6">
+                  <dgm:choose name="Name127">
+                    <dgm:if name="Name128" func="var" arg="hierBranch" op="equ" val="l">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="r"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:if name="Name129" func="var" arg="hierBranch" op="equ" val="r">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:if name="Name130" func="var" arg="hierBranch" op="equ" val="hang">
+                      <dgm:choose name="Name131">
+                        <dgm:if name="Name132" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromL"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name133">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromR"/>
+                            <dgm:param type="secChAlign" val="t"/>
+                            <dgm:param type="secLinDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name134" func="var" arg="hierBranch" op="equ" val="std">
+                      <dgm:choose name="Name135">
+                        <dgm:if name="Name136" func="var" arg="dir" op="equ" val="norm">
+                          <dgm:alg type="hierChild"/>
+                        </dgm:if>
+                        <dgm:else name="Name137">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="linDir" val="fromR"/>
+                          </dgm:alg>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:if name="Name138" func="var" arg="hierBranch" op="equ" val="init">
+                      <dgm:choose name="Name139">
+                        <dgm:if name="Name140" axis="des" func="maxDepth" op="lte" val="1">
+                          <dgm:alg type="hierChild">
+                            <dgm:param type="chAlign" val="l"/>
+                            <dgm:param type="linDir" val="fromT"/>
+                          </dgm:alg>
+                        </dgm:if>
+                        <dgm:else name="Name141">
+                          <dgm:alg type="hierChild"/>
+                        </dgm:else>
+                      </dgm:choose>
+                    </dgm:if>
+                    <dgm:else name="Name142"/>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name143" ref="rep2a"/>
+                </dgm:layoutNode>
+                <dgm:layoutNode name="hierChild7">
+                  <dgm:choose name="Name144">
+                    <dgm:if name="Name145" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromL"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name146">
+                      <dgm:alg type="hierChild">
+                        <dgm:param type="chAlign" val="l"/>
+                        <dgm:param type="linDir" val="fromR"/>
+                        <dgm:param type="secChAlign" val="t"/>
+                        <dgm:param type="secLinDir" val="fromT"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:forEach name="Name147" ref="rep2b"/>
+                </dgm:layoutNode>
+              </dgm:layoutNode>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/funnel1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="relationship" pri="2000"/>
+    <dgm:cat type="process" pri="27000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:chMax val="4"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="composite">
+      <dgm:param type="ar" val="1.25"/>
+    </dgm:alg>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" axis="ch" ptType="node" func="cnt" op="equ" val="2">
+        <dgm:constrLst>
+          <dgm:constr type="w" for="ch" forName="ellipse" refType="w" fact="0.645"/>
+          <dgm:constr type="h" for="ch" forName="ellipse" refType="h" fact="0.28"/>
+          <dgm:constr type="t" for="ch" forName="ellipse" refType="w" fact="0.0275"/>
+          <dgm:constr type="l" for="ch" forName="ellipse" refType="w" fact="0.0265"/>
+          <dgm:constr type="w" for="ch" forName="arrow1" refType="w" fact="0.125"/>
+          <dgm:constr type="h" for="ch" forName="arrow1" refType="h" fact="0.1"/>
+          <dgm:constr type="t" for="ch" forName="arrow1" refType="h" fact="0.72"/>
+          <dgm:constr type="l" for="ch" forName="arrow1" refType="w" fact="0.2875"/>
+          <dgm:constr type="w" for="ch" forName="rectangle" refType="w" fact="0.6"/>
+          <dgm:constr type="h" for="ch" forName="rectangle" refType="w" refFor="ch" refForName="rectangle" fact="0.25"/>
+          <dgm:constr type="t" for="ch" forName="rectangle" refType="h" fact="0.8"/>
+          <dgm:constr type="l" for="ch" forName="rectangle" refType="w" fact="0.05"/>
+          <dgm:constr type="w" for="ch" forName="item1" refType="w" fact="0.35"/>
+          <dgm:constr type="h" for="ch" forName="item1" refType="w" fact="0.35"/>
+          <dgm:constr type="t" for="ch" forName="item1" refType="h" fact="0.05"/>
+          <dgm:constr type="l" for="ch" forName="item1" refType="w" fact="0.125"/>
+          <dgm:constr type="primFontSz" for="ch" forName="item1" op="equ" val="65"/>
+          <dgm:constr type="w" for="ch" forName="funnel" refType="w" fact="0.7"/>
+          <dgm:constr type="h" for="ch" forName="funnel" refType="h" fact="0.7"/>
+          <dgm:constr type="t" for="ch" forName="funnel"/>
+          <dgm:constr type="l" for="ch" forName="funnel"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:constrLst>
+          <dgm:constr type="w" for="ch" forName="ellipse" refType="w" fact="0.645"/>
+          <dgm:constr type="h" for="ch" forName="ellipse" refType="h" fact="0.28"/>
+          <dgm:constr type="t" for="ch" forName="ellipse" refType="w" fact="0.0275"/>
+          <dgm:constr type="l" for="ch" forName="ellipse" refType="w" fact="0.0265"/>
+          <dgm:constr type="w" for="ch" forName="arrow1" refType="w" fact="0.125"/>
+          <dgm:constr type="h" for="ch" forName="arrow1" refType="h" fact="0.1"/>
+          <dgm:constr type="t" for="ch" forName="arrow1" refType="h" fact="0.72"/>
+          <dgm:constr type="l" for="ch" forName="arrow1" refType="w" fact="0.2875"/>
+          <dgm:constr type="w" for="ch" forName="rectangle" refType="w" fact="0.6"/>
+          <dgm:constr type="h" for="ch" forName="rectangle" refType="w" refFor="ch" refForName="rectangle" fact="0.25"/>
+          <dgm:constr type="t" for="ch" forName="rectangle" refType="h" fact="0.8"/>
+          <dgm:constr type="l" for="ch" forName="rectangle" refType="w" fact="0.05"/>
+          <dgm:constr type="primFontSz" for="ch" forName="rectangle" val="65"/>
+          <dgm:constr type="w" for="ch" forName="item1" refType="w" fact="0.225"/>
+          <dgm:constr type="h" for="ch" forName="item1" refType="w" fact="0.225"/>
+          <dgm:constr type="t" for="ch" forName="item1" refType="h" fact="0.336"/>
+          <dgm:constr type="l" for="ch" forName="item1" refType="w" fact="0.261"/>
+          <dgm:constr type="primFontSz" for="ch" forName="item1" val="65"/>
+          <dgm:constr type="w" for="ch" forName="item2" refType="w" fact="0.225"/>
+          <dgm:constr type="h" for="ch" forName="item2" refType="w" fact="0.225"/>
+          <dgm:constr type="t" for="ch" forName="item2" refType="h" fact="0.125"/>
+          <dgm:constr type="l" for="ch" forName="item2" refType="w" fact="0.1"/>
+          <dgm:constr type="primFontSz" for="ch" forName="item2" refType="primFontSz" refFor="ch" refForName="item1" op="equ"/>
+          <dgm:constr type="w" for="ch" forName="item3" refType="w" fact="0.225"/>
+          <dgm:constr type="h" for="ch" forName="item3" refType="w" fact="0.225"/>
+          <dgm:constr type="t" for="ch" forName="item3" refType="h" fact="0.057"/>
+          <dgm:constr type="l" for="ch" forName="item3" refType="w" fact="0.33"/>
+          <dgm:constr type="primFontSz" for="ch" forName="item3" refType="primFontSz" refFor="ch" refForName="item1" op="equ"/>
+          <dgm:constr type="w" for="ch" forName="funnel" refType="w" fact="0.7"/>
+          <dgm:constr type="h" for="ch" forName="funnel" refType="h" fact="0.7"/>
+          <dgm:constr type="t" for="ch" forName="funnel"/>
+          <dgm:constr type="l" for="ch" forName="funnel"/>
+        </dgm:constrLst>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:ruleLst/>
+    <dgm:choose name="Name4">
+      <dgm:if name="Name5" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+        <dgm:layoutNode name="ellipse" styleLbl="trBgShp">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="arrow1" styleLbl="fgShp">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="downArrow" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="rectangle" styleLbl="revTx">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx">
+            <dgm:param type="txAnchorHorzCh" val="ctr"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:choose name="Name6">
+            <dgm:if name="Name7" axis="ch" ptType="node" func="cnt" op="equ" val="1">
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+            </dgm:if>
+            <dgm:if name="Name8" axis="ch" ptType="node" func="cnt" op="equ" val="2">
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="2 1" cnt="1 0"/>
+            </dgm:if>
+            <dgm:if name="Name9" axis="ch" ptType="node" func="cnt" op="equ" val="3">
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="3 1" cnt="1 0"/>
+            </dgm:if>
+            <dgm:else name="Name10">
+              <dgm:presOf axis="ch desOrSelf" ptType="node node" st="4 1" cnt="1 0"/>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:constrLst/>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:forEach name="Name11" axis="ch" ptType="node" st="2" cnt="1">
+          <dgm:layoutNode name="item1" styleLbl="node1">
+            <dgm:varLst>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx">
+              <dgm:param type="txAnchorVertCh" val="mid"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:choose name="Name12">
+              <dgm:if name="Name13" axis="root ch" ptType="all node" func="cnt" op="equ" val="1">
+                <dgm:presOf/>
+              </dgm:if>
+              <dgm:if name="Name14" axis="root ch" ptType="all node" func="cnt" op="equ" val="2">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 1 1" cnt="0 1 0"/>
+              </dgm:if>
+              <dgm:if name="Name15" axis="root ch" ptType="all node" func="cnt" op="equ" val="3">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="0 1 0"/>
+              </dgm:if>
+              <dgm:else name="Name16">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 3 1" cnt="0 1 0"/>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.1"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:forEach>
+        <dgm:forEach name="Name17" axis="ch" ptType="node" st="3" cnt="1">
+          <dgm:layoutNode name="item2" styleLbl="node1">
+            <dgm:varLst>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx">
+              <dgm:param type="txAnchorVertCh" val="mid"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:choose name="Name18">
+              <dgm:if name="Name19" axis="root ch" ptType="all node" func="cnt" op="equ" val="1">
+                <dgm:presOf/>
+              </dgm:if>
+              <dgm:if name="Name20" axis="root ch" ptType="all node" func="cnt" op="equ" val="2">
+                <dgm:presOf/>
+              </dgm:if>
+              <dgm:if name="Name21" axis="root ch" ptType="all node" func="cnt" op="equ" val="3">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 1 1" cnt="0 1 0"/>
+              </dgm:if>
+              <dgm:else name="Name22">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 2 1" cnt="0 1 0"/>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.1"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:forEach>
+        <dgm:forEach name="Name23" axis="ch" ptType="node" st="4" cnt="1">
+          <dgm:layoutNode name="item3" styleLbl="node1">
+            <dgm:varLst>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx">
+              <dgm:param type="txAnchorVertCh" val="mid"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:choose name="Name24">
+              <dgm:if name="Name25" axis="root ch" ptType="all node" func="cnt" op="equ" val="1">
+                <dgm:presOf/>
+              </dgm:if>
+              <dgm:if name="Name26" axis="root ch" ptType="all node" func="cnt" op="equ" val="2">
+                <dgm:presOf/>
+              </dgm:if>
+              <dgm:if name="Name27" axis="root ch" ptType="all node" func="cnt" op="equ" val="3">
+                <dgm:presOf/>
+              </dgm:if>
+              <dgm:else name="Name28">
+                <dgm:presOf axis="root ch desOrSelf" ptType="all node node" st="1 1 1" cnt="0 1 0"/>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.1"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:forEach>
+        <dgm:layoutNode name="funnel" styleLbl="trAlignAcc1">
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="funnel" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+      </dgm:if>
+      <dgm:else name="Name29"/>
+    </dgm:choose>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="3D" pri="11100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="plastic">
+      <a:bevelT w="88900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="88900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" prstMaterial="plastic">
+      <a:bevelT w="88900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-80000" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+      <a:bevelB w="25400" h="25400" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+      <a:bevelB w="25400" h="25400" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+      <a:bevelB w="25400" h="25400" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-100000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="3D" pri="11100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="plastic">
+      <a:bevelT w="88900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="88900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" prstMaterial="plastic">
+      <a:bevelT w="88900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-80000" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+      <a:bevelB w="25400" h="25400" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+      <a:bevelB w="25400" h="25400" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+      <a:bevelB w="25400" h="25400" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-100000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1991,6 +10219,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="11 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2513,7 +10773,415 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="j0285750"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620000" y="762000"/>
+          <a:ext cx="3181350" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 2" descr="r_4xy31i[1]"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="-1700055">
+          <a:off x="9658350" y="6343650"/>
+          <a:ext cx="3657600" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 3" descr="xpvh0buq[1]"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8458200" y="3752850"/>
+          <a:ext cx="3657600" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="6667500"/>
+          <a:ext cx="4762500" cy="3409950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="7 Diagrama"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="6 Diagrama"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId6" r:lo="rId7" r:qs="rId8" r:cs="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Global"/>
+      <sheetName val="África"/>
+      <sheetName val="América"/>
+      <sheetName val="Asia"/>
+      <sheetName val="Europa"/>
+      <sheetName val="Oceanía"/>
+      <sheetName val="Imagenes"/>
+      <sheetName val="Hoja1"/>
+      <sheetName val="HistoricoMundial"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Población mundial</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1000</v>
+          </cell>
+          <cell r="B2">
+            <v>410</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1650</v>
+          </cell>
+          <cell r="B3">
+            <v>545</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1750</v>
+          </cell>
+          <cell r="B4">
+            <v>791</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1800</v>
+          </cell>
+          <cell r="B5">
+            <v>981</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1850</v>
+          </cell>
+          <cell r="B6">
+            <v>1262</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1900</v>
+          </cell>
+          <cell r="B7">
+            <v>1650</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1950</v>
+          </cell>
+          <cell r="B8">
+            <v>2516</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1955</v>
+          </cell>
+          <cell r="B9">
+            <v>2751</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1960</v>
+          </cell>
+          <cell r="B10">
+            <v>3018</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1965</v>
+          </cell>
+          <cell r="B11">
+            <v>3335</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1970</v>
+          </cell>
+          <cell r="B12">
+            <v>3697</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1975</v>
+          </cell>
+          <cell r="B13">
+            <v>4077</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>1980</v>
+          </cell>
+          <cell r="B14">
+            <v>4446</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>1985</v>
+          </cell>
+          <cell r="B15">
+            <v>4854</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>1990</v>
+          </cell>
+          <cell r="B16">
+            <v>5259</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>1995</v>
+          </cell>
+          <cell r="B17">
+            <v>5759</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>2000</v>
+          </cell>
+          <cell r="B18">
+            <v>6228</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>2005</v>
+          </cell>
+          <cell r="B19">
+            <v>6574</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2781,8 +11449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10535,8 +19203,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
